--- a/mapping/map_ibs_bricks.xlsx
+++ b/mapping/map_ibs_bricks.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4451C3D2-88F3-434C-B2AF-045658C4249D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bricks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="733">
   <si>
     <t>dist_brickcode</t>
   </si>
@@ -2207,9 +2213,6 @@
   </si>
   <si>
     <t>Sentrees</t>
-  </si>
-  <si>
-    <t>Mustafa</t>
   </si>
   <si>
     <t>Mustafa Muhammed</t>
@@ -2221,11 +2224,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2289,13 +2292,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2333,7 +2344,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2367,6 +2378,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2401,9 +2413,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2576,14 +2589,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D426"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2597,7 +2615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2611,7 +2629,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2625,7 +2643,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2639,7 +2657,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2653,7 +2671,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2667,7 +2685,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2681,7 +2699,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2695,7 +2713,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2709,7 +2727,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2723,7 +2741,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2737,7 +2755,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2751,7 +2769,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2765,7 +2783,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2779,7 +2797,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2793,7 +2811,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2807,7 +2825,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2821,7 +2839,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2835,7 +2853,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2849,7 +2867,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2863,7 +2881,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2877,7 +2895,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2891,7 +2909,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2905,7 +2923,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2919,7 +2937,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2933,7 +2951,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2947,7 +2965,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2961,7 +2979,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2975,7 +2993,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2989,7 +3007,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -3003,7 +3021,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -3017,7 +3035,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -3031,7 +3049,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -3045,7 +3063,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -3059,7 +3077,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -3073,7 +3091,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -3087,7 +3105,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -3101,7 +3119,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -3115,7 +3133,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -3129,7 +3147,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -3143,7 +3161,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -3157,7 +3175,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -3171,7 +3189,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -3185,7 +3203,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -3199,7 +3217,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -3213,7 +3231,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -3227,7 +3245,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -3241,7 +3259,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -3255,7 +3273,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -3269,7 +3287,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -3283,7 +3301,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -3297,7 +3315,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -3311,7 +3329,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -3325,7 +3343,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -3339,7 +3357,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -3353,7 +3371,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -3367,7 +3385,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -3381,7 +3399,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -3395,7 +3413,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -3409,7 +3427,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -3423,7 +3441,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -3437,7 +3455,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -3451,7 +3469,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -3465,7 +3483,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -3479,7 +3497,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -3493,7 +3511,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -3507,7 +3525,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -3521,7 +3539,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -3535,7 +3553,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -3549,7 +3567,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -3563,7 +3581,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -3577,7 +3595,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -3591,7 +3609,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -3605,7 +3623,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -3619,7 +3637,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -3633,7 +3651,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -3647,7 +3665,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -3661,7 +3679,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -3675,7 +3693,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -3689,7 +3707,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -3703,7 +3721,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -3717,7 +3735,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -3731,7 +3749,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -3745,7 +3763,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -3759,7 +3777,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -3773,7 +3791,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -3787,7 +3805,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -3801,7 +3819,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -3815,7 +3833,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -3829,7 +3847,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -3843,7 +3861,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -3857,7 +3875,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -3871,7 +3889,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -3885,7 +3903,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -3899,7 +3917,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -3913,7 +3931,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -3927,7 +3945,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -3941,7 +3959,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -3955,7 +3973,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -3969,7 +3987,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -3983,7 +4001,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -3997,7 +4015,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -4011,7 +4029,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -4025,7 +4043,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -4039,7 +4057,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -4053,7 +4071,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -4067,7 +4085,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -4081,7 +4099,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -4095,7 +4113,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -4109,7 +4127,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -4123,7 +4141,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -4137,7 +4155,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -4151,7 +4169,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -4165,7 +4183,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -4179,7 +4197,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -4193,7 +4211,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -4207,7 +4225,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -4221,7 +4239,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -4235,7 +4253,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -4249,7 +4267,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -4263,7 +4281,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -4277,7 +4295,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -4291,7 +4309,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -4305,7 +4323,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -4319,7 +4337,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -4333,7 +4351,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -4347,7 +4365,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -4361,7 +4379,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -4375,7 +4393,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -4389,7 +4407,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -4403,7 +4421,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -4417,7 +4435,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -4431,7 +4449,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -4445,7 +4463,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -4459,7 +4477,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -4473,7 +4491,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -4487,7 +4505,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -4501,7 +4519,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -4515,7 +4533,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -4529,7 +4547,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -4543,7 +4561,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -4557,7 +4575,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -4571,7 +4589,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -4585,7 +4603,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -4599,7 +4617,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -4613,7 +4631,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -4627,7 +4645,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -4641,7 +4659,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -4655,7 +4673,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>151</v>
       </c>
@@ -4669,7 +4687,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -4683,7 +4701,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -4697,7 +4715,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>154</v>
       </c>
@@ -4711,7 +4729,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -4725,7 +4743,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>156</v>
       </c>
@@ -4739,7 +4757,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>157</v>
       </c>
@@ -4753,7 +4771,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -4767,7 +4785,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -4781,7 +4799,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>160</v>
       </c>
@@ -4795,7 +4813,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -4809,7 +4827,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>162</v>
       </c>
@@ -4823,7 +4841,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>163</v>
       </c>
@@ -4837,7 +4855,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>164</v>
       </c>
@@ -4851,7 +4869,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -4865,7 +4883,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>166</v>
       </c>
@@ -4879,7 +4897,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>167</v>
       </c>
@@ -4893,7 +4911,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -4907,7 +4925,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>169</v>
       </c>
@@ -4921,7 +4939,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>170</v>
       </c>
@@ -4935,7 +4953,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>171</v>
       </c>
@@ -4949,7 +4967,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>172</v>
       </c>
@@ -4963,7 +4981,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>173</v>
       </c>
@@ -4977,7 +4995,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>174</v>
       </c>
@@ -4991,7 +5009,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>175</v>
       </c>
@@ -5005,7 +5023,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>176</v>
       </c>
@@ -5019,7 +5037,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>177</v>
       </c>
@@ -5033,7 +5051,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>178</v>
       </c>
@@ -5047,7 +5065,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>179</v>
       </c>
@@ -5061,7 +5079,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>180</v>
       </c>
@@ -5075,7 +5093,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>181</v>
       </c>
@@ -5089,7 +5107,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>182</v>
       </c>
@@ -5103,7 +5121,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>183</v>
       </c>
@@ -5117,7 +5135,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>184</v>
       </c>
@@ -5131,7 +5149,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>185</v>
       </c>
@@ -5145,7 +5163,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>186</v>
       </c>
@@ -5159,7 +5177,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>187</v>
       </c>
@@ -5173,7 +5191,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>188</v>
       </c>
@@ -5187,7 +5205,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>189</v>
       </c>
@@ -5201,7 +5219,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>190</v>
       </c>
@@ -5215,7 +5233,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>191</v>
       </c>
@@ -5229,7 +5247,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>192</v>
       </c>
@@ -5243,7 +5261,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>193</v>
       </c>
@@ -5257,7 +5275,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>194</v>
       </c>
@@ -5271,7 +5289,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>195</v>
       </c>
@@ -5285,7 +5303,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>196</v>
       </c>
@@ -5299,7 +5317,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>197</v>
       </c>
@@ -5313,7 +5331,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>198</v>
       </c>
@@ -5327,7 +5345,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>199</v>
       </c>
@@ -5341,7 +5359,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>200</v>
       </c>
@@ -5355,7 +5373,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>201</v>
       </c>
@@ -5369,7 +5387,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>202</v>
       </c>
@@ -5383,7 +5401,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>203</v>
       </c>
@@ -5397,7 +5415,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>204</v>
       </c>
@@ -5411,7 +5429,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>205</v>
       </c>
@@ -5425,7 +5443,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>206</v>
       </c>
@@ -5439,7 +5457,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>207</v>
       </c>
@@ -5453,7 +5471,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>208</v>
       </c>
@@ -5467,7 +5485,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>209</v>
       </c>
@@ -5481,7 +5499,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>210</v>
       </c>
@@ -5495,7 +5513,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>211</v>
       </c>
@@ -5509,7 +5527,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>212</v>
       </c>
@@ -5523,7 +5541,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>213</v>
       </c>
@@ -5537,7 +5555,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>214</v>
       </c>
@@ -5551,7 +5569,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>215</v>
       </c>
@@ -5565,7 +5583,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>216</v>
       </c>
@@ -5579,7 +5597,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>217</v>
       </c>
@@ -5593,7 +5611,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>218</v>
       </c>
@@ -5607,7 +5625,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>219</v>
       </c>
@@ -5621,7 +5639,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>220</v>
       </c>
@@ -5635,7 +5653,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>221</v>
       </c>
@@ -5649,7 +5667,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>222</v>
       </c>
@@ -5663,7 +5681,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>223</v>
       </c>
@@ -5677,7 +5695,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>224</v>
       </c>
@@ -5691,7 +5709,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>225</v>
       </c>
@@ -5705,7 +5723,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>226</v>
       </c>
@@ -5719,7 +5737,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>227</v>
       </c>
@@ -5733,7 +5751,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>228</v>
       </c>
@@ -5747,7 +5765,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>229</v>
       </c>
@@ -5761,7 +5779,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>230</v>
       </c>
@@ -5775,7 +5793,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>231</v>
       </c>
@@ -5789,7 +5807,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>232</v>
       </c>
@@ -5803,7 +5821,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>233</v>
       </c>
@@ -5817,7 +5835,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>234</v>
       </c>
@@ -5831,7 +5849,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>235</v>
       </c>
@@ -5845,7 +5863,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>236</v>
       </c>
@@ -5859,7 +5877,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>237</v>
       </c>
@@ -5873,7 +5891,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>238</v>
       </c>
@@ -5887,7 +5905,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>239</v>
       </c>
@@ -5901,7 +5919,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>240</v>
       </c>
@@ -5915,7 +5933,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>241</v>
       </c>
@@ -5929,7 +5947,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>242</v>
       </c>
@@ -5943,7 +5961,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>243</v>
       </c>
@@ -5957,7 +5975,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>244</v>
       </c>
@@ -5971,7 +5989,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>245</v>
       </c>
@@ -5985,7 +6003,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>246</v>
       </c>
@@ -5999,7 +6017,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>247</v>
       </c>
@@ -6013,7 +6031,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>248</v>
       </c>
@@ -6027,7 +6045,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>249</v>
       </c>
@@ -6041,7 +6059,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>250</v>
       </c>
@@ -6055,7 +6073,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>251</v>
       </c>
@@ -6069,7 +6087,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>252</v>
       </c>
@@ -6083,7 +6101,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>253</v>
       </c>
@@ -6097,7 +6115,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>254</v>
       </c>
@@ -6111,7 +6129,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>255</v>
       </c>
@@ -6125,7 +6143,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>256</v>
       </c>
@@ -6139,7 +6157,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>257</v>
       </c>
@@ -6153,7 +6171,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>258</v>
       </c>
@@ -6167,7 +6185,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>259</v>
       </c>
@@ -6181,7 +6199,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>260</v>
       </c>
@@ -6195,7 +6213,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>261</v>
       </c>
@@ -6209,7 +6227,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>262</v>
       </c>
@@ -6223,7 +6241,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>263</v>
       </c>
@@ -6237,7 +6255,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>264</v>
       </c>
@@ -6251,7 +6269,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>265</v>
       </c>
@@ -6265,7 +6283,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>266</v>
       </c>
@@ -6279,7 +6297,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>267</v>
       </c>
@@ -6293,7 +6311,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>268</v>
       </c>
@@ -6307,7 +6325,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>269</v>
       </c>
@@ -6321,7 +6339,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>270</v>
       </c>
@@ -6335,7 +6353,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>271</v>
       </c>
@@ -6349,7 +6367,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>272</v>
       </c>
@@ -6363,7 +6381,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>273</v>
       </c>
@@ -6377,7 +6395,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>274</v>
       </c>
@@ -6391,7 +6409,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>275</v>
       </c>
@@ -6405,7 +6423,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>276</v>
       </c>
@@ -6419,7 +6437,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>277</v>
       </c>
@@ -6433,7 +6451,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>278</v>
       </c>
@@ -6447,7 +6465,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>279</v>
       </c>
@@ -6461,7 +6479,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>280</v>
       </c>
@@ -6475,7 +6493,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>281</v>
       </c>
@@ -6489,7 +6507,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>282</v>
       </c>
@@ -6503,7 +6521,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>283</v>
       </c>
@@ -6517,7 +6535,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>284</v>
       </c>
@@ -6531,7 +6549,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>285</v>
       </c>
@@ -6545,7 +6563,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>286</v>
       </c>
@@ -6559,7 +6577,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>287</v>
       </c>
@@ -6573,7 +6591,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>288</v>
       </c>
@@ -6587,7 +6605,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>289</v>
       </c>
@@ -6601,7 +6619,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>290</v>
       </c>
@@ -6615,7 +6633,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>291</v>
       </c>
@@ -6629,7 +6647,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>292</v>
       </c>
@@ -6643,7 +6661,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>293</v>
       </c>
@@ -6657,7 +6675,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>294</v>
       </c>
@@ -6671,7 +6689,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>295</v>
       </c>
@@ -6685,7 +6703,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>296</v>
       </c>
@@ -6699,7 +6717,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>297</v>
       </c>
@@ -6713,7 +6731,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>298</v>
       </c>
@@ -6727,7 +6745,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>299</v>
       </c>
@@ -6741,7 +6759,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>300</v>
       </c>
@@ -6755,7 +6773,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>301</v>
       </c>
@@ -6769,7 +6787,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>302</v>
       </c>
@@ -6783,7 +6801,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>303</v>
       </c>
@@ -6797,7 +6815,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>304</v>
       </c>
@@ -6811,7 +6829,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>305</v>
       </c>
@@ -6825,7 +6843,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>306</v>
       </c>
@@ -6839,7 +6857,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>307</v>
       </c>
@@ -6853,7 +6871,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>308</v>
       </c>
@@ -6867,7 +6885,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>309</v>
       </c>
@@ -6881,7 +6899,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>310</v>
       </c>
@@ -6895,7 +6913,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>311</v>
       </c>
@@ -6909,7 +6927,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>312</v>
       </c>
@@ -6923,7 +6941,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>313</v>
       </c>
@@ -6937,7 +6955,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>314</v>
       </c>
@@ -6951,7 +6969,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>315</v>
       </c>
@@ -6965,7 +6983,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>316</v>
       </c>
@@ -6979,7 +6997,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>317</v>
       </c>
@@ -6993,7 +7011,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>318</v>
       </c>
@@ -7007,7 +7025,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>319</v>
       </c>
@@ -7021,7 +7039,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>320</v>
       </c>
@@ -7035,7 +7053,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>321</v>
       </c>
@@ -7049,7 +7067,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>322</v>
       </c>
@@ -7063,7 +7081,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>323</v>
       </c>
@@ -7077,7 +7095,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>324</v>
       </c>
@@ -7091,7 +7109,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>325</v>
       </c>
@@ -7105,7 +7123,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>326</v>
       </c>
@@ -7119,7 +7137,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>327</v>
       </c>
@@ -7133,7 +7151,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>328</v>
       </c>
@@ -7147,7 +7165,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>329</v>
       </c>
@@ -7161,7 +7179,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>330</v>
       </c>
@@ -7175,7 +7193,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>331</v>
       </c>
@@ -7189,7 +7207,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>332</v>
       </c>
@@ -7203,7 +7221,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>333</v>
       </c>
@@ -7217,7 +7235,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>334</v>
       </c>
@@ -7231,7 +7249,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>335</v>
       </c>
@@ -7245,7 +7263,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>336</v>
       </c>
@@ -7259,7 +7277,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>337</v>
       </c>
@@ -7273,7 +7291,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>338</v>
       </c>
@@ -7287,7 +7305,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>339</v>
       </c>
@@ -7301,7 +7319,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>340</v>
       </c>
@@ -7315,7 +7333,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>341</v>
       </c>
@@ -7329,7 +7347,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>342</v>
       </c>
@@ -7343,7 +7361,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>343</v>
       </c>
@@ -7357,7 +7375,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>344</v>
       </c>
@@ -7371,7 +7389,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>345</v>
       </c>
@@ -7385,7 +7403,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>346</v>
       </c>
@@ -7399,7 +7417,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>347</v>
       </c>
@@ -7413,7 +7431,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>348</v>
       </c>
@@ -7427,7 +7445,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>349</v>
       </c>
@@ -7441,7 +7459,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>350</v>
       </c>
@@ -7455,7 +7473,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>351</v>
       </c>
@@ -7469,7 +7487,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>352</v>
       </c>
@@ -7483,7 +7501,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>353</v>
       </c>
@@ -7497,7 +7515,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>354</v>
       </c>
@@ -7511,7 +7529,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>355</v>
       </c>
@@ -7525,7 +7543,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>356</v>
       </c>
@@ -7539,7 +7557,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>357</v>
       </c>
@@ -7553,7 +7571,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>358</v>
       </c>
@@ -7567,7 +7585,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>359</v>
       </c>
@@ -7581,7 +7599,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>360</v>
       </c>
@@ -7595,7 +7613,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>361</v>
       </c>
@@ -7609,7 +7627,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>362</v>
       </c>
@@ -7623,7 +7641,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>363</v>
       </c>
@@ -7637,7 +7655,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>364</v>
       </c>
@@ -7651,7 +7669,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>365</v>
       </c>
@@ -7665,7 +7683,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>366</v>
       </c>
@@ -7679,7 +7697,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>367</v>
       </c>
@@ -7693,7 +7711,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>368</v>
       </c>
@@ -7707,7 +7725,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>369</v>
       </c>
@@ -7721,7 +7739,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>370</v>
       </c>
@@ -7735,7 +7753,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>371</v>
       </c>
@@ -7749,7 +7767,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>372</v>
       </c>
@@ -7763,7 +7781,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>373</v>
       </c>
@@ -7777,7 +7795,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>374</v>
       </c>
@@ -7791,7 +7809,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>375</v>
       </c>
@@ -7805,7 +7823,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>376</v>
       </c>
@@ -7819,7 +7837,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>377</v>
       </c>
@@ -7833,7 +7851,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>378</v>
       </c>
@@ -7847,7 +7865,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>379</v>
       </c>
@@ -7861,7 +7879,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>380</v>
       </c>
@@ -7875,7 +7893,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>381</v>
       </c>
@@ -7889,7 +7907,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>382</v>
       </c>
@@ -7903,7 +7921,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>383</v>
       </c>
@@ -7917,7 +7935,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>384</v>
       </c>
@@ -7931,7 +7949,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>385</v>
       </c>
@@ -7945,7 +7963,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>386</v>
       </c>
@@ -7959,7 +7977,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>387</v>
       </c>
@@ -7973,7 +7991,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>388</v>
       </c>
@@ -7987,7 +8005,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>389</v>
       </c>
@@ -8001,7 +8019,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>390</v>
       </c>
@@ -8015,7 +8033,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>391</v>
       </c>
@@ -8029,7 +8047,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>392</v>
       </c>
@@ -8043,7 +8061,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>393</v>
       </c>
@@ -8057,7 +8075,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>394</v>
       </c>
@@ -8071,7 +8089,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>395</v>
       </c>
@@ -8085,7 +8103,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>396</v>
       </c>
@@ -8099,7 +8117,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>397</v>
       </c>
@@ -8113,7 +8131,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>398</v>
       </c>
@@ -8127,7 +8145,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>399</v>
       </c>
@@ -8141,7 +8159,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>400</v>
       </c>
@@ -8155,7 +8173,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>401</v>
       </c>
@@ -8169,7 +8187,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>402</v>
       </c>
@@ -8183,7 +8201,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>403</v>
       </c>
@@ -8197,7 +8215,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>404</v>
       </c>
@@ -8211,7 +8229,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>405</v>
       </c>
@@ -8225,7 +8243,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>406</v>
       </c>
@@ -8239,7 +8257,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>407</v>
       </c>
@@ -8253,7 +8271,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>408</v>
       </c>
@@ -8267,7 +8285,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>409</v>
       </c>
@@ -8281,7 +8299,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>410</v>
       </c>
@@ -8295,7 +8313,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>411</v>
       </c>
@@ -8309,7 +8327,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>412</v>
       </c>
@@ -8323,7 +8341,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>413</v>
       </c>
@@ -8337,7 +8355,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>414</v>
       </c>
@@ -8351,7 +8369,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>415</v>
       </c>
@@ -8365,7 +8383,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>416</v>
       </c>
@@ -8379,7 +8397,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>417</v>
       </c>
@@ -8393,7 +8411,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>418</v>
       </c>
@@ -8407,7 +8425,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>419</v>
       </c>
@@ -8421,7 +8439,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>420</v>
       </c>
@@ -8435,7 +8453,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>421</v>
       </c>
@@ -8449,7 +8467,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>422</v>
       </c>
@@ -8463,7 +8481,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>423</v>
       </c>
@@ -8471,13 +8489,13 @@
         <v>720</v>
       </c>
       <c r="C421" t="s">
+        <v>731</v>
+      </c>
+      <c r="D421" t="s">
         <v>732</v>
       </c>
-      <c r="D421" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4">
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>424</v>
       </c>
@@ -8485,13 +8503,13 @@
         <v>555</v>
       </c>
       <c r="C422" t="s">
+        <v>731</v>
+      </c>
+      <c r="D422" t="s">
         <v>732</v>
       </c>
-      <c r="D422" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4">
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>425</v>
       </c>
@@ -8499,13 +8517,13 @@
         <v>720</v>
       </c>
       <c r="C423" t="s">
+        <v>731</v>
+      </c>
+      <c r="D423" t="s">
         <v>732</v>
       </c>
-      <c r="D423" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4">
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>426</v>
       </c>
@@ -8513,13 +8531,13 @@
         <v>729</v>
       </c>
       <c r="C424" t="s">
+        <v>731</v>
+      </c>
+      <c r="D424" t="s">
         <v>732</v>
       </c>
-      <c r="D424" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>427</v>
       </c>
@@ -8527,13 +8545,13 @@
         <v>730</v>
       </c>
       <c r="C425" t="s">
+        <v>731</v>
+      </c>
+      <c r="D425" t="s">
         <v>732</v>
       </c>
-      <c r="D425" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4">
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>428</v>
       </c>
@@ -8541,10 +8559,10 @@
         <v>673</v>
       </c>
       <c r="C426" t="s">
+        <v>731</v>
+      </c>
+      <c r="D426" t="s">
         <v>732</v>
-      </c>
-      <c r="D426" t="s">
-        <v>733</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_bricks.xlsx
+++ b/mapping/map_ibs_bricks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4451C3D2-88F3-434C-B2AF-045658C4249D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED906346-9B93-4B8B-8053-0183BED51935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="728">
   <si>
     <t>dist_brickcode</t>
   </si>
@@ -1300,15 +1300,6 @@
     <t xml:space="preserve">الغردقة             </t>
   </si>
   <si>
-    <t xml:space="preserve">BANI SUEF EHNASIA                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENOFIA III SANTARIS                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">نقاده               </t>
-  </si>
-  <si>
     <t>Nasr City</t>
   </si>
   <si>
@@ -2207,12 +2198,6 @@
   </si>
   <si>
     <t>Sahel Seleem</t>
-  </si>
-  <si>
-    <t>Ehnasia</t>
-  </si>
-  <si>
-    <t>Sentrees</t>
   </si>
   <si>
     <t>Mustafa Muhammed</t>
@@ -2590,10 +2575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D426"/>
+  <dimension ref="A1:D423"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="F416" sqref="F416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2620,10 +2605,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C2" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D2" s="2">
         <v>45869</v>
@@ -2634,10 +2619,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C3" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D3" s="2">
         <v>45869</v>
@@ -2648,10 +2633,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C4" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D4" s="2">
         <v>45869</v>
@@ -2662,10 +2647,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C5" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D5" s="2">
         <v>45869</v>
@@ -2676,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C6" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D6" s="2">
         <v>45869</v>
@@ -2690,10 +2675,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C7" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D7" s="2">
         <v>45869</v>
@@ -2704,10 +2689,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C8" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D8" s="2">
         <v>45869</v>
@@ -2718,10 +2703,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C9" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D9" s="2">
         <v>45869</v>
@@ -2732,10 +2717,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C10" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D10" s="2">
         <v>45869</v>
@@ -2746,10 +2731,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C11" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D11" s="2">
         <v>45869</v>
@@ -2760,10 +2745,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C12" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D12" s="2">
         <v>45869</v>
@@ -2774,10 +2759,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C13" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D13" s="2">
         <v>45869</v>
@@ -2788,10 +2773,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C14" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D14" s="2">
         <v>45869</v>
@@ -2802,10 +2787,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C15" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D15" s="2">
         <v>45869</v>
@@ -2816,10 +2801,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C16" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D16" s="2">
         <v>45869</v>
@@ -2830,10 +2815,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C17" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D17" s="2">
         <v>45869</v>
@@ -2844,10 +2829,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C18" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D18" s="2">
         <v>45869</v>
@@ -2858,10 +2843,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C19" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D19" s="2">
         <v>45869</v>
@@ -2872,10 +2857,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C20" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D20" s="2">
         <v>45869</v>
@@ -2886,10 +2871,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C21" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D21" s="2">
         <v>45869</v>
@@ -2900,10 +2885,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C22" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D22" s="2">
         <v>45869</v>
@@ -2914,10 +2899,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C23" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D23" s="2">
         <v>45869</v>
@@ -2928,10 +2913,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C24" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D24" s="2">
         <v>45869</v>
@@ -2942,10 +2927,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C25" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D25" s="2">
         <v>45869</v>
@@ -2956,10 +2941,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C26" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D26" s="2">
         <v>45869</v>
@@ -2970,10 +2955,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C27" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D27" s="2">
         <v>45869</v>
@@ -2984,10 +2969,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C28" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D28" s="2">
         <v>45869</v>
@@ -2998,10 +2983,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C29" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D29" s="2">
         <v>45869</v>
@@ -3012,10 +2997,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C30" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D30" s="2">
         <v>45869</v>
@@ -3026,10 +3011,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C31" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D31" s="2">
         <v>45869</v>
@@ -3040,10 +3025,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C32" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D32" s="2">
         <v>45869</v>
@@ -3054,10 +3039,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C33" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D33" s="2">
         <v>45869</v>
@@ -3068,10 +3053,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C34" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D34" s="2">
         <v>45869</v>
@@ -3082,10 +3067,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C35" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D35" s="2">
         <v>45869</v>
@@ -3096,10 +3081,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C36" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D36" s="2">
         <v>45869</v>
@@ -3110,10 +3095,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C37" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D37" s="2">
         <v>45869</v>
@@ -3124,10 +3109,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C38" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D38" s="2">
         <v>45869</v>
@@ -3138,10 +3123,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C39" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D39" s="2">
         <v>45869</v>
@@ -3152,10 +3137,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C40" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D40" s="2">
         <v>45869</v>
@@ -3166,10 +3151,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C41" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D41" s="2">
         <v>45869</v>
@@ -3180,10 +3165,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C42" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D42" s="2">
         <v>45869</v>
@@ -3194,10 +3179,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C43" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D43" s="2">
         <v>45869</v>
@@ -3208,10 +3193,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C44" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D44" s="2">
         <v>45869</v>
@@ -3222,10 +3207,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C45" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D45" s="2">
         <v>45869</v>
@@ -3236,10 +3221,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C46" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D46" s="2">
         <v>45869</v>
@@ -3250,10 +3235,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C47" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D47" s="2">
         <v>45869</v>
@@ -3264,10 +3249,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C48" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D48" s="2">
         <v>45869</v>
@@ -3278,10 +3263,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C49" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D49" s="2">
         <v>45869</v>
@@ -3292,10 +3277,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C50" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D50" s="2">
         <v>45869</v>
@@ -3306,10 +3291,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C51" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D51" s="2">
         <v>45869</v>
@@ -3320,10 +3305,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C52" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D52" s="2">
         <v>45869</v>
@@ -3334,10 +3319,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C53" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D53" s="2">
         <v>45869</v>
@@ -3348,10 +3333,10 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C54" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D54" s="2">
         <v>45869</v>
@@ -3362,10 +3347,10 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C55" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D55" s="2">
         <v>45869</v>
@@ -3376,10 +3361,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C56" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D56" s="2">
         <v>45869</v>
@@ -3390,10 +3375,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C57" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D57" s="2">
         <v>45869</v>
@@ -3404,10 +3389,10 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C58" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D58" s="2">
         <v>45869</v>
@@ -3418,10 +3403,10 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C59" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D59" s="2">
         <v>45869</v>
@@ -3432,10 +3417,10 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C60" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D60" s="2">
         <v>45869</v>
@@ -3446,10 +3431,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C61" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D61" s="2">
         <v>45869</v>
@@ -3460,10 +3445,10 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C62" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D62" s="2">
         <v>45869</v>
@@ -3474,10 +3459,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C63" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D63" s="2">
         <v>45869</v>
@@ -3488,10 +3473,10 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C64" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D64" s="2">
         <v>45869</v>
@@ -3502,10 +3487,10 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C65" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D65" s="2">
         <v>45869</v>
@@ -3516,10 +3501,10 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C66" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D66" s="2">
         <v>45869</v>
@@ -3530,10 +3515,10 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C67" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D67" s="2">
         <v>45869</v>
@@ -3544,10 +3529,10 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C68" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D68" s="2">
         <v>45869</v>
@@ -3558,10 +3543,10 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C69" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D69" s="2">
         <v>45869</v>
@@ -3572,10 +3557,10 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C70" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D70" s="2">
         <v>45869</v>
@@ -3586,10 +3571,10 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C71" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D71" s="2">
         <v>45869</v>
@@ -3600,10 +3585,10 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C72" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D72" s="2">
         <v>45869</v>
@@ -3614,10 +3599,10 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C73" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D73" s="2">
         <v>45869</v>
@@ -3628,10 +3613,10 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C74" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D74" s="2">
         <v>45869</v>
@@ -3642,10 +3627,10 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C75" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D75" s="2">
         <v>45869</v>
@@ -3656,10 +3641,10 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C76" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D76" s="2">
         <v>45869</v>
@@ -3670,10 +3655,10 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C77" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D77" s="2">
         <v>45869</v>
@@ -3684,10 +3669,10 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C78" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D78" s="2">
         <v>45869</v>
@@ -3698,10 +3683,10 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C79" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D79" s="2">
         <v>45869</v>
@@ -3712,10 +3697,10 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C80" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D80" s="2">
         <v>45869</v>
@@ -3726,10 +3711,10 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C81" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D81" s="2">
         <v>45869</v>
@@ -3740,10 +3725,10 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C82" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D82" s="2">
         <v>45869</v>
@@ -3754,10 +3739,10 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C83" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D83" s="2">
         <v>45869</v>
@@ -3768,10 +3753,10 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C84" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D84" s="2">
         <v>45869</v>
@@ -3782,10 +3767,10 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C85" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D85" s="2">
         <v>45869</v>
@@ -3796,10 +3781,10 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C86" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D86" s="2">
         <v>45869</v>
@@ -3810,10 +3795,10 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C87" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D87" s="2">
         <v>45869</v>
@@ -3824,10 +3809,10 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C88" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D88" s="2">
         <v>45869</v>
@@ -3838,10 +3823,10 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C89" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D89" s="2">
         <v>45869</v>
@@ -3852,10 +3837,10 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C90" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D90" s="2">
         <v>45869</v>
@@ -3866,10 +3851,10 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C91" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D91" s="2">
         <v>45869</v>
@@ -3880,10 +3865,10 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C92" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D92" s="2">
         <v>45869</v>
@@ -3894,10 +3879,10 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C93" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D93" s="2">
         <v>45869</v>
@@ -3908,10 +3893,10 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C94" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D94" s="2">
         <v>45869</v>
@@ -3922,10 +3907,10 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C95" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D95" s="2">
         <v>45869</v>
@@ -3936,10 +3921,10 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C96" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D96" s="2">
         <v>45869</v>
@@ -3950,10 +3935,10 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C97" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D97" s="2">
         <v>45869</v>
@@ -3964,10 +3949,10 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C98" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D98" s="2">
         <v>45869</v>
@@ -3978,10 +3963,10 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C99" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D99" s="2">
         <v>45869</v>
@@ -3992,10 +3977,10 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C100" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D100" s="2">
         <v>45869</v>
@@ -4006,10 +3991,10 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C101" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D101" s="2">
         <v>45869</v>
@@ -4020,10 +4005,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C102" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D102" s="2">
         <v>45869</v>
@@ -4034,10 +4019,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C103" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D103" s="2">
         <v>45869</v>
@@ -4048,10 +4033,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C104" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D104" s="2">
         <v>45869</v>
@@ -4062,10 +4047,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C105" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D105" s="2">
         <v>45869</v>
@@ -4076,10 +4061,10 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C106" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D106" s="2">
         <v>45869</v>
@@ -4090,10 +4075,10 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C107" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D107" s="2">
         <v>45869</v>
@@ -4104,10 +4089,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C108" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D108" s="2">
         <v>45869</v>
@@ -4118,10 +4103,10 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C109" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D109" s="2">
         <v>45869</v>
@@ -4132,10 +4117,10 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C110" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D110" s="2">
         <v>45869</v>
@@ -4146,10 +4131,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C111" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D111" s="2">
         <v>45869</v>
@@ -4160,10 +4145,10 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C112" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D112" s="2">
         <v>45869</v>
@@ -4174,10 +4159,10 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C113" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D113" s="2">
         <v>45869</v>
@@ -4188,10 +4173,10 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C114" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D114" s="2">
         <v>45869</v>
@@ -4202,10 +4187,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C115" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D115" s="2">
         <v>45869</v>
@@ -4216,10 +4201,10 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C116" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D116" s="2">
         <v>45869</v>
@@ -4230,10 +4215,10 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C117" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D117" s="2">
         <v>45869</v>
@@ -4244,10 +4229,10 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C118" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D118" s="2">
         <v>45869</v>
@@ -4258,10 +4243,10 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C119" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D119" s="2">
         <v>45869</v>
@@ -4272,10 +4257,10 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C120" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D120" s="2">
         <v>45869</v>
@@ -4286,10 +4271,10 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C121" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D121" s="2">
         <v>45869</v>
@@ -4300,10 +4285,10 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C122" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D122" s="2">
         <v>45869</v>
@@ -4314,10 +4299,10 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C123" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D123" s="2">
         <v>45869</v>
@@ -4328,10 +4313,10 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C124" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D124" s="2">
         <v>45869</v>
@@ -4342,10 +4327,10 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C125" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D125" s="2">
         <v>45869</v>
@@ -4356,10 +4341,10 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C126" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D126" s="2">
         <v>45869</v>
@@ -4370,10 +4355,10 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C127" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D127" s="2">
         <v>45869</v>
@@ -4384,10 +4369,10 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C128" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D128" s="2">
         <v>45869</v>
@@ -4398,10 +4383,10 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C129" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D129" s="2">
         <v>45869</v>
@@ -4412,10 +4397,10 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C130" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D130" s="2">
         <v>45869</v>
@@ -4426,10 +4411,10 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C131" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D131" s="2">
         <v>45869</v>
@@ -4440,10 +4425,10 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C132" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D132" s="2">
         <v>45869</v>
@@ -4454,10 +4439,10 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C133" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D133" s="2">
         <v>45869</v>
@@ -4468,10 +4453,10 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C134" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D134" s="2">
         <v>45869</v>
@@ -4482,10 +4467,10 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C135" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D135" s="2">
         <v>45869</v>
@@ -4496,10 +4481,10 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C136" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D136" s="2">
         <v>45869</v>
@@ -4510,10 +4495,10 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C137" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D137" s="2">
         <v>45869</v>
@@ -4524,10 +4509,10 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C138" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D138" s="2">
         <v>45869</v>
@@ -4538,10 +4523,10 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C139" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D139" s="2">
         <v>45869</v>
@@ -4552,10 +4537,10 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C140" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D140" s="2">
         <v>45869</v>
@@ -4566,10 +4551,10 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C141" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D141" s="2">
         <v>45869</v>
@@ -4580,10 +4565,10 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C142" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D142" s="2">
         <v>45869</v>
@@ -4594,10 +4579,10 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C143" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D143" s="2">
         <v>45869</v>
@@ -4608,10 +4593,10 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C144" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D144" s="2">
         <v>45869</v>
@@ -4622,10 +4607,10 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C145" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D145" s="2">
         <v>45869</v>
@@ -4636,10 +4621,10 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C146" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D146" s="2">
         <v>45869</v>
@@ -4650,10 +4635,10 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C147" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D147" s="2">
         <v>45869</v>
@@ -4664,10 +4649,10 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C148" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D148" s="2">
         <v>45869</v>
@@ -4678,10 +4663,10 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C149" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D149" s="2">
         <v>45869</v>
@@ -4692,10 +4677,10 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C150" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D150" s="2">
         <v>45869</v>
@@ -4706,10 +4691,10 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C151" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D151" s="2">
         <v>45869</v>
@@ -4720,10 +4705,10 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C152" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D152" s="2">
         <v>45869</v>
@@ -4734,10 +4719,10 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C153" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D153" s="2">
         <v>45869</v>
@@ -4748,10 +4733,10 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C154" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D154" s="2">
         <v>45869</v>
@@ -4762,10 +4747,10 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C155" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D155" s="2">
         <v>45869</v>
@@ -4776,10 +4761,10 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C156" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D156" s="2">
         <v>45869</v>
@@ -4790,10 +4775,10 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C157" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D157" s="2">
         <v>45869</v>
@@ -4804,10 +4789,10 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C158" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D158" s="2">
         <v>45869</v>
@@ -4818,10 +4803,10 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C159" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D159" s="2">
         <v>45869</v>
@@ -4832,10 +4817,10 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C160" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D160" s="2">
         <v>45869</v>
@@ -4846,10 +4831,10 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C161" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D161" s="2">
         <v>45869</v>
@@ -4860,10 +4845,10 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C162" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D162" s="2">
         <v>45869</v>
@@ -4874,10 +4859,10 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C163" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D163" s="2">
         <v>45869</v>
@@ -4888,10 +4873,10 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C164" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D164" s="2">
         <v>45869</v>
@@ -4902,10 +4887,10 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C165" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D165" s="2">
         <v>45869</v>
@@ -4916,10 +4901,10 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C166" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D166" s="2">
         <v>45869</v>
@@ -4930,10 +4915,10 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C167" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D167" s="2">
         <v>45869</v>
@@ -4944,10 +4929,10 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C168" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D168" s="2">
         <v>45869</v>
@@ -4958,10 +4943,10 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C169" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D169" s="2">
         <v>45869</v>
@@ -4972,10 +4957,10 @@
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C170" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D170" s="2">
         <v>45869</v>
@@ -4986,10 +4971,10 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C171" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D171" s="2">
         <v>45869</v>
@@ -5000,10 +4985,10 @@
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C172" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D172" s="2">
         <v>45869</v>
@@ -5014,10 +4999,10 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C173" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D173" s="2">
         <v>45869</v>
@@ -5028,10 +5013,10 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C174" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D174" s="2">
         <v>45869</v>
@@ -5042,10 +5027,10 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C175" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D175" s="2">
         <v>45869</v>
@@ -5056,10 +5041,10 @@
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C176" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D176" s="2">
         <v>45869</v>
@@ -5070,10 +5055,10 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C177" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D177" s="2">
         <v>45869</v>
@@ -5084,10 +5069,10 @@
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C178" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D178" s="2">
         <v>45869</v>
@@ -5098,10 +5083,10 @@
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C179" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D179" s="2">
         <v>45869</v>
@@ -5112,10 +5097,10 @@
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C180" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D180" s="2">
         <v>45869</v>
@@ -5126,10 +5111,10 @@
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C181" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D181" s="2">
         <v>45869</v>
@@ -5140,10 +5125,10 @@
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C182" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D182" s="2">
         <v>45869</v>
@@ -5154,10 +5139,10 @@
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C183" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D183" s="2">
         <v>45869</v>
@@ -5168,10 +5153,10 @@
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C184" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D184" s="2">
         <v>45869</v>
@@ -5182,10 +5167,10 @@
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C185" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D185" s="2">
         <v>45869</v>
@@ -5196,10 +5181,10 @@
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C186" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D186" s="2">
         <v>45869</v>
@@ -5210,10 +5195,10 @@
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C187" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D187" s="2">
         <v>45869</v>
@@ -5224,10 +5209,10 @@
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C188" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D188" s="2">
         <v>45869</v>
@@ -5238,10 +5223,10 @@
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C189" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D189" s="2">
         <v>45869</v>
@@ -5252,10 +5237,10 @@
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C190" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D190" s="2">
         <v>45869</v>
@@ -5266,10 +5251,10 @@
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C191" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D191" s="2">
         <v>45869</v>
@@ -5280,10 +5265,10 @@
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C192" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D192" s="2">
         <v>45869</v>
@@ -5294,10 +5279,10 @@
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C193" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D193" s="2">
         <v>45869</v>
@@ -5308,10 +5293,10 @@
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C194" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D194" s="2">
         <v>45869</v>
@@ -5322,10 +5307,10 @@
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C195" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D195" s="2">
         <v>45869</v>
@@ -5336,10 +5321,10 @@
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C196" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D196" s="2">
         <v>45869</v>
@@ -5350,10 +5335,10 @@
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C197" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D197" s="2">
         <v>45869</v>
@@ -5364,10 +5349,10 @@
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C198" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D198" s="2">
         <v>45869</v>
@@ -5378,10 +5363,10 @@
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C199" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D199" s="2">
         <v>45869</v>
@@ -5392,10 +5377,10 @@
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C200" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D200" s="2">
         <v>45869</v>
@@ -5406,10 +5391,10 @@
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C201" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D201" s="2">
         <v>45869</v>
@@ -5420,10 +5405,10 @@
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C202" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D202" s="2">
         <v>45869</v>
@@ -5434,10 +5419,10 @@
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C203" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D203" s="2">
         <v>45869</v>
@@ -5448,10 +5433,10 @@
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C204" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D204" s="2">
         <v>45869</v>
@@ -5462,10 +5447,10 @@
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C205" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D205" s="2">
         <v>45869</v>
@@ -5476,10 +5461,10 @@
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C206" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D206" s="2">
         <v>45869</v>
@@ -5490,10 +5475,10 @@
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C207" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D207" s="2">
         <v>45869</v>
@@ -5504,10 +5489,10 @@
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C208" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D208" s="2">
         <v>45869</v>
@@ -5518,10 +5503,10 @@
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C209" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D209" s="2">
         <v>45869</v>
@@ -5532,10 +5517,10 @@
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C210" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D210" s="2">
         <v>45869</v>
@@ -5546,10 +5531,10 @@
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C211" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D211" s="2">
         <v>45869</v>
@@ -5560,10 +5545,10 @@
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C212" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D212" s="2">
         <v>45869</v>
@@ -5574,10 +5559,10 @@
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C213" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D213" s="2">
         <v>45869</v>
@@ -5588,10 +5573,10 @@
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C214" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D214" s="2">
         <v>45869</v>
@@ -5602,10 +5587,10 @@
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C215" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D215" s="2">
         <v>45869</v>
@@ -5616,10 +5601,10 @@
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C216" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D216" s="2">
         <v>45869</v>
@@ -5630,10 +5615,10 @@
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C217" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D217" s="2">
         <v>45869</v>
@@ -5644,10 +5629,10 @@
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C218" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D218" s="2">
         <v>45869</v>
@@ -5658,10 +5643,10 @@
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C219" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D219" s="2">
         <v>45869</v>
@@ -5672,10 +5657,10 @@
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C220" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D220" s="2">
         <v>45869</v>
@@ -5686,10 +5671,10 @@
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C221" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D221" s="2">
         <v>45869</v>
@@ -5700,10 +5685,10 @@
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C222" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D222" s="2">
         <v>45869</v>
@@ -5714,10 +5699,10 @@
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C223" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D223" s="2">
         <v>45869</v>
@@ -5728,10 +5713,10 @@
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C224" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D224" s="2">
         <v>45869</v>
@@ -5742,10 +5727,10 @@
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C225" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D225" s="2">
         <v>45869</v>
@@ -5756,10 +5741,10 @@
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C226" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D226" s="2">
         <v>45869</v>
@@ -5770,10 +5755,10 @@
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C227" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D227" s="2">
         <v>45869</v>
@@ -5784,10 +5769,10 @@
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C228" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D228" s="2">
         <v>45869</v>
@@ -5798,10 +5783,10 @@
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C229" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D229" s="2">
         <v>45869</v>
@@ -5812,10 +5797,10 @@
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C230" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D230" s="2">
         <v>45869</v>
@@ -5826,10 +5811,10 @@
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C231" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D231" s="2">
         <v>45869</v>
@@ -5840,10 +5825,10 @@
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C232" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D232" s="2">
         <v>45869</v>
@@ -5854,10 +5839,10 @@
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C233" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D233" s="2">
         <v>45869</v>
@@ -5868,10 +5853,10 @@
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C234" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D234" s="2">
         <v>45869</v>
@@ -5882,10 +5867,10 @@
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C235" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D235" s="2">
         <v>45869</v>
@@ -5896,10 +5881,10 @@
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C236" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D236" s="2">
         <v>45869</v>
@@ -5910,10 +5895,10 @@
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C237" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D237" s="2">
         <v>45869</v>
@@ -5924,10 +5909,10 @@
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C238" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D238" s="2">
         <v>45869</v>
@@ -5938,10 +5923,10 @@
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C239" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D239" s="2">
         <v>45869</v>
@@ -5952,10 +5937,10 @@
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C240" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D240" s="2">
         <v>45869</v>
@@ -5966,10 +5951,10 @@
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C241" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D241" s="2">
         <v>45869</v>
@@ -5980,10 +5965,10 @@
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C242" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D242" s="2">
         <v>45869</v>
@@ -5994,10 +5979,10 @@
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C243" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D243" s="2">
         <v>45869</v>
@@ -6008,10 +5993,10 @@
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C244" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D244" s="2">
         <v>45869</v>
@@ -6022,10 +6007,10 @@
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C245" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D245" s="2">
         <v>45869</v>
@@ -6036,10 +6021,10 @@
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C246" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D246" s="2">
         <v>45869</v>
@@ -6050,10 +6035,10 @@
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C247" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D247" s="2">
         <v>45869</v>
@@ -6064,10 +6049,10 @@
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C248" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D248" s="2">
         <v>45869</v>
@@ -6078,10 +6063,10 @@
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C249" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D249" s="2">
         <v>45869</v>
@@ -6092,10 +6077,10 @@
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C250" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D250" s="2">
         <v>45869</v>
@@ -6106,10 +6091,10 @@
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C251" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D251" s="2">
         <v>45869</v>
@@ -6120,10 +6105,10 @@
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C252" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D252" s="2">
         <v>45869</v>
@@ -6134,10 +6119,10 @@
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C253" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D253" s="2">
         <v>45869</v>
@@ -6148,10 +6133,10 @@
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C254" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D254" s="2">
         <v>45869</v>
@@ -6162,10 +6147,10 @@
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C255" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D255" s="2">
         <v>45869</v>
@@ -6176,10 +6161,10 @@
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C256" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D256" s="2">
         <v>45869</v>
@@ -6190,10 +6175,10 @@
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C257" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D257" s="2">
         <v>45869</v>
@@ -6204,10 +6189,10 @@
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C258" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D258" s="2">
         <v>45869</v>
@@ -6218,10 +6203,10 @@
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C259" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D259" s="2">
         <v>45869</v>
@@ -6232,10 +6217,10 @@
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C260" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D260" s="2">
         <v>45869</v>
@@ -6246,10 +6231,10 @@
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C261" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D261" s="2">
         <v>45869</v>
@@ -6260,10 +6245,10 @@
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C262" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D262" s="2">
         <v>45869</v>
@@ -6274,10 +6259,10 @@
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C263" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D263" s="2">
         <v>45869</v>
@@ -6288,10 +6273,10 @@
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C264" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D264" s="2">
         <v>45869</v>
@@ -6302,10 +6287,10 @@
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C265" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D265" s="2">
         <v>45869</v>
@@ -6316,10 +6301,10 @@
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C266" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D266" s="2">
         <v>45869</v>
@@ -6330,10 +6315,10 @@
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C267" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D267" s="2">
         <v>45869</v>
@@ -6344,10 +6329,10 @@
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C268" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D268" s="2">
         <v>45869</v>
@@ -6358,10 +6343,10 @@
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C269" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D269" s="2">
         <v>45869</v>
@@ -6372,10 +6357,10 @@
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C270" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D270" s="2">
         <v>45869</v>
@@ -6386,10 +6371,10 @@
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C271" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D271" s="2">
         <v>45869</v>
@@ -6400,10 +6385,10 @@
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C272" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D272" s="2">
         <v>45869</v>
@@ -6414,10 +6399,10 @@
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C273" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D273" s="2">
         <v>45869</v>
@@ -6428,10 +6413,10 @@
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C274" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D274" s="2">
         <v>45869</v>
@@ -6442,10 +6427,10 @@
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C275" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D275" s="2">
         <v>45869</v>
@@ -6456,10 +6441,10 @@
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C276" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D276" s="2">
         <v>45869</v>
@@ -6470,10 +6455,10 @@
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C277" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D277" s="2">
         <v>45869</v>
@@ -6484,10 +6469,10 @@
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C278" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D278" s="2">
         <v>45869</v>
@@ -6498,10 +6483,10 @@
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C279" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D279" s="2">
         <v>45869</v>
@@ -6512,10 +6497,10 @@
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C280" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D280" s="2">
         <v>45869</v>
@@ -6526,10 +6511,10 @@
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C281" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D281" s="2">
         <v>45869</v>
@@ -6540,10 +6525,10 @@
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C282" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D282" s="2">
         <v>45869</v>
@@ -6554,10 +6539,10 @@
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C283" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D283" s="2">
         <v>45869</v>
@@ -6568,10 +6553,10 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C284" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D284" s="2">
         <v>45869</v>
@@ -6582,10 +6567,10 @@
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C285" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D285" s="2">
         <v>45869</v>
@@ -6596,10 +6581,10 @@
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C286" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D286" s="2">
         <v>45869</v>
@@ -6610,10 +6595,10 @@
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C287" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D287" s="2">
         <v>45869</v>
@@ -6624,10 +6609,10 @@
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C288" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D288" s="2">
         <v>45869</v>
@@ -6638,10 +6623,10 @@
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C289" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D289" s="2">
         <v>45869</v>
@@ -6652,10 +6637,10 @@
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C290" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D290" s="2">
         <v>45869</v>
@@ -6666,10 +6651,10 @@
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C291" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D291" s="2">
         <v>45869</v>
@@ -6680,10 +6665,10 @@
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C292" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D292" s="2">
         <v>45869</v>
@@ -6694,10 +6679,10 @@
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C293" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D293" s="2">
         <v>45869</v>
@@ -6708,10 +6693,10 @@
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C294" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D294" s="2">
         <v>45869</v>
@@ -6722,10 +6707,10 @@
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C295" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D295" s="2">
         <v>45869</v>
@@ -6736,10 +6721,10 @@
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C296" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D296" s="2">
         <v>45869</v>
@@ -6750,10 +6735,10 @@
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C297" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D297" s="2">
         <v>45869</v>
@@ -6764,10 +6749,10 @@
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C298" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D298" s="2">
         <v>45869</v>
@@ -6778,10 +6763,10 @@
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C299" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D299" s="2">
         <v>45869</v>
@@ -6792,10 +6777,10 @@
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C300" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D300" s="2">
         <v>45869</v>
@@ -6806,10 +6791,10 @@
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C301" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D301" s="2">
         <v>45869</v>
@@ -6820,10 +6805,10 @@
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C302" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D302" s="2">
         <v>45869</v>
@@ -6834,10 +6819,10 @@
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C303" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D303" s="2">
         <v>45869</v>
@@ -6848,10 +6833,10 @@
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C304" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D304" s="2">
         <v>45869</v>
@@ -6862,10 +6847,10 @@
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C305" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D305" s="2">
         <v>45869</v>
@@ -6876,10 +6861,10 @@
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C306" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D306" s="2">
         <v>45869</v>
@@ -6890,10 +6875,10 @@
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C307" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D307" s="2">
         <v>45869</v>
@@ -6904,10 +6889,10 @@
         <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C308" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D308" s="2">
         <v>45869</v>
@@ -6918,10 +6903,10 @@
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C309" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D309" s="2">
         <v>45869</v>
@@ -6932,10 +6917,10 @@
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C310" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D310" s="2">
         <v>45869</v>
@@ -6946,10 +6931,10 @@
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C311" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D311" s="2">
         <v>45869</v>
@@ -6960,10 +6945,10 @@
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C312" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D312" s="2">
         <v>45869</v>
@@ -6974,10 +6959,10 @@
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C313" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D313" s="2">
         <v>45869</v>
@@ -6988,10 +6973,10 @@
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C314" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D314" s="2">
         <v>45869</v>
@@ -7002,10 +6987,10 @@
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C315" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D315" s="2">
         <v>45869</v>
@@ -7016,10 +7001,10 @@
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C316" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D316" s="2">
         <v>45869</v>
@@ -7030,10 +7015,10 @@
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C317" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D317" s="2">
         <v>45869</v>
@@ -7044,10 +7029,10 @@
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C318" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D318" s="2">
         <v>45869</v>
@@ -7058,10 +7043,10 @@
         <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C319" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D319" s="2">
         <v>45869</v>
@@ -7072,10 +7057,10 @@
         <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C320" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D320" s="2">
         <v>45869</v>
@@ -7086,10 +7071,10 @@
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C321" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D321" s="2">
         <v>45869</v>
@@ -7100,10 +7085,10 @@
         <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C322" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D322" s="2">
         <v>45869</v>
@@ -7114,10 +7099,10 @@
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C323" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D323" s="2">
         <v>45869</v>
@@ -7128,10 +7113,10 @@
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C324" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D324" s="2">
         <v>45869</v>
@@ -7142,10 +7127,10 @@
         <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C325" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D325" s="2">
         <v>45869</v>
@@ -7156,10 +7141,10 @@
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C326" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D326" s="2">
         <v>45869</v>
@@ -7170,10 +7155,10 @@
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C327" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D327" s="2">
         <v>45869</v>
@@ -7184,10 +7169,10 @@
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C328" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D328" s="2">
         <v>45869</v>
@@ -7198,10 +7183,10 @@
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C329" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D329" s="2">
         <v>45869</v>
@@ -7212,10 +7197,10 @@
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C330" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D330" s="2">
         <v>45869</v>
@@ -7226,10 +7211,10 @@
         <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C331" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D331" s="2">
         <v>45869</v>
@@ -7240,10 +7225,10 @@
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C332" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D332" s="2">
         <v>45869</v>
@@ -7254,10 +7239,10 @@
         <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C333" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D333" s="2">
         <v>45869</v>
@@ -7268,10 +7253,10 @@
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C334" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D334" s="2">
         <v>45869</v>
@@ -7282,10 +7267,10 @@
         <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C335" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D335" s="2">
         <v>45869</v>
@@ -7296,10 +7281,10 @@
         <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C336" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D336" s="2">
         <v>45869</v>
@@ -7310,10 +7295,10 @@
         <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C337" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D337" s="2">
         <v>45869</v>
@@ -7324,10 +7309,10 @@
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C338" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D338" s="2">
         <v>45869</v>
@@ -7338,10 +7323,10 @@
         <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C339" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D339" s="2">
         <v>45869</v>
@@ -7352,10 +7337,10 @@
         <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C340" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D340" s="2">
         <v>45869</v>
@@ -7366,10 +7351,10 @@
         <v>343</v>
       </c>
       <c r="B341" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C341" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D341" s="2">
         <v>45869</v>
@@ -7380,10 +7365,10 @@
         <v>344</v>
       </c>
       <c r="B342" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C342" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D342" s="2">
         <v>45869</v>
@@ -7394,10 +7379,10 @@
         <v>345</v>
       </c>
       <c r="B343" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C343" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D343" s="2">
         <v>45869</v>
@@ -7408,10 +7393,10 @@
         <v>346</v>
       </c>
       <c r="B344" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C344" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D344" s="2">
         <v>45869</v>
@@ -7422,10 +7407,10 @@
         <v>347</v>
       </c>
       <c r="B345" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C345" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D345" s="2">
         <v>45869</v>
@@ -7436,10 +7421,10 @@
         <v>348</v>
       </c>
       <c r="B346" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C346" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D346" s="2">
         <v>45869</v>
@@ -7450,10 +7435,10 @@
         <v>349</v>
       </c>
       <c r="B347" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C347" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D347" s="2">
         <v>45869</v>
@@ -7464,10 +7449,10 @@
         <v>350</v>
       </c>
       <c r="B348" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C348" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D348" s="2">
         <v>45869</v>
@@ -7478,10 +7463,10 @@
         <v>351</v>
       </c>
       <c r="B349" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C349" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D349" s="2">
         <v>45869</v>
@@ -7492,10 +7477,10 @@
         <v>352</v>
       </c>
       <c r="B350" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C350" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D350" s="2">
         <v>45869</v>
@@ -7506,10 +7491,10 @@
         <v>353</v>
       </c>
       <c r="B351" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C351" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D351" s="2">
         <v>45869</v>
@@ -7520,10 +7505,10 @@
         <v>354</v>
       </c>
       <c r="B352" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C352" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D352" s="2">
         <v>45869</v>
@@ -7534,10 +7519,10 @@
         <v>355</v>
       </c>
       <c r="B353" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C353" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D353" s="2">
         <v>45869</v>
@@ -7548,10 +7533,10 @@
         <v>356</v>
       </c>
       <c r="B354" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C354" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D354" s="2">
         <v>45869</v>
@@ -7562,10 +7547,10 @@
         <v>357</v>
       </c>
       <c r="B355" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C355" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D355" s="2">
         <v>45869</v>
@@ -7576,10 +7561,10 @@
         <v>358</v>
       </c>
       <c r="B356" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C356" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D356" s="2">
         <v>45869</v>
@@ -7590,10 +7575,10 @@
         <v>359</v>
       </c>
       <c r="B357" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C357" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D357" s="2">
         <v>45869</v>
@@ -7604,10 +7589,10 @@
         <v>360</v>
       </c>
       <c r="B358" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C358" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D358" s="2">
         <v>45869</v>
@@ -7618,10 +7603,10 @@
         <v>361</v>
       </c>
       <c r="B359" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C359" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D359" s="2">
         <v>45869</v>
@@ -7632,10 +7617,10 @@
         <v>362</v>
       </c>
       <c r="B360" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C360" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D360" s="2">
         <v>45869</v>
@@ -7646,10 +7631,10 @@
         <v>363</v>
       </c>
       <c r="B361" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C361" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D361" s="2">
         <v>45869</v>
@@ -7660,10 +7645,10 @@
         <v>364</v>
       </c>
       <c r="B362" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C362" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D362" s="2">
         <v>45869</v>
@@ -7674,10 +7659,10 @@
         <v>365</v>
       </c>
       <c r="B363" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C363" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D363" s="2">
         <v>45869</v>
@@ -7688,10 +7673,10 @@
         <v>366</v>
       </c>
       <c r="B364" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C364" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D364" s="2">
         <v>45869</v>
@@ -7702,10 +7687,10 @@
         <v>367</v>
       </c>
       <c r="B365" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C365" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D365" s="2">
         <v>45869</v>
@@ -7716,10 +7701,10 @@
         <v>368</v>
       </c>
       <c r="B366" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C366" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D366" s="2">
         <v>45869</v>
@@ -7730,10 +7715,10 @@
         <v>369</v>
       </c>
       <c r="B367" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C367" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D367" s="2">
         <v>45869</v>
@@ -7744,10 +7729,10 @@
         <v>370</v>
       </c>
       <c r="B368" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C368" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D368" s="2">
         <v>45869</v>
@@ -7758,10 +7743,10 @@
         <v>371</v>
       </c>
       <c r="B369" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C369" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D369" s="2">
         <v>45869</v>
@@ -7772,10 +7757,10 @@
         <v>372</v>
       </c>
       <c r="B370" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C370" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D370" s="2">
         <v>45869</v>
@@ -7786,10 +7771,10 @@
         <v>373</v>
       </c>
       <c r="B371" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C371" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D371" s="2">
         <v>45869</v>
@@ -7800,10 +7785,10 @@
         <v>374</v>
       </c>
       <c r="B372" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C372" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D372" s="2">
         <v>45869</v>
@@ -7814,10 +7799,10 @@
         <v>375</v>
       </c>
       <c r="B373" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C373" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D373" s="2">
         <v>45869</v>
@@ -7828,10 +7813,10 @@
         <v>376</v>
       </c>
       <c r="B374" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C374" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D374" s="2">
         <v>45869</v>
@@ -7842,10 +7827,10 @@
         <v>377</v>
       </c>
       <c r="B375" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C375" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D375" s="2">
         <v>45869</v>
@@ -7856,10 +7841,10 @@
         <v>378</v>
       </c>
       <c r="B376" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C376" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D376" s="2">
         <v>45869</v>
@@ -7870,10 +7855,10 @@
         <v>379</v>
       </c>
       <c r="B377" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C377" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D377" s="2">
         <v>45869</v>
@@ -7884,10 +7869,10 @@
         <v>380</v>
       </c>
       <c r="B378" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C378" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D378" s="2">
         <v>45869</v>
@@ -7898,10 +7883,10 @@
         <v>381</v>
       </c>
       <c r="B379" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C379" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D379" s="2">
         <v>45869</v>
@@ -7912,10 +7897,10 @@
         <v>382</v>
       </c>
       <c r="B380" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C380" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D380" s="2">
         <v>45869</v>
@@ -7926,10 +7911,10 @@
         <v>383</v>
       </c>
       <c r="B381" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C381" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D381" s="2">
         <v>45869</v>
@@ -7940,10 +7925,10 @@
         <v>384</v>
       </c>
       <c r="B382" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C382" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D382" s="2">
         <v>45869</v>
@@ -7954,10 +7939,10 @@
         <v>385</v>
       </c>
       <c r="B383" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C383" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D383" s="2">
         <v>45869</v>
@@ -7968,10 +7953,10 @@
         <v>386</v>
       </c>
       <c r="B384" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C384" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D384" s="2">
         <v>45869</v>
@@ -7982,10 +7967,10 @@
         <v>387</v>
       </c>
       <c r="B385" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C385" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D385" s="2">
         <v>45869</v>
@@ -7996,10 +7981,10 @@
         <v>388</v>
       </c>
       <c r="B386" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C386" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D386" s="2">
         <v>45869</v>
@@ -8010,10 +7995,10 @@
         <v>389</v>
       </c>
       <c r="B387" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C387" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D387" s="2">
         <v>45869</v>
@@ -8024,10 +8009,10 @@
         <v>390</v>
       </c>
       <c r="B388" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C388" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D388" s="2">
         <v>45869</v>
@@ -8038,10 +8023,10 @@
         <v>391</v>
       </c>
       <c r="B389" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C389" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D389" s="2">
         <v>45869</v>
@@ -8052,10 +8037,10 @@
         <v>392</v>
       </c>
       <c r="B390" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C390" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D390" s="2">
         <v>45869</v>
@@ -8066,10 +8051,10 @@
         <v>393</v>
       </c>
       <c r="B391" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C391" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D391" s="2">
         <v>45869</v>
@@ -8080,10 +8065,10 @@
         <v>394</v>
       </c>
       <c r="B392" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C392" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D392" s="2">
         <v>45869</v>
@@ -8094,10 +8079,10 @@
         <v>395</v>
       </c>
       <c r="B393" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C393" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D393" s="2">
         <v>45869</v>
@@ -8108,10 +8093,10 @@
         <v>396</v>
       </c>
       <c r="B394" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C394" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D394" s="2">
         <v>45869</v>
@@ -8122,10 +8107,10 @@
         <v>397</v>
       </c>
       <c r="B395" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C395" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D395" s="2">
         <v>45869</v>
@@ -8136,10 +8121,10 @@
         <v>398</v>
       </c>
       <c r="B396" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C396" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D396" s="2">
         <v>45869</v>
@@ -8150,10 +8135,10 @@
         <v>399</v>
       </c>
       <c r="B397" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C397" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D397" s="2">
         <v>45869</v>
@@ -8164,10 +8149,10 @@
         <v>400</v>
       </c>
       <c r="B398" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C398" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D398" s="2">
         <v>45869</v>
@@ -8178,10 +8163,10 @@
         <v>401</v>
       </c>
       <c r="B399" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C399" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D399" s="2">
         <v>45869</v>
@@ -8192,10 +8177,10 @@
         <v>402</v>
       </c>
       <c r="B400" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C400" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D400" s="2">
         <v>45869</v>
@@ -8206,10 +8191,10 @@
         <v>403</v>
       </c>
       <c r="B401" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C401" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D401" s="2">
         <v>45869</v>
@@ -8220,10 +8205,10 @@
         <v>404</v>
       </c>
       <c r="B402" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C402" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D402" s="2">
         <v>45869</v>
@@ -8234,10 +8219,10 @@
         <v>405</v>
       </c>
       <c r="B403" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C403" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D403" s="2">
         <v>45869</v>
@@ -8248,10 +8233,10 @@
         <v>406</v>
       </c>
       <c r="B404" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C404" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D404" s="2">
         <v>45869</v>
@@ -8262,10 +8247,10 @@
         <v>407</v>
       </c>
       <c r="B405" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C405" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D405" s="2">
         <v>45869</v>
@@ -8276,10 +8261,10 @@
         <v>408</v>
       </c>
       <c r="B406" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C406" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D406" s="2">
         <v>45869</v>
@@ -8290,10 +8275,10 @@
         <v>409</v>
       </c>
       <c r="B407" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C407" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D407" s="2">
         <v>45869</v>
@@ -8304,10 +8289,10 @@
         <v>410</v>
       </c>
       <c r="B408" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C408" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D408" s="2">
         <v>45869</v>
@@ -8318,10 +8303,10 @@
         <v>411</v>
       </c>
       <c r="B409" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C409" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D409" s="2">
         <v>45869</v>
@@ -8332,10 +8317,10 @@
         <v>412</v>
       </c>
       <c r="B410" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C410" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D410" s="2">
         <v>45869</v>
@@ -8346,10 +8331,10 @@
         <v>413</v>
       </c>
       <c r="B411" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C411" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D411" s="2">
         <v>45869</v>
@@ -8360,10 +8345,10 @@
         <v>414</v>
       </c>
       <c r="B412" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C412" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D412" s="2">
         <v>45869</v>
@@ -8374,10 +8359,10 @@
         <v>415</v>
       </c>
       <c r="B413" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C413" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D413" s="2">
         <v>45869</v>
@@ -8388,10 +8373,10 @@
         <v>416</v>
       </c>
       <c r="B414" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C414" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D414" s="2">
         <v>45869</v>
@@ -8402,10 +8387,10 @@
         <v>417</v>
       </c>
       <c r="B415" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C415" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D415" s="2">
         <v>45869</v>
@@ -8416,10 +8401,10 @@
         <v>418</v>
       </c>
       <c r="B416" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C416" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D416" s="2">
         <v>45869</v>
@@ -8430,10 +8415,10 @@
         <v>419</v>
       </c>
       <c r="B417" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C417" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D417" s="2">
         <v>45869</v>
@@ -8444,10 +8429,10 @@
         <v>420</v>
       </c>
       <c r="B418" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C418" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D418" s="2">
         <v>45869</v>
@@ -8458,10 +8443,10 @@
         <v>421</v>
       </c>
       <c r="B419" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C419" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D419" s="2">
         <v>45869</v>
@@ -8472,10 +8457,10 @@
         <v>422</v>
       </c>
       <c r="B420" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C420" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D420" s="2">
         <v>45869</v>
@@ -8486,13 +8471,13 @@
         <v>423</v>
       </c>
       <c r="B421" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C421" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D421" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
@@ -8500,13 +8485,13 @@
         <v>424</v>
       </c>
       <c r="B422" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C422" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D422" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
@@ -8514,55 +8499,13 @@
         <v>425</v>
       </c>
       <c r="B423" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C423" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D423" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A424" t="s">
-        <v>426</v>
-      </c>
-      <c r="B424" t="s">
-        <v>729</v>
-      </c>
-      <c r="C424" t="s">
-        <v>731</v>
-      </c>
-      <c r="D424" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A425" t="s">
-        <v>427</v>
-      </c>
-      <c r="B425" t="s">
-        <v>730</v>
-      </c>
-      <c r="C425" t="s">
-        <v>731</v>
-      </c>
-      <c r="D425" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A426" t="s">
-        <v>428</v>
-      </c>
-      <c r="B426" t="s">
-        <v>673</v>
-      </c>
-      <c r="C426" t="s">
-        <v>731</v>
-      </c>
-      <c r="D426" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_bricks.xlsx
+++ b/mapping/map_ibs_bricks.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED906346-9B93-4B8B-8053-0183BED51935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="bricks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="734">
   <si>
     <t>dist_brickcode</t>
   </si>
@@ -1300,6 +1294,15 @@
     <t xml:space="preserve">الغردقة             </t>
   </si>
   <si>
+    <t xml:space="preserve">BANI SUEF EHNASIA                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENOFIA III SANTARIS                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقاده               </t>
+  </si>
+  <si>
     <t>Nasr City</t>
   </si>
   <si>
@@ -2200,20 +2203,29 @@
     <t>Sahel Seleem</t>
   </si>
   <si>
+    <t>Ehnasia</t>
+  </si>
+  <si>
+    <t>Sentrees</t>
+  </si>
+  <si>
     <t>Mustafa Muhammed</t>
   </si>
   <si>
     <t>2025-10-06 12:47:00</t>
+  </si>
+  <si>
+    <t>2025-10-06 12:52:56</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2277,21 +2289,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2329,7 +2333,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2363,7 +2367,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2398,10 +2401,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2574,19 +2576,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D423"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="F416" sqref="F416"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="18" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2600,5912 +2597,5954 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C2" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D2" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C3" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D3" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C4" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D4" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C5" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D5" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C6" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D6" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C7" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D7" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C8" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D8" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C9" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D9" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C10" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D10" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C11" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D11" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C12" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D12" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C13" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D13" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C14" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D14" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C15" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D15" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C16" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D16" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C17" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D17" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C18" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D18" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C19" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D19" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C20" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D20" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C21" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D21" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C22" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D22" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C23" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D23" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C24" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D24" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C25" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D25" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C26" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D26" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C27" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D27" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C28" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D28" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C29" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D29" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C30" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D30" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C31" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D31" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C32" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D32" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C33" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D33" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C34" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D34" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C35" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D35" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C36" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D36" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C37" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D37" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C38" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D38" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C39" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D39" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C40" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D40" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C41" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D41" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C42" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D42" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C43" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D43" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C44" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D44" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C45" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D45" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C46" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D46" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C47" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D47" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C48" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D48" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C49" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D49" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C50" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D50" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C51" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D51" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C52" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D52" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C53" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D53" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C54" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D54" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C55" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D55" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C56" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D56" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C57" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D57" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C58" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D58" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C59" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D59" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C60" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D60" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C61" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D61" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C62" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D62" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C63" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D63" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C64" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D64" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C65" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D65" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C66" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D66" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C67" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D67" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C68" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D68" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C69" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D69" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C70" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D70" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C71" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D71" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C72" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D72" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C73" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D73" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C74" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D74" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C75" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D75" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C76" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D76" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C77" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D77" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C78" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D78" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C79" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D79" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C80" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D80" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C81" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D81" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C82" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D82" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C83" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D83" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C84" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D84" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C85" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D85" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C86" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D86" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C87" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D87" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C88" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D88" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C89" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D89" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C90" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D90" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C91" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D91" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C92" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D92" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C93" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D93" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C94" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D94" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C95" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D95" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C96" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D96" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C97" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D97" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C98" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D98" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C99" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D99" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C100" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D100" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C101" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D101" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C102" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D102" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C103" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D103" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C104" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D104" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C105" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D105" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C106" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D106" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C107" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D107" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C108" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D108" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C109" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D109" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C110" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D110" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C111" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D111" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C112" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D112" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C113" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D113" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C114" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D114" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C115" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D115" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C116" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D116" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C117" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D117" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C118" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D118" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C119" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D119" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C120" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D120" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C121" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D121" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C122" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D122" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C123" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D123" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C124" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D124" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C125" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D125" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C126" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D126" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C127" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D127" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C128" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D128" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C129" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D129" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C130" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D130" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C131" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D131" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C132" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D132" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C133" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D133" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C134" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D134" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C135" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D135" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C136" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D136" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C137" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D137" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C138" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D138" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C139" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D139" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C140" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D140" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C141" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D141" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C142" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D142" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C143" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D143" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C144" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D144" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C145" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D145" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C146" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D146" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C147" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D147" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C148" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D148" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C149" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D149" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C150" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D150" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C151" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D151" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C152" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D152" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C153" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D153" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C154" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D154" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C155" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D155" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C156" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D156" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C157" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D157" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C158" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D158" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C159" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D159" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C160" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D160" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C161" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D161" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C162" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D162" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C163" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D163" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C164" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D164" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C165" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D165" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C166" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D166" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C167" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D167" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C168" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D168" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C169" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D169" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C170" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D170" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C171" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D171" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C172" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D172" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C173" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D173" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C174" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D174" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C175" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D175" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C176" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D176" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C177" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D177" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C178" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D178" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C179" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D179" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C180" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D180" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C181" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D181" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C182" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D182" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C183" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D183" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C184" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D184" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C185" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D185" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C186" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D186" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C187" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D187" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C188" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D188" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C189" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D189" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C190" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D190" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C191" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D191" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C192" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D192" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C193" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D193" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C194" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D194" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C195" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D195" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C196" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D196" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C197" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D197" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C198" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D198" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C199" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D199" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C200" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D200" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C201" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D201" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C202" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D202" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C203" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D203" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C204" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D204" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C205" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D205" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C206" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D206" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C207" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D207" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C208" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D208" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C209" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D209" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C210" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D210" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C211" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D211" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C212" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D212" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C213" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D213" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C214" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D214" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C215" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D215" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C216" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D216" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C217" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D217" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C218" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D218" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C219" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D219" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C220" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D220" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C221" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D221" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C222" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D222" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C223" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D223" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C224" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D224" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C225" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D225" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C226" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D226" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C227" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D227" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C228" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D228" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C229" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D229" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C230" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D230" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C231" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D231" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C232" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D232" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C233" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D233" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C234" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D234" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C235" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D235" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C236" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D236" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C237" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D237" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C238" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D238" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C239" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D239" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C240" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D240" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C241" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D241" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C242" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D242" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C243" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D243" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C244" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D244" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C245" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D245" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C246" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D246" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C247" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D247" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C248" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D248" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C249" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D249" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C250" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D250" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C251" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D251" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C252" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D252" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C253" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D253" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C254" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D254" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C255" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D255" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C256" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D256" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C257" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D257" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C258" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D258" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C259" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D259" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C260" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D260" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C261" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D261" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C262" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D262" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C263" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D263" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C264" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D264" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C265" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D265" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C266" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D266" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C267" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D267" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C268" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D268" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C269" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D269" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C270" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D270" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C271" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D271" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C272" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D272" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C273" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D273" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C274" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D274" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C275" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D275" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C276" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D276" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C277" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D277" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C278" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D278" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C279" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D279" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C280" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D280" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C281" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D281" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C282" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D282" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C283" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D283" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C284" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D284" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C285" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D285" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C286" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D286" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C287" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D287" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C288" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D288" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C289" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D289" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C290" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D290" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C291" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D291" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C292" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D292" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C293" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D293" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C294" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D294" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C295" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D295" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C296" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D296" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C297" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D297" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C298" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D298" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C299" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D299" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C300" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D300" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C301" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D301" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C302" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D302" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C303" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D303" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C304" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D304" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C305" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D305" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C306" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D306" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C307" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D307" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C308" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D308" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C309" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D309" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C310" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D310" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C311" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D311" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C312" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D312" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C313" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D313" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C314" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D314" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C315" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D315" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C316" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D316" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C317" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D317" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C318" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D318" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C319" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D319" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C320" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D320" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C321" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D321" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C322" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D322" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C323" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D323" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C324" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D324" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C325" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D325" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C326" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D326" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C327" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D327" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C328" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D328" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C329" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D329" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C330" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D330" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C331" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D331" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C332" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D332" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C333" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D333" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C334" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D334" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C335" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D335" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C336" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D336" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
         <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C337" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D337" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C338" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D338" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C339" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D339" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
         <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C340" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D340" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>343</v>
       </c>
       <c r="B341" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C341" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D341" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>344</v>
       </c>
       <c r="B342" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C342" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D342" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4">
       <c r="A343" t="s">
         <v>345</v>
       </c>
       <c r="B343" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C343" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D343" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>346</v>
       </c>
       <c r="B344" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C344" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D344" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4">
       <c r="A345" t="s">
         <v>347</v>
       </c>
       <c r="B345" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C345" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D345" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4">
       <c r="A346" t="s">
         <v>348</v>
       </c>
       <c r="B346" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C346" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D346" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4">
       <c r="A347" t="s">
         <v>349</v>
       </c>
       <c r="B347" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C347" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D347" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4">
       <c r="A348" t="s">
         <v>350</v>
       </c>
       <c r="B348" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C348" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D348" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4">
       <c r="A349" t="s">
         <v>351</v>
       </c>
       <c r="B349" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C349" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D349" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
         <v>352</v>
       </c>
       <c r="B350" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C350" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D350" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4">
       <c r="A351" t="s">
         <v>353</v>
       </c>
       <c r="B351" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C351" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D351" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
         <v>354</v>
       </c>
       <c r="B352" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C352" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D352" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4">
       <c r="A353" t="s">
         <v>355</v>
       </c>
       <c r="B353" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C353" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D353" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4">
       <c r="A354" t="s">
         <v>356</v>
       </c>
       <c r="B354" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C354" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D354" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4">
       <c r="A355" t="s">
         <v>357</v>
       </c>
       <c r="B355" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C355" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D355" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4">
       <c r="A356" t="s">
         <v>358</v>
       </c>
       <c r="B356" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C356" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D356" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4">
       <c r="A357" t="s">
         <v>359</v>
       </c>
       <c r="B357" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C357" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D357" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4">
       <c r="A358" t="s">
         <v>360</v>
       </c>
       <c r="B358" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C358" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D358" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4">
       <c r="A359" t="s">
         <v>361</v>
       </c>
       <c r="B359" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C359" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D359" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4">
       <c r="A360" t="s">
         <v>362</v>
       </c>
       <c r="B360" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C360" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D360" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4">
       <c r="A361" t="s">
         <v>363</v>
       </c>
       <c r="B361" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C361" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D361" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4">
       <c r="A362" t="s">
         <v>364</v>
       </c>
       <c r="B362" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C362" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D362" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4">
       <c r="A363" t="s">
         <v>365</v>
       </c>
       <c r="B363" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C363" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D363" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4">
       <c r="A364" t="s">
         <v>366</v>
       </c>
       <c r="B364" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C364" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D364" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4">
       <c r="A365" t="s">
         <v>367</v>
       </c>
       <c r="B365" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C365" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D365" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4">
       <c r="A366" t="s">
         <v>368</v>
       </c>
       <c r="B366" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C366" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D366" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4">
       <c r="A367" t="s">
         <v>369</v>
       </c>
       <c r="B367" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C367" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D367" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4">
       <c r="A368" t="s">
         <v>370</v>
       </c>
       <c r="B368" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C368" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D368" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4">
       <c r="A369" t="s">
         <v>371</v>
       </c>
       <c r="B369" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C369" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D369" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4">
       <c r="A370" t="s">
         <v>372</v>
       </c>
       <c r="B370" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C370" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D370" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4">
       <c r="A371" t="s">
         <v>373</v>
       </c>
       <c r="B371" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C371" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D371" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4">
       <c r="A372" t="s">
         <v>374</v>
       </c>
       <c r="B372" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C372" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D372" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4">
       <c r="A373" t="s">
         <v>375</v>
       </c>
       <c r="B373" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C373" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D373" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4">
       <c r="A374" t="s">
         <v>376</v>
       </c>
       <c r="B374" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C374" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D374" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4">
       <c r="A375" t="s">
         <v>377</v>
       </c>
       <c r="B375" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C375" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D375" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4">
       <c r="A376" t="s">
         <v>378</v>
       </c>
       <c r="B376" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C376" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D376" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4">
       <c r="A377" t="s">
         <v>379</v>
       </c>
       <c r="B377" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C377" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D377" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4">
       <c r="A378" t="s">
         <v>380</v>
       </c>
       <c r="B378" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C378" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D378" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4">
       <c r="A379" t="s">
         <v>381</v>
       </c>
       <c r="B379" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C379" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D379" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4">
       <c r="A380" t="s">
         <v>382</v>
       </c>
       <c r="B380" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C380" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D380" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4">
       <c r="A381" t="s">
         <v>383</v>
       </c>
       <c r="B381" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C381" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D381" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4">
       <c r="A382" t="s">
         <v>384</v>
       </c>
       <c r="B382" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C382" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D382" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4">
       <c r="A383" t="s">
         <v>385</v>
       </c>
       <c r="B383" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C383" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D383" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4">
       <c r="A384" t="s">
         <v>386</v>
       </c>
       <c r="B384" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C384" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D384" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4">
       <c r="A385" t="s">
         <v>387</v>
       </c>
       <c r="B385" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C385" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D385" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4">
       <c r="A386" t="s">
         <v>388</v>
       </c>
       <c r="B386" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C386" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D386" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4">
       <c r="A387" t="s">
         <v>389</v>
       </c>
       <c r="B387" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C387" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D387" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4">
       <c r="A388" t="s">
         <v>390</v>
       </c>
       <c r="B388" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C388" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D388" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4">
       <c r="A389" t="s">
         <v>391</v>
       </c>
       <c r="B389" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C389" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D389" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4">
       <c r="A390" t="s">
         <v>392</v>
       </c>
       <c r="B390" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C390" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D390" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4">
       <c r="A391" t="s">
         <v>393</v>
       </c>
       <c r="B391" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C391" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D391" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
         <v>394</v>
       </c>
       <c r="B392" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C392" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D392" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4">
       <c r="A393" t="s">
         <v>395</v>
       </c>
       <c r="B393" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C393" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D393" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4">
       <c r="A394" t="s">
         <v>396</v>
       </c>
       <c r="B394" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C394" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D394" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
         <v>397</v>
       </c>
       <c r="B395" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C395" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D395" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
         <v>398</v>
       </c>
       <c r="B396" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C396" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D396" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4">
       <c r="A397" t="s">
         <v>399</v>
       </c>
       <c r="B397" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C397" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D397" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4">
       <c r="A398" t="s">
         <v>400</v>
       </c>
       <c r="B398" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C398" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D398" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4">
       <c r="A399" t="s">
         <v>401</v>
       </c>
       <c r="B399" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C399" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D399" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4">
       <c r="A400" t="s">
         <v>402</v>
       </c>
       <c r="B400" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C400" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D400" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4">
       <c r="A401" t="s">
         <v>403</v>
       </c>
       <c r="B401" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C401" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D401" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4">
       <c r="A402" t="s">
         <v>404</v>
       </c>
       <c r="B402" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C402" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D402" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4">
       <c r="A403" t="s">
         <v>405</v>
       </c>
       <c r="B403" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C403" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D403" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4">
       <c r="A404" t="s">
         <v>406</v>
       </c>
       <c r="B404" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C404" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D404" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4">
       <c r="A405" t="s">
         <v>407</v>
       </c>
       <c r="B405" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C405" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D405" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4">
       <c r="A406" t="s">
         <v>408</v>
       </c>
       <c r="B406" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C406" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D406" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4">
       <c r="A407" t="s">
         <v>409</v>
       </c>
       <c r="B407" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C407" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D407" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4">
       <c r="A408" t="s">
         <v>410</v>
       </c>
       <c r="B408" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C408" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D408" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4">
       <c r="A409" t="s">
         <v>411</v>
       </c>
       <c r="B409" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C409" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D409" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4">
       <c r="A410" t="s">
         <v>412</v>
       </c>
       <c r="B410" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C410" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D410" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4">
       <c r="A411" t="s">
         <v>413</v>
       </c>
       <c r="B411" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C411" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D411" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4">
       <c r="A412" t="s">
         <v>414</v>
       </c>
       <c r="B412" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C412" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D412" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4">
       <c r="A413" t="s">
         <v>415</v>
       </c>
       <c r="B413" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C413" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D413" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4">
       <c r="A414" t="s">
         <v>416</v>
       </c>
       <c r="B414" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C414" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D414" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4">
       <c r="A415" t="s">
         <v>417</v>
       </c>
       <c r="B415" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C415" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D415" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4">
       <c r="A416" t="s">
         <v>418</v>
       </c>
       <c r="B416" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C416" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D416" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4">
       <c r="A417" t="s">
         <v>419</v>
       </c>
       <c r="B417" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C417" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D417" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4">
       <c r="A418" t="s">
         <v>420</v>
       </c>
       <c r="B418" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C418" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D418" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4">
       <c r="A419" t="s">
         <v>421</v>
       </c>
       <c r="B419" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C419" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D419" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4">
       <c r="A420" t="s">
         <v>422</v>
       </c>
       <c r="B420" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C420" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D420" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4">
       <c r="A421" t="s">
         <v>423</v>
       </c>
       <c r="B421" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C421" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D421" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
       <c r="A422" t="s">
         <v>424</v>
       </c>
       <c r="B422" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C422" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D422" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
       <c r="A423" t="s">
         <v>425</v>
       </c>
       <c r="B423" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C423" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D423" t="s">
-        <v>727</v>
+        <v>732</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" t="s">
+        <v>426</v>
+      </c>
+      <c r="B424" t="s">
+        <v>729</v>
+      </c>
+      <c r="C424" t="s">
+        <v>731</v>
+      </c>
+      <c r="D424" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" t="s">
+        <v>427</v>
+      </c>
+      <c r="B425" t="s">
+        <v>730</v>
+      </c>
+      <c r="C425" t="s">
+        <v>731</v>
+      </c>
+      <c r="D425" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" t="s">
+        <v>428</v>
+      </c>
+      <c r="B426" t="s">
+        <v>673</v>
+      </c>
+      <c r="C426" t="s">
+        <v>731</v>
+      </c>
+      <c r="D426" t="s">
+        <v>733</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_bricks.xlsx
+++ b/mapping/map_ibs_bricks.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B817B73E-0EB2-433B-BAF2-0A74370C473D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bricks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="731">
   <si>
     <t>dist_brickcode</t>
   </si>
@@ -1297,12 +1303,6 @@
     <t xml:space="preserve">BANI SUEF EHNASIA                       </t>
   </si>
   <si>
-    <t xml:space="preserve">MENOFIA III SANTARIS                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">نقاده               </t>
-  </si>
-  <si>
     <t>Nasr City</t>
   </si>
   <si>
@@ -2204,9 +2204,6 @@
   </si>
   <si>
     <t>Ehnasia</t>
-  </si>
-  <si>
-    <t>Sentrees</t>
   </si>
   <si>
     <t>Mustafa Muhammed</t>
@@ -2221,11 +2218,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2289,13 +2286,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2333,7 +2338,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2367,6 +2372,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2401,9 +2407,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2576,14 +2583,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D426"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D424"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="I419" sqref="I419"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2597,5954 +2606,5926 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D2" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D3" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C4" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D4" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C5" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D5" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C6" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D6" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D7" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C8" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D8" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C9" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D9" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C10" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D10" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C11" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D11" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C12" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D12" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C13" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D13" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C14" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D14" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C15" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D15" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C16" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D16" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C17" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D17" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C18" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D18" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C19" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D19" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C20" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D20" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C21" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D21" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C22" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D22" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C23" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D23" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C24" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D24" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C25" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D25" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C26" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D26" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C27" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D27" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C28" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D28" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C29" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D29" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C30" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D30" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C31" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D31" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C32" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D32" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C33" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D33" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C34" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D34" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C35" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D35" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C36" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D36" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C37" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D37" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C38" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D38" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C39" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D39" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C40" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D40" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C41" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D41" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C42" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D42" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C43" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D43" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C44" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D44" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C45" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D45" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C46" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D46" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C47" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D47" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C48" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D48" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C49" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D49" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C50" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D50" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C51" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D51" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C52" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D52" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C53" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D53" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C54" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D54" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C55" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D55" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C56" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D56" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C57" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D57" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C58" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D58" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C59" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D59" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C60" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D60" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C61" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D61" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C62" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D62" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C63" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D63" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C64" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D64" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C65" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D65" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C66" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D66" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C67" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D67" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C68" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D68" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C69" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D69" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C70" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D70" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C71" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D71" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C72" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D72" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C73" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D73" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C74" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D74" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C75" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D75" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C76" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D76" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C77" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D77" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C78" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D78" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C79" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D79" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C80" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D80" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C81" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D81" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C82" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D82" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C83" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D83" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C84" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D84" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C85" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D85" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C86" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D86" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C87" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D87" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C88" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D88" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C89" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D89" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C90" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D90" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C91" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D91" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C92" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D92" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C93" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D93" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C94" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D94" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C95" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D95" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C96" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D96" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C97" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D97" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C98" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D98" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C99" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D99" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C100" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D100" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C101" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D101" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C102" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D102" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C103" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D103" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C104" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D104" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C105" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D105" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C106" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D106" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C107" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D107" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C108" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D108" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C109" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D109" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C110" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D110" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C111" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D111" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C112" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D112" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C113" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D113" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C114" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D114" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C115" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D115" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C116" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D116" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C117" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D117" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C118" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D118" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C119" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D119" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C120" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D120" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C121" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D121" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C122" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D122" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C123" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D123" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C124" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D124" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C125" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D125" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C126" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D126" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C127" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D127" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C128" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D128" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C129" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D129" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C130" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D130" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C131" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D131" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C132" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D132" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C133" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D133" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C134" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D134" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C135" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D135" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C136" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D136" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C137" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D137" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C138" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D138" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C139" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D139" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C140" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D140" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C141" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D141" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C142" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D142" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C143" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D143" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C144" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D144" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C145" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D145" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C146" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D146" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C147" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D147" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C148" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D148" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C149" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D149" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C150" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D150" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C151" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D151" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C152" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D152" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C153" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D153" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C154" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D154" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C155" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D155" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C156" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D156" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C157" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D157" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C158" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D158" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C159" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D159" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C160" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D160" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C161" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D161" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C162" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D162" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C163" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D163" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C164" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D164" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C165" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D165" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C166" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D166" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C167" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D167" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C168" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D168" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C169" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D169" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C170" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D170" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C171" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D171" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C172" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D172" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C173" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D173" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C174" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D174" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C175" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D175" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C176" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D176" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C177" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D177" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C178" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D178" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C179" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D179" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C180" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D180" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C181" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D181" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C182" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D182" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C183" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D183" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C184" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D184" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C185" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D185" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C186" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D186" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C187" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D187" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C188" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D188" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C189" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D189" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C190" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D190" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C191" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D191" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C192" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D192" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C193" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D193" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C194" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D194" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C195" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D195" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C196" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D196" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C197" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D197" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C198" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D198" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C199" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D199" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C200" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D200" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C201" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D201" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C202" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D202" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C203" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D203" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C204" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D204" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C205" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D205" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C206" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D206" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C207" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D207" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C208" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D208" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C209" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D209" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C210" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D210" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C211" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D211" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C212" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D212" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C213" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D213" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C214" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D214" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C215" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D215" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C216" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D216" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C217" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D217" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C218" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D218" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C219" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D219" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C220" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D220" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C221" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D221" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C222" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D222" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C223" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D223" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C224" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D224" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C225" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D225" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C226" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D226" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C227" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D227" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C228" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D228" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C229" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D229" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C230" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D230" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C231" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D231" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C232" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D232" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C233" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D233" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C234" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D234" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C235" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D235" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C236" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D236" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C237" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D237" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C238" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D238" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C239" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D239" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C240" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D240" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C241" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D241" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C242" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D242" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C243" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D243" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C244" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D244" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C245" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D245" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C246" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D246" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C247" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D247" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C248" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D248" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C249" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D249" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C250" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D250" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C251" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D251" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C252" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D252" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C253" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D253" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C254" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D254" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C255" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D255" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C256" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D256" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C257" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D257" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C258" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D258" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C259" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D259" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C260" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D260" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C261" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D261" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C262" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D262" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C263" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D263" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C264" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D264" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C265" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D265" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C266" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D266" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C267" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D267" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C268" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D268" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C269" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D269" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C270" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D270" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C271" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D271" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C272" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D272" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C273" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D273" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C274" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D274" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C275" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D275" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C276" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D276" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C277" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D277" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C278" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D278" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C279" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D279" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C280" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D280" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C281" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D281" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C282" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D282" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C283" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D283" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C284" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D284" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C285" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D285" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C286" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D286" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C287" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D287" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C288" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D288" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C289" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D289" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C290" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D290" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C291" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D291" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C292" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D292" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C293" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D293" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C294" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D294" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C295" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D295" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C296" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D296" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C297" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D297" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C298" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D298" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C299" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D299" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C300" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D300" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C301" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D301" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C302" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D302" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C303" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D303" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C304" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D304" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C305" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D305" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C306" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D306" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C307" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D307" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C308" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D308" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C309" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D309" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C310" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D310" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C311" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D311" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C312" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D312" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C313" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D313" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C314" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D314" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C315" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D315" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C316" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D316" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C317" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D317" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C318" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D318" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C319" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D319" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C320" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D320" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C321" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D321" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C322" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D322" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C323" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D323" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C324" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D324" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C325" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D325" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C326" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D326" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C327" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D327" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C328" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D328" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C329" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D329" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C330" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D330" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C331" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D331" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C332" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D332" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C333" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D333" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C334" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D334" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C335" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D335" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C336" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D336" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C337" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D337" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C338" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D338" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C339" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D339" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C340" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D340" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>343</v>
       </c>
       <c r="B341" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C341" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D341" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>344</v>
       </c>
       <c r="B342" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C342" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D342" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>345</v>
       </c>
       <c r="B343" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C343" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D343" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>346</v>
       </c>
       <c r="B344" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C344" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D344" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>347</v>
       </c>
       <c r="B345" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C345" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D345" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>348</v>
       </c>
       <c r="B346" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C346" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D346" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>349</v>
       </c>
       <c r="B347" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C347" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D347" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>350</v>
       </c>
       <c r="B348" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C348" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D348" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>351</v>
       </c>
       <c r="B349" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C349" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D349" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>352</v>
       </c>
       <c r="B350" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C350" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D350" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>353</v>
       </c>
       <c r="B351" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C351" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D351" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>354</v>
       </c>
       <c r="B352" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C352" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D352" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>355</v>
       </c>
       <c r="B353" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C353" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D353" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>356</v>
       </c>
       <c r="B354" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C354" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D354" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>357</v>
       </c>
       <c r="B355" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C355" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D355" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>358</v>
       </c>
       <c r="B356" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C356" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D356" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>359</v>
       </c>
       <c r="B357" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C357" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D357" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>360</v>
       </c>
       <c r="B358" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C358" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D358" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>361</v>
       </c>
       <c r="B359" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C359" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D359" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>362</v>
       </c>
       <c r="B360" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C360" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D360" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>363</v>
       </c>
       <c r="B361" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C361" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D361" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>364</v>
       </c>
       <c r="B362" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C362" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D362" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>365</v>
       </c>
       <c r="B363" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C363" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D363" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>366</v>
       </c>
       <c r="B364" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C364" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D364" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>367</v>
       </c>
       <c r="B365" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C365" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D365" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>368</v>
       </c>
       <c r="B366" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C366" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D366" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>369</v>
       </c>
       <c r="B367" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C367" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D367" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>370</v>
       </c>
       <c r="B368" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C368" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D368" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>371</v>
       </c>
       <c r="B369" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C369" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D369" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>372</v>
       </c>
       <c r="B370" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C370" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D370" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>373</v>
       </c>
       <c r="B371" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C371" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D371" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>374</v>
       </c>
       <c r="B372" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C372" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D372" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>375</v>
       </c>
       <c r="B373" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C373" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D373" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>376</v>
       </c>
       <c r="B374" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C374" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D374" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>377</v>
       </c>
       <c r="B375" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C375" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D375" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>378</v>
       </c>
       <c r="B376" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C376" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D376" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>379</v>
       </c>
       <c r="B377" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C377" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D377" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>380</v>
       </c>
       <c r="B378" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C378" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D378" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>381</v>
       </c>
       <c r="B379" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C379" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D379" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>382</v>
       </c>
       <c r="B380" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C380" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D380" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>383</v>
       </c>
       <c r="B381" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C381" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D381" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>384</v>
       </c>
       <c r="B382" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C382" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D382" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>385</v>
       </c>
       <c r="B383" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C383" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D383" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>386</v>
       </c>
       <c r="B384" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C384" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D384" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>387</v>
       </c>
       <c r="B385" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C385" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D385" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>388</v>
       </c>
       <c r="B386" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C386" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D386" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>389</v>
       </c>
       <c r="B387" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C387" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D387" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>390</v>
       </c>
       <c r="B388" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C388" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D388" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>391</v>
       </c>
       <c r="B389" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C389" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D389" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>392</v>
       </c>
       <c r="B390" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C390" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D390" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>393</v>
       </c>
       <c r="B391" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C391" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D391" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>394</v>
       </c>
       <c r="B392" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C392" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D392" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>395</v>
       </c>
       <c r="B393" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C393" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D393" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>396</v>
       </c>
       <c r="B394" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C394" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D394" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>397</v>
       </c>
       <c r="B395" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C395" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D395" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>398</v>
       </c>
       <c r="B396" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C396" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D396" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>399</v>
       </c>
       <c r="B397" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C397" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D397" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>400</v>
       </c>
       <c r="B398" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C398" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D398" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>401</v>
       </c>
       <c r="B399" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C399" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D399" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>402</v>
       </c>
       <c r="B400" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C400" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D400" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>403</v>
       </c>
       <c r="B401" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C401" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D401" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>404</v>
       </c>
       <c r="B402" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C402" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D402" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>405</v>
       </c>
       <c r="B403" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C403" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D403" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>406</v>
       </c>
       <c r="B404" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C404" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D404" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>407</v>
       </c>
       <c r="B405" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C405" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D405" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>408</v>
       </c>
       <c r="B406" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C406" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D406" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>409</v>
       </c>
       <c r="B407" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C407" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D407" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>410</v>
       </c>
       <c r="B408" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C408" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D408" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>411</v>
       </c>
       <c r="B409" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C409" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D409" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>412</v>
       </c>
       <c r="B410" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C410" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D410" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>413</v>
       </c>
       <c r="B411" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C411" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D411" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>414</v>
       </c>
       <c r="B412" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C412" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D412" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>415</v>
       </c>
       <c r="B413" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C413" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D413" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>416</v>
       </c>
       <c r="B414" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C414" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D414" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>417</v>
       </c>
       <c r="B415" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C415" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D415" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>418</v>
       </c>
       <c r="B416" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C416" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D416" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>419</v>
       </c>
       <c r="B417" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C417" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D417" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>420</v>
       </c>
       <c r="B418" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C418" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D418" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>421</v>
       </c>
       <c r="B419" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C419" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D419" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>422</v>
       </c>
       <c r="B420" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C420" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D420" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>423</v>
       </c>
       <c r="B421" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C421" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D421" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>424</v>
       </c>
       <c r="B422" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C422" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D422" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>425</v>
       </c>
       <c r="B423" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C423" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D423" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>426</v>
       </c>
       <c r="B424" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C424" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D424" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
-      <c r="A425" t="s">
-        <v>427</v>
-      </c>
-      <c r="B425" t="s">
         <v>730</v>
-      </c>
-      <c r="C425" t="s">
-        <v>731</v>
-      </c>
-      <c r="D425" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4">
-      <c r="A426" t="s">
-        <v>428</v>
-      </c>
-      <c r="B426" t="s">
-        <v>673</v>
-      </c>
-      <c r="C426" t="s">
-        <v>731</v>
-      </c>
-      <c r="D426" t="s">
-        <v>733</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_bricks.xlsx
+++ b/mapping/map_ibs_bricks.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B817B73E-0EB2-433B-BAF2-0A74370C473D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="bricks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="735">
   <si>
     <t>dist_brickcode</t>
   </si>
@@ -1303,6 +1297,12 @@
     <t xml:space="preserve">BANI SUEF EHNASIA                       </t>
   </si>
   <si>
+    <t xml:space="preserve">MENOFIA III SANTARIS                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقاده               </t>
+  </si>
+  <si>
     <t>Nasr City</t>
   </si>
   <si>
@@ -2206,6 +2206,9 @@
     <t>Ehnasia</t>
   </si>
   <si>
+    <t>Sentrees</t>
+  </si>
+  <si>
     <t>Mustafa Muhammed</t>
   </si>
   <si>
@@ -2213,16 +2216,19 @@
   </si>
   <si>
     <t>2025-10-06 12:52:56</t>
+  </si>
+  <si>
+    <t>2025-10-06 12:55:35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2286,21 +2292,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2338,7 +2336,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2372,7 +2370,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2407,10 +2404,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2583,16 +2579,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D424"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="I419" sqref="I419"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2606,5926 +2600,5954 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C2" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D2" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D3" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C4" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D4" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C5" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D5" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C6" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D6" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C7" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D7" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C8" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D8" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C9" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D9" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C10" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D10" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C11" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D11" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C12" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D12" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C13" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D13" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C14" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D14" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C15" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D15" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C16" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D16" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C17" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D17" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C18" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D18" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C19" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D19" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C20" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D20" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C21" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D21" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C22" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D22" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C23" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D23" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C24" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D24" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C25" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D25" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C26" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D26" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C27" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D27" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C28" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D28" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C29" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D29" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C30" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D30" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C31" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D31" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C32" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D32" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C33" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D33" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C34" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D34" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C35" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D35" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C36" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D36" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C37" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D37" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C38" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D38" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C39" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D39" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C40" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D40" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C41" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D41" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C42" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D42" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C43" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D43" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C44" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D44" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C45" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D45" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C46" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D46" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C47" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D47" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C48" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D48" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C49" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D49" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C50" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D50" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C51" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D51" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C52" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D52" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C53" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D53" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C54" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D54" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C55" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D55" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C56" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D56" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C57" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D57" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C58" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D58" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C59" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D59" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C60" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D60" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C61" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D61" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C62" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D62" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C63" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D63" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C64" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D64" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C65" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D65" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C66" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D66" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C67" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D67" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C68" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D68" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C69" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D69" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C70" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D70" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C71" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D71" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C72" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D72" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C73" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D73" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C74" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D74" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C75" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D75" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C76" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D76" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C77" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D77" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C78" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D78" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C79" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D79" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C80" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D80" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C81" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D81" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C82" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D82" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C83" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D83" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C84" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D84" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C85" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D85" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C86" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D86" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C87" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D87" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C88" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D88" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C89" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D89" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C90" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D90" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C91" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D91" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C92" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D92" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C93" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D93" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C94" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D94" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C95" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D95" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C96" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D96" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C97" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D97" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C98" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D98" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C99" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D99" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C100" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D100" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C101" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D101" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C102" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D102" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C103" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D103" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C104" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D104" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C105" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D105" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C106" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D106" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C107" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D107" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C108" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D108" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C109" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D109" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C110" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D110" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C111" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D111" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C112" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D112" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C113" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D113" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C114" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D114" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C115" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D115" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C116" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D116" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C117" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D117" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C118" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D118" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C119" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D119" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C120" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D120" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C121" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D121" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C122" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D122" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C123" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D123" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C124" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D124" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C125" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D125" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C126" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D126" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C127" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D127" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C128" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D128" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C129" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D129" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C130" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D130" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C131" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D131" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C132" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D132" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C133" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D133" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C134" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D134" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C135" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D135" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C136" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D136" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C137" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D137" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C138" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D138" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C139" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D139" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C140" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D140" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C141" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D141" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C142" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D142" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C143" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D143" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C144" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D144" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C145" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D145" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C146" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D146" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C147" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D147" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C148" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D148" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C149" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D149" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C150" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D150" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C151" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D151" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C152" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D152" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C153" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D153" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C154" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D154" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C155" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D155" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C156" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D156" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C157" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D157" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C158" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D158" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C159" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D159" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C160" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D160" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C161" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D161" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C162" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D162" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C163" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D163" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C164" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D164" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C165" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D165" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C166" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D166" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C167" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D167" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C168" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D168" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C169" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D169" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C170" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D170" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C171" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D171" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C172" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D172" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C173" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D173" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C174" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D174" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C175" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D175" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C176" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D176" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C177" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D177" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C178" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D178" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C179" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D179" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C180" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D180" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C181" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D181" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C182" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D182" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C183" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D183" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C184" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D184" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C185" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D185" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C186" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D186" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C187" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D187" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C188" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D188" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C189" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D189" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C190" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D190" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C191" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D191" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C192" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D192" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C193" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D193" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C194" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D194" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C195" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D195" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C196" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D196" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C197" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D197" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C198" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D198" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C199" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D199" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C200" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D200" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C201" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D201" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C202" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D202" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C203" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D203" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C204" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D204" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C205" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D205" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C206" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D206" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C207" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D207" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C208" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D208" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C209" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D209" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C210" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D210" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C211" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D211" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C212" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D212" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C213" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D213" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C214" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D214" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C215" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D215" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C216" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D216" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C217" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D217" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C218" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D218" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C219" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D219" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C220" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D220" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C221" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D221" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C222" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D222" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C223" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D223" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C224" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D224" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C225" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D225" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C226" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D226" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C227" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D227" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C228" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D228" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C229" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D229" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C230" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D230" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C231" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D231" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C232" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D232" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C233" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D233" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C234" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D234" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C235" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D235" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C236" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D236" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C237" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D237" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C238" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D238" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C239" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D239" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C240" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D240" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C241" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D241" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C242" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D242" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C243" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D243" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C244" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D244" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C245" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D245" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C246" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D246" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C247" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D247" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C248" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D248" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C249" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D249" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C250" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D250" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C251" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D251" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C252" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D252" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C253" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D253" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C254" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D254" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C255" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D255" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C256" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D256" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C257" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D257" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C258" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D258" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C259" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D259" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C260" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D260" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C261" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D261" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C262" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D262" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C263" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D263" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C264" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D264" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C265" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D265" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C266" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D266" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C267" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D267" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C268" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D268" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C269" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D269" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C270" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D270" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C271" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D271" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C272" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D272" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C273" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D273" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C274" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D274" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C275" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D275" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C276" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D276" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C277" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D277" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C278" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D278" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C279" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D279" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C280" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D280" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C281" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D281" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C282" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D282" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C283" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D283" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C284" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D284" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C285" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D285" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C286" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D286" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C287" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D287" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C288" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D288" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C289" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D289" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C290" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D290" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C291" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D291" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C292" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D292" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C293" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D293" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C294" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D294" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C295" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D295" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C296" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D296" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C297" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D297" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C298" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D298" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C299" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D299" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C300" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D300" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C301" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D301" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C302" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D302" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C303" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D303" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C304" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D304" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C305" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D305" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C306" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D306" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C307" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D307" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C308" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D308" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C309" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D309" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C310" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D310" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C311" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D311" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C312" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D312" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C313" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D313" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C314" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D314" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C315" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D315" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C316" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D316" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C317" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D317" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C318" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D318" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C319" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D319" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C320" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D320" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C321" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D321" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C322" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D322" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C323" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D323" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C324" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D324" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C325" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D325" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C326" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D326" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C327" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D327" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C328" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D328" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C329" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D329" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C330" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D330" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C331" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D331" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C332" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D332" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C333" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D333" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C334" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D334" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C335" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D335" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C336" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D336" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
         <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C337" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D337" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C338" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D338" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C339" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D339" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
         <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C340" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D340" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>343</v>
       </c>
       <c r="B341" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C341" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D341" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>344</v>
       </c>
       <c r="B342" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C342" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D342" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4">
       <c r="A343" t="s">
         <v>345</v>
       </c>
       <c r="B343" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C343" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D343" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>346</v>
       </c>
       <c r="B344" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C344" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D344" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4">
       <c r="A345" t="s">
         <v>347</v>
       </c>
       <c r="B345" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C345" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D345" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4">
       <c r="A346" t="s">
         <v>348</v>
       </c>
       <c r="B346" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C346" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D346" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4">
       <c r="A347" t="s">
         <v>349</v>
       </c>
       <c r="B347" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C347" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D347" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4">
       <c r="A348" t="s">
         <v>350</v>
       </c>
       <c r="B348" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C348" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D348" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4">
       <c r="A349" t="s">
         <v>351</v>
       </c>
       <c r="B349" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C349" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D349" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
         <v>352</v>
       </c>
       <c r="B350" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C350" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D350" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4">
       <c r="A351" t="s">
         <v>353</v>
       </c>
       <c r="B351" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C351" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D351" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
         <v>354</v>
       </c>
       <c r="B352" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C352" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D352" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4">
       <c r="A353" t="s">
         <v>355</v>
       </c>
       <c r="B353" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C353" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D353" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4">
       <c r="A354" t="s">
         <v>356</v>
       </c>
       <c r="B354" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C354" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D354" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4">
       <c r="A355" t="s">
         <v>357</v>
       </c>
       <c r="B355" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C355" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D355" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4">
       <c r="A356" t="s">
         <v>358</v>
       </c>
       <c r="B356" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C356" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D356" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4">
       <c r="A357" t="s">
         <v>359</v>
       </c>
       <c r="B357" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C357" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D357" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4">
       <c r="A358" t="s">
         <v>360</v>
       </c>
       <c r="B358" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C358" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D358" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4">
       <c r="A359" t="s">
         <v>361</v>
       </c>
       <c r="B359" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C359" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D359" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4">
       <c r="A360" t="s">
         <v>362</v>
       </c>
       <c r="B360" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C360" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D360" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4">
       <c r="A361" t="s">
         <v>363</v>
       </c>
       <c r="B361" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C361" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D361" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4">
       <c r="A362" t="s">
         <v>364</v>
       </c>
       <c r="B362" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C362" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D362" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4">
       <c r="A363" t="s">
         <v>365</v>
       </c>
       <c r="B363" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C363" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D363" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4">
       <c r="A364" t="s">
         <v>366</v>
       </c>
       <c r="B364" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C364" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D364" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4">
       <c r="A365" t="s">
         <v>367</v>
       </c>
       <c r="B365" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C365" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D365" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4">
       <c r="A366" t="s">
         <v>368</v>
       </c>
       <c r="B366" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C366" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D366" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4">
       <c r="A367" t="s">
         <v>369</v>
       </c>
       <c r="B367" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C367" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D367" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4">
       <c r="A368" t="s">
         <v>370</v>
       </c>
       <c r="B368" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C368" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D368" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4">
       <c r="A369" t="s">
         <v>371</v>
       </c>
       <c r="B369" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C369" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D369" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4">
       <c r="A370" t="s">
         <v>372</v>
       </c>
       <c r="B370" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C370" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D370" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4">
       <c r="A371" t="s">
         <v>373</v>
       </c>
       <c r="B371" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C371" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D371" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4">
       <c r="A372" t="s">
         <v>374</v>
       </c>
       <c r="B372" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C372" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D372" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4">
       <c r="A373" t="s">
         <v>375</v>
       </c>
       <c r="B373" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C373" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D373" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4">
       <c r="A374" t="s">
         <v>376</v>
       </c>
       <c r="B374" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C374" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D374" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4">
       <c r="A375" t="s">
         <v>377</v>
       </c>
       <c r="B375" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C375" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D375" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4">
       <c r="A376" t="s">
         <v>378</v>
       </c>
       <c r="B376" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C376" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D376" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4">
       <c r="A377" t="s">
         <v>379</v>
       </c>
       <c r="B377" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C377" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D377" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4">
       <c r="A378" t="s">
         <v>380</v>
       </c>
       <c r="B378" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C378" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D378" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4">
       <c r="A379" t="s">
         <v>381</v>
       </c>
       <c r="B379" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C379" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D379" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4">
       <c r="A380" t="s">
         <v>382</v>
       </c>
       <c r="B380" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C380" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D380" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4">
       <c r="A381" t="s">
         <v>383</v>
       </c>
       <c r="B381" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C381" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D381" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4">
       <c r="A382" t="s">
         <v>384</v>
       </c>
       <c r="B382" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C382" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D382" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4">
       <c r="A383" t="s">
         <v>385</v>
       </c>
       <c r="B383" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C383" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D383" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4">
       <c r="A384" t="s">
         <v>386</v>
       </c>
       <c r="B384" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C384" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D384" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4">
       <c r="A385" t="s">
         <v>387</v>
       </c>
       <c r="B385" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C385" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D385" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4">
       <c r="A386" t="s">
         <v>388</v>
       </c>
       <c r="B386" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C386" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D386" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4">
       <c r="A387" t="s">
         <v>389</v>
       </c>
       <c r="B387" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C387" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D387" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4">
       <c r="A388" t="s">
         <v>390</v>
       </c>
       <c r="B388" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C388" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D388" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4">
       <c r="A389" t="s">
         <v>391</v>
       </c>
       <c r="B389" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C389" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D389" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4">
       <c r="A390" t="s">
         <v>392</v>
       </c>
       <c r="B390" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C390" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D390" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4">
       <c r="A391" t="s">
         <v>393</v>
       </c>
       <c r="B391" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C391" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D391" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
         <v>394</v>
       </c>
       <c r="B392" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C392" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D392" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4">
       <c r="A393" t="s">
         <v>395</v>
       </c>
       <c r="B393" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C393" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D393" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4">
       <c r="A394" t="s">
         <v>396</v>
       </c>
       <c r="B394" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C394" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D394" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
         <v>397</v>
       </c>
       <c r="B395" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C395" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D395" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
         <v>398</v>
       </c>
       <c r="B396" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C396" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D396" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4">
       <c r="A397" t="s">
         <v>399</v>
       </c>
       <c r="B397" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C397" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D397" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4">
       <c r="A398" t="s">
         <v>400</v>
       </c>
       <c r="B398" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C398" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D398" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4">
       <c r="A399" t="s">
         <v>401</v>
       </c>
       <c r="B399" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C399" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D399" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4">
       <c r="A400" t="s">
         <v>402</v>
       </c>
       <c r="B400" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C400" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D400" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4">
       <c r="A401" t="s">
         <v>403</v>
       </c>
       <c r="B401" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C401" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D401" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4">
       <c r="A402" t="s">
         <v>404</v>
       </c>
       <c r="B402" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C402" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D402" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4">
       <c r="A403" t="s">
         <v>405</v>
       </c>
       <c r="B403" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C403" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D403" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4">
       <c r="A404" t="s">
         <v>406</v>
       </c>
       <c r="B404" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C404" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D404" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4">
       <c r="A405" t="s">
         <v>407</v>
       </c>
       <c r="B405" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C405" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D405" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4">
       <c r="A406" t="s">
         <v>408</v>
       </c>
       <c r="B406" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C406" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D406" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4">
       <c r="A407" t="s">
         <v>409</v>
       </c>
       <c r="B407" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C407" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D407" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4">
       <c r="A408" t="s">
         <v>410</v>
       </c>
       <c r="B408" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C408" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D408" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4">
       <c r="A409" t="s">
         <v>411</v>
       </c>
       <c r="B409" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C409" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D409" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4">
       <c r="A410" t="s">
         <v>412</v>
       </c>
       <c r="B410" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C410" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D410" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4">
       <c r="A411" t="s">
         <v>413</v>
       </c>
       <c r="B411" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C411" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D411" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4">
       <c r="A412" t="s">
         <v>414</v>
       </c>
       <c r="B412" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C412" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D412" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4">
       <c r="A413" t="s">
         <v>415</v>
       </c>
       <c r="B413" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C413" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D413" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4">
       <c r="A414" t="s">
         <v>416</v>
       </c>
       <c r="B414" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C414" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D414" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4">
       <c r="A415" t="s">
         <v>417</v>
       </c>
       <c r="B415" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C415" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D415" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4">
       <c r="A416" t="s">
         <v>418</v>
       </c>
       <c r="B416" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C416" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D416" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4">
       <c r="A417" t="s">
         <v>419</v>
       </c>
       <c r="B417" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C417" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D417" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4">
       <c r="A418" t="s">
         <v>420</v>
       </c>
       <c r="B418" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C418" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D418" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4">
       <c r="A419" t="s">
         <v>421</v>
       </c>
       <c r="B419" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C419" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D419" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4">
       <c r="A420" t="s">
         <v>422</v>
       </c>
       <c r="B420" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C420" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D420" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4">
       <c r="A421" t="s">
         <v>423</v>
       </c>
       <c r="B421" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C421" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D421" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
       <c r="A422" t="s">
         <v>424</v>
       </c>
       <c r="B422" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C422" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D422" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
       <c r="A423" t="s">
         <v>425</v>
       </c>
       <c r="B423" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C423" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D423" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
       <c r="A424" t="s">
         <v>426</v>
       </c>
       <c r="B424" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C424" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D424" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" t="s">
+        <v>427</v>
+      </c>
+      <c r="B425" t="s">
         <v>730</v>
+      </c>
+      <c r="C425" t="s">
+        <v>731</v>
+      </c>
+      <c r="D425" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" t="s">
+        <v>428</v>
+      </c>
+      <c r="B426" t="s">
+        <v>673</v>
+      </c>
+      <c r="C426" t="s">
+        <v>731</v>
+      </c>
+      <c r="D426" t="s">
+        <v>734</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_bricks.xlsx
+++ b/mapping/map_ibs_bricks.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FE1C5D-2EF7-4E84-B558-9F2953C275AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bricks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="731">
   <si>
     <t>dist_brickcode</t>
   </si>
@@ -1297,12 +1303,6 @@
     <t xml:space="preserve">BANI SUEF EHNASIA                       </t>
   </si>
   <si>
-    <t xml:space="preserve">MENOFIA III SANTARIS                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">نقاده               </t>
-  </si>
-  <si>
     <t>Nasr City</t>
   </si>
   <si>
@@ -2206,9 +2206,6 @@
     <t>Ehnasia</t>
   </si>
   <si>
-    <t>Sentrees</t>
-  </si>
-  <si>
     <t>Mustafa Muhammed</t>
   </si>
   <si>
@@ -2216,19 +2213,16 @@
   </si>
   <si>
     <t>2025-10-06 12:52:56</t>
-  </si>
-  <si>
-    <t>2025-10-06 12:55:35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2292,13 +2286,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2336,7 +2338,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2370,6 +2372,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2404,9 +2407,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2579,14 +2583,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D426"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D424"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="G427" sqref="G427"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2600,5954 +2606,5926 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D2" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D3" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C4" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D4" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C5" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D5" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C6" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D6" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D7" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C8" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D8" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C9" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D9" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C10" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D10" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C11" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D11" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C12" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D12" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C13" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D13" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C14" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D14" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C15" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D15" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C16" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D16" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C17" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D17" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C18" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D18" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C19" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D19" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C20" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D20" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C21" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D21" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C22" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D22" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C23" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D23" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C24" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D24" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C25" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D25" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C26" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D26" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C27" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D27" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C28" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D28" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C29" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D29" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C30" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D30" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C31" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D31" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C32" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D32" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C33" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D33" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C34" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D34" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C35" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D35" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C36" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D36" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C37" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D37" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C38" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D38" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C39" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D39" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C40" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D40" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C41" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D41" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C42" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D42" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C43" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D43" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C44" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D44" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C45" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D45" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C46" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D46" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C47" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D47" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C48" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D48" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C49" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D49" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C50" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D50" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C51" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D51" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C52" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D52" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C53" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D53" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C54" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D54" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C55" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D55" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C56" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D56" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C57" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D57" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C58" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D58" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C59" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D59" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C60" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D60" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C61" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D61" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C62" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D62" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C63" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D63" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C64" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D64" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C65" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D65" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C66" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D66" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C67" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D67" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C68" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D68" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C69" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D69" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C70" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D70" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C71" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D71" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C72" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D72" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C73" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D73" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C74" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D74" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C75" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D75" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C76" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D76" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C77" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D77" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C78" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D78" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C79" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D79" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C80" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D80" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C81" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D81" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C82" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D82" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C83" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D83" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C84" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D84" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C85" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D85" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C86" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D86" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C87" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D87" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C88" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D88" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C89" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D89" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C90" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D90" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C91" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D91" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C92" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D92" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C93" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D93" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C94" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D94" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C95" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D95" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C96" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D96" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C97" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D97" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C98" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D98" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C99" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D99" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C100" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D100" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C101" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D101" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C102" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D102" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C103" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D103" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C104" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D104" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C105" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D105" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C106" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D106" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C107" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D107" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C108" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D108" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C109" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D109" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C110" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D110" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C111" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D111" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C112" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D112" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C113" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D113" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C114" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D114" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C115" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D115" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C116" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D116" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C117" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D117" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C118" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D118" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C119" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D119" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C120" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D120" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C121" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D121" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C122" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D122" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C123" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D123" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C124" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D124" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C125" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D125" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C126" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D126" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C127" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D127" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C128" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D128" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C129" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D129" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C130" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D130" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C131" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D131" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C132" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D132" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C133" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D133" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C134" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D134" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C135" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D135" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C136" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D136" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C137" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D137" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C138" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D138" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C139" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D139" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C140" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D140" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C141" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D141" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C142" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D142" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C143" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D143" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C144" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D144" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C145" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D145" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C146" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D146" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C147" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D147" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C148" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D148" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C149" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D149" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C150" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D150" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C151" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D151" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C152" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D152" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C153" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D153" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C154" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D154" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C155" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D155" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C156" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D156" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C157" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D157" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C158" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D158" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C159" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D159" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C160" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D160" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C161" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D161" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C162" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D162" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C163" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D163" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C164" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D164" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C165" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D165" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C166" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D166" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C167" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D167" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C168" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D168" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C169" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D169" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C170" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D170" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C171" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D171" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C172" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D172" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C173" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D173" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C174" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D174" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C175" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D175" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C176" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D176" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C177" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D177" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C178" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D178" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C179" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D179" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C180" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D180" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C181" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D181" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C182" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D182" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C183" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D183" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C184" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D184" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C185" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D185" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C186" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D186" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C187" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D187" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C188" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D188" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C189" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D189" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C190" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D190" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C191" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D191" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C192" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D192" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C193" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D193" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C194" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D194" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C195" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D195" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C196" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D196" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C197" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D197" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C198" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D198" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C199" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D199" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C200" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D200" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C201" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D201" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C202" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D202" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C203" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D203" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C204" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D204" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C205" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D205" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C206" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D206" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C207" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D207" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C208" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D208" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C209" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D209" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C210" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D210" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C211" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D211" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C212" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D212" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C213" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D213" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C214" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D214" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C215" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D215" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C216" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D216" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C217" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D217" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C218" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D218" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C219" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D219" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C220" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D220" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C221" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D221" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C222" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D222" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C223" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D223" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C224" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D224" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C225" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D225" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C226" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D226" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C227" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D227" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C228" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D228" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C229" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D229" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C230" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D230" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C231" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D231" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C232" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D232" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C233" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D233" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C234" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D234" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C235" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D235" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C236" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D236" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C237" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D237" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C238" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D238" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C239" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D239" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C240" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D240" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C241" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D241" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C242" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D242" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C243" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D243" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C244" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D244" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C245" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D245" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C246" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D246" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C247" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D247" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C248" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D248" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C249" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D249" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C250" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D250" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C251" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D251" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C252" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D252" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C253" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D253" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C254" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D254" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C255" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D255" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C256" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D256" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C257" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D257" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C258" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D258" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C259" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D259" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C260" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D260" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C261" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D261" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C262" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D262" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C263" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D263" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C264" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D264" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C265" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D265" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C266" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D266" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C267" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D267" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C268" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D268" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C269" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D269" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C270" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D270" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C271" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D271" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C272" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D272" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C273" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D273" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C274" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D274" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C275" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D275" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C276" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D276" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C277" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D277" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C278" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D278" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C279" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D279" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C280" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D280" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C281" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D281" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C282" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D282" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C283" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D283" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C284" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D284" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C285" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D285" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C286" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D286" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C287" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D287" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C288" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D288" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C289" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D289" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C290" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D290" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C291" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D291" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C292" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D292" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C293" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D293" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C294" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D294" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C295" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D295" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C296" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D296" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C297" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D297" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C298" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D298" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C299" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D299" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C300" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D300" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C301" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D301" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C302" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D302" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C303" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D303" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C304" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D304" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C305" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D305" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C306" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D306" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C307" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D307" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C308" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D308" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C309" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D309" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C310" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D310" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C311" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D311" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C312" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D312" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C313" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D313" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C314" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D314" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C315" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D315" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C316" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D316" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C317" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D317" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C318" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D318" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C319" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D319" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C320" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D320" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C321" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D321" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C322" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D322" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C323" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D323" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C324" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D324" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C325" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D325" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C326" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D326" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C327" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D327" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C328" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D328" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C329" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D329" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C330" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D330" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C331" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D331" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C332" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D332" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C333" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D333" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C334" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D334" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C335" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D335" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C336" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D336" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C337" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D337" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C338" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D338" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C339" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D339" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C340" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D340" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>343</v>
       </c>
       <c r="B341" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C341" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D341" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>344</v>
       </c>
       <c r="B342" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C342" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D342" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>345</v>
       </c>
       <c r="B343" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C343" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D343" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>346</v>
       </c>
       <c r="B344" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C344" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D344" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>347</v>
       </c>
       <c r="B345" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C345" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D345" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>348</v>
       </c>
       <c r="B346" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C346" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D346" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>349</v>
       </c>
       <c r="B347" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C347" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D347" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>350</v>
       </c>
       <c r="B348" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C348" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D348" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>351</v>
       </c>
       <c r="B349" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C349" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D349" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>352</v>
       </c>
       <c r="B350" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C350" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D350" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>353</v>
       </c>
       <c r="B351" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C351" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D351" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>354</v>
       </c>
       <c r="B352" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C352" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D352" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>355</v>
       </c>
       <c r="B353" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C353" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D353" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>356</v>
       </c>
       <c r="B354" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C354" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D354" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>357</v>
       </c>
       <c r="B355" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C355" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D355" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>358</v>
       </c>
       <c r="B356" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C356" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D356" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>359</v>
       </c>
       <c r="B357" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C357" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D357" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>360</v>
       </c>
       <c r="B358" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C358" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D358" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>361</v>
       </c>
       <c r="B359" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C359" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D359" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>362</v>
       </c>
       <c r="B360" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C360" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D360" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>363</v>
       </c>
       <c r="B361" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C361" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D361" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>364</v>
       </c>
       <c r="B362" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C362" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D362" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>365</v>
       </c>
       <c r="B363" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C363" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D363" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>366</v>
       </c>
       <c r="B364" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C364" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D364" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>367</v>
       </c>
       <c r="B365" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C365" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D365" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>368</v>
       </c>
       <c r="B366" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C366" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D366" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>369</v>
       </c>
       <c r="B367" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C367" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D367" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>370</v>
       </c>
       <c r="B368" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C368" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D368" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>371</v>
       </c>
       <c r="B369" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C369" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D369" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>372</v>
       </c>
       <c r="B370" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C370" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D370" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>373</v>
       </c>
       <c r="B371" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C371" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D371" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>374</v>
       </c>
       <c r="B372" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C372" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D372" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>375</v>
       </c>
       <c r="B373" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C373" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D373" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>376</v>
       </c>
       <c r="B374" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C374" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D374" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>377</v>
       </c>
       <c r="B375" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C375" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D375" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>378</v>
       </c>
       <c r="B376" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C376" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D376" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>379</v>
       </c>
       <c r="B377" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C377" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D377" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>380</v>
       </c>
       <c r="B378" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C378" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D378" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>381</v>
       </c>
       <c r="B379" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C379" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D379" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>382</v>
       </c>
       <c r="B380" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C380" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D380" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>383</v>
       </c>
       <c r="B381" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C381" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D381" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>384</v>
       </c>
       <c r="B382" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C382" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D382" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>385</v>
       </c>
       <c r="B383" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C383" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D383" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>386</v>
       </c>
       <c r="B384" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C384" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D384" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>387</v>
       </c>
       <c r="B385" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C385" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D385" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>388</v>
       </c>
       <c r="B386" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C386" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D386" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>389</v>
       </c>
       <c r="B387" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C387" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D387" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>390</v>
       </c>
       <c r="B388" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C388" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D388" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>391</v>
       </c>
       <c r="B389" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C389" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D389" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>392</v>
       </c>
       <c r="B390" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C390" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D390" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>393</v>
       </c>
       <c r="B391" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C391" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D391" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>394</v>
       </c>
       <c r="B392" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C392" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D392" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>395</v>
       </c>
       <c r="B393" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C393" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D393" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>396</v>
       </c>
       <c r="B394" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C394" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D394" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>397</v>
       </c>
       <c r="B395" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C395" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D395" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>398</v>
       </c>
       <c r="B396" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C396" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D396" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>399</v>
       </c>
       <c r="B397" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C397" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D397" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>400</v>
       </c>
       <c r="B398" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C398" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D398" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>401</v>
       </c>
       <c r="B399" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C399" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D399" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>402</v>
       </c>
       <c r="B400" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C400" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D400" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>403</v>
       </c>
       <c r="B401" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C401" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D401" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>404</v>
       </c>
       <c r="B402" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C402" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D402" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>405</v>
       </c>
       <c r="B403" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C403" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D403" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>406</v>
       </c>
       <c r="B404" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C404" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D404" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>407</v>
       </c>
       <c r="B405" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C405" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D405" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>408</v>
       </c>
       <c r="B406" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C406" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D406" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>409</v>
       </c>
       <c r="B407" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C407" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D407" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>410</v>
       </c>
       <c r="B408" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C408" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D408" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>411</v>
       </c>
       <c r="B409" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C409" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D409" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>412</v>
       </c>
       <c r="B410" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C410" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D410" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>413</v>
       </c>
       <c r="B411" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C411" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D411" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>414</v>
       </c>
       <c r="B412" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C412" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D412" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>415</v>
       </c>
       <c r="B413" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C413" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D413" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>416</v>
       </c>
       <c r="B414" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C414" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D414" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>417</v>
       </c>
       <c r="B415" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C415" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D415" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>418</v>
       </c>
       <c r="B416" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C416" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D416" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>419</v>
       </c>
       <c r="B417" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C417" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D417" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>420</v>
       </c>
       <c r="B418" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C418" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D418" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>421</v>
       </c>
       <c r="B419" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C419" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D419" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>422</v>
       </c>
       <c r="B420" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C420" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D420" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>423</v>
       </c>
       <c r="B421" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C421" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D421" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>424</v>
       </c>
       <c r="B422" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C422" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D422" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>425</v>
       </c>
       <c r="B423" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C423" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D423" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>426</v>
       </c>
       <c r="B424" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C424" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D424" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
-      <c r="A425" t="s">
-        <v>427</v>
-      </c>
-      <c r="B425" t="s">
         <v>730</v>
-      </c>
-      <c r="C425" t="s">
-        <v>731</v>
-      </c>
-      <c r="D425" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4">
-      <c r="A426" t="s">
-        <v>428</v>
-      </c>
-      <c r="B426" t="s">
-        <v>673</v>
-      </c>
-      <c r="C426" t="s">
-        <v>731</v>
-      </c>
-      <c r="D426" t="s">
-        <v>734</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_bricks.xlsx
+++ b/mapping/map_ibs_bricks.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FE1C5D-2EF7-4E84-B558-9F2953C275AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="bricks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="735">
   <si>
     <t>dist_brickcode</t>
   </si>
@@ -1303,6 +1297,12 @@
     <t xml:space="preserve">BANI SUEF EHNASIA                       </t>
   </si>
   <si>
+    <t xml:space="preserve">MENOFIA III SANTARIS                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقاده               </t>
+  </si>
+  <si>
     <t>Nasr City</t>
   </si>
   <si>
@@ -2206,6 +2206,9 @@
     <t>Ehnasia</t>
   </si>
   <si>
+    <t>Sentrees</t>
+  </si>
+  <si>
     <t>Mustafa Muhammed</t>
   </si>
   <si>
@@ -2213,16 +2216,19 @@
   </si>
   <si>
     <t>2025-10-06 12:52:56</t>
+  </si>
+  <si>
+    <t>2025-10-06 12:57:46</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2286,21 +2292,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2338,7 +2336,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2372,7 +2370,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2407,10 +2404,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2583,16 +2579,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D424"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="G427" sqref="G427"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2606,5926 +2600,5954 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C2" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D2" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D3" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C4" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D4" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C5" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D5" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C6" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D6" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C7" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D7" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C8" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D8" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C9" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D9" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C10" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D10" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C11" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D11" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C12" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D12" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C13" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D13" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C14" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D14" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C15" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D15" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C16" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D16" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C17" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D17" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C18" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D18" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C19" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D19" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C20" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D20" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C21" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D21" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C22" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D22" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C23" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D23" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C24" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D24" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C25" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D25" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C26" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D26" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C27" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D27" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C28" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D28" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C29" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D29" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C30" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D30" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C31" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D31" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C32" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D32" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C33" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D33" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C34" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D34" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C35" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D35" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C36" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D36" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C37" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D37" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C38" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D38" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C39" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D39" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C40" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D40" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C41" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D41" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C42" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D42" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C43" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D43" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C44" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D44" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C45" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D45" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C46" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D46" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C47" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D47" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C48" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D48" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C49" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D49" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C50" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D50" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C51" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D51" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C52" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D52" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C53" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D53" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C54" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D54" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C55" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D55" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C56" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D56" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C57" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D57" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C58" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D58" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C59" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D59" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C60" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D60" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C61" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D61" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C62" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D62" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C63" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D63" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C64" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D64" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C65" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D65" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C66" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D66" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C67" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D67" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C68" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D68" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C69" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D69" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C70" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D70" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C71" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D71" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C72" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D72" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C73" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D73" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C74" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D74" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C75" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D75" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C76" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D76" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C77" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D77" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C78" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D78" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C79" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D79" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C80" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D80" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C81" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D81" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C82" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D82" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C83" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D83" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C84" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D84" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C85" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D85" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C86" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D86" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C87" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D87" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C88" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D88" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C89" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D89" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C90" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D90" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C91" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D91" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C92" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D92" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C93" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D93" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C94" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D94" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C95" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D95" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C96" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D96" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C97" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D97" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C98" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D98" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C99" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D99" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C100" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D100" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C101" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D101" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C102" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D102" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C103" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D103" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C104" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D104" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C105" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D105" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C106" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D106" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C107" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D107" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C108" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D108" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C109" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D109" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C110" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D110" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C111" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D111" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C112" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D112" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C113" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D113" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C114" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D114" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C115" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D115" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C116" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D116" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C117" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D117" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C118" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D118" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C119" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D119" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C120" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D120" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C121" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D121" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C122" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D122" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C123" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D123" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C124" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D124" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C125" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D125" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C126" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D126" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C127" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D127" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C128" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D128" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C129" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D129" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C130" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D130" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C131" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D131" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C132" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D132" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C133" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D133" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C134" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D134" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C135" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D135" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C136" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D136" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C137" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D137" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C138" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D138" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C139" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D139" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C140" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D140" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C141" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D141" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C142" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D142" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C143" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D143" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C144" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D144" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C145" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D145" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C146" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D146" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C147" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D147" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C148" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D148" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C149" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D149" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C150" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D150" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C151" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D151" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C152" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D152" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C153" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D153" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C154" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D154" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C155" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D155" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C156" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D156" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C157" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D157" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C158" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D158" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C159" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D159" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C160" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D160" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C161" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D161" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C162" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D162" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C163" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D163" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C164" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D164" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C165" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D165" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C166" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D166" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C167" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D167" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C168" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D168" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C169" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D169" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C170" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D170" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C171" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D171" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C172" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D172" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C173" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D173" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C174" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D174" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C175" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D175" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C176" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D176" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C177" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D177" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C178" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D178" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C179" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D179" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C180" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D180" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C181" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D181" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C182" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D182" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C183" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D183" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C184" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D184" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C185" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D185" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C186" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D186" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C187" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D187" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C188" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D188" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C189" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D189" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C190" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D190" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C191" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D191" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C192" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D192" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C193" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D193" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C194" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D194" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C195" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D195" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C196" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D196" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C197" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D197" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C198" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D198" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C199" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D199" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C200" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D200" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C201" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D201" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C202" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D202" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C203" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D203" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C204" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D204" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C205" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D205" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C206" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D206" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C207" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D207" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C208" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D208" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C209" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D209" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C210" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D210" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C211" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D211" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C212" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D212" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C213" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D213" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C214" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D214" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C215" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D215" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C216" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D216" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C217" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D217" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C218" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D218" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C219" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D219" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C220" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D220" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C221" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D221" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C222" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D222" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C223" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D223" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C224" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D224" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C225" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D225" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C226" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D226" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C227" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D227" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C228" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D228" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C229" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D229" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C230" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D230" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C231" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D231" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C232" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D232" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C233" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D233" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C234" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D234" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C235" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D235" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C236" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D236" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C237" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D237" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C238" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D238" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C239" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D239" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C240" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D240" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C241" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D241" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C242" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D242" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C243" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D243" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C244" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D244" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C245" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D245" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C246" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D246" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C247" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D247" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C248" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D248" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C249" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D249" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C250" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D250" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C251" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D251" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C252" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D252" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C253" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D253" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C254" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D254" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C255" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D255" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C256" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D256" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C257" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D257" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C258" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D258" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C259" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D259" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C260" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D260" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C261" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D261" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C262" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D262" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C263" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D263" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C264" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D264" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C265" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D265" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C266" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D266" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C267" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D267" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C268" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D268" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C269" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D269" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C270" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D270" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C271" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D271" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C272" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D272" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C273" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D273" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C274" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D274" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C275" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D275" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C276" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D276" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C277" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D277" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C278" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D278" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C279" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D279" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C280" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D280" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C281" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D281" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C282" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D282" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C283" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D283" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C284" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D284" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C285" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D285" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C286" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D286" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C287" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D287" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C288" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D288" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C289" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D289" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C290" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D290" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C291" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D291" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C292" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D292" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C293" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D293" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C294" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D294" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C295" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D295" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C296" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D296" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C297" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D297" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C298" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D298" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C299" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D299" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C300" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D300" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C301" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D301" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C302" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D302" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C303" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D303" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C304" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D304" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C305" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D305" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C306" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D306" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C307" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D307" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C308" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D308" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C309" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D309" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C310" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D310" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C311" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D311" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C312" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D312" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C313" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D313" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C314" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D314" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C315" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D315" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C316" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D316" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C317" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D317" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C318" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D318" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C319" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D319" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C320" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D320" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C321" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D321" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C322" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D322" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C323" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D323" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C324" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D324" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C325" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D325" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C326" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D326" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C327" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D327" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C328" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D328" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C329" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D329" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C330" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D330" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C331" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D331" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C332" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D332" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C333" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D333" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C334" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D334" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C335" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D335" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C336" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D336" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
         <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C337" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D337" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C338" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D338" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C339" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D339" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
         <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C340" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D340" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>343</v>
       </c>
       <c r="B341" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C341" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D341" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>344</v>
       </c>
       <c r="B342" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C342" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D342" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4">
       <c r="A343" t="s">
         <v>345</v>
       </c>
       <c r="B343" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C343" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D343" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>346</v>
       </c>
       <c r="B344" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C344" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D344" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4">
       <c r="A345" t="s">
         <v>347</v>
       </c>
       <c r="B345" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C345" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D345" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4">
       <c r="A346" t="s">
         <v>348</v>
       </c>
       <c r="B346" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C346" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D346" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4">
       <c r="A347" t="s">
         <v>349</v>
       </c>
       <c r="B347" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C347" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D347" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4">
       <c r="A348" t="s">
         <v>350</v>
       </c>
       <c r="B348" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C348" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D348" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4">
       <c r="A349" t="s">
         <v>351</v>
       </c>
       <c r="B349" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C349" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D349" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
         <v>352</v>
       </c>
       <c r="B350" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C350" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D350" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4">
       <c r="A351" t="s">
         <v>353</v>
       </c>
       <c r="B351" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C351" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D351" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
         <v>354</v>
       </c>
       <c r="B352" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C352" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D352" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4">
       <c r="A353" t="s">
         <v>355</v>
       </c>
       <c r="B353" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C353" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D353" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4">
       <c r="A354" t="s">
         <v>356</v>
       </c>
       <c r="B354" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C354" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D354" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4">
       <c r="A355" t="s">
         <v>357</v>
       </c>
       <c r="B355" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C355" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D355" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4">
       <c r="A356" t="s">
         <v>358</v>
       </c>
       <c r="B356" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C356" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D356" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4">
       <c r="A357" t="s">
         <v>359</v>
       </c>
       <c r="B357" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C357" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D357" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4">
       <c r="A358" t="s">
         <v>360</v>
       </c>
       <c r="B358" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C358" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D358" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4">
       <c r="A359" t="s">
         <v>361</v>
       </c>
       <c r="B359" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C359" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D359" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4">
       <c r="A360" t="s">
         <v>362</v>
       </c>
       <c r="B360" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C360" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D360" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4">
       <c r="A361" t="s">
         <v>363</v>
       </c>
       <c r="B361" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C361" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D361" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4">
       <c r="A362" t="s">
         <v>364</v>
       </c>
       <c r="B362" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C362" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D362" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4">
       <c r="A363" t="s">
         <v>365</v>
       </c>
       <c r="B363" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C363" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D363" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4">
       <c r="A364" t="s">
         <v>366</v>
       </c>
       <c r="B364" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C364" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D364" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4">
       <c r="A365" t="s">
         <v>367</v>
       </c>
       <c r="B365" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C365" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D365" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4">
       <c r="A366" t="s">
         <v>368</v>
       </c>
       <c r="B366" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C366" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D366" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4">
       <c r="A367" t="s">
         <v>369</v>
       </c>
       <c r="B367" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C367" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D367" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4">
       <c r="A368" t="s">
         <v>370</v>
       </c>
       <c r="B368" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C368" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D368" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4">
       <c r="A369" t="s">
         <v>371</v>
       </c>
       <c r="B369" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C369" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D369" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4">
       <c r="A370" t="s">
         <v>372</v>
       </c>
       <c r="B370" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C370" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D370" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4">
       <c r="A371" t="s">
         <v>373</v>
       </c>
       <c r="B371" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C371" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D371" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4">
       <c r="A372" t="s">
         <v>374</v>
       </c>
       <c r="B372" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C372" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D372" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4">
       <c r="A373" t="s">
         <v>375</v>
       </c>
       <c r="B373" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C373" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D373" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4">
       <c r="A374" t="s">
         <v>376</v>
       </c>
       <c r="B374" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C374" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D374" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4">
       <c r="A375" t="s">
         <v>377</v>
       </c>
       <c r="B375" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C375" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D375" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4">
       <c r="A376" t="s">
         <v>378</v>
       </c>
       <c r="B376" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C376" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D376" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4">
       <c r="A377" t="s">
         <v>379</v>
       </c>
       <c r="B377" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C377" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D377" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4">
       <c r="A378" t="s">
         <v>380</v>
       </c>
       <c r="B378" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C378" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D378" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4">
       <c r="A379" t="s">
         <v>381</v>
       </c>
       <c r="B379" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C379" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D379" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4">
       <c r="A380" t="s">
         <v>382</v>
       </c>
       <c r="B380" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C380" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D380" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4">
       <c r="A381" t="s">
         <v>383</v>
       </c>
       <c r="B381" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C381" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D381" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4">
       <c r="A382" t="s">
         <v>384</v>
       </c>
       <c r="B382" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C382" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D382" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4">
       <c r="A383" t="s">
         <v>385</v>
       </c>
       <c r="B383" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C383" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D383" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4">
       <c r="A384" t="s">
         <v>386</v>
       </c>
       <c r="B384" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C384" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D384" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4">
       <c r="A385" t="s">
         <v>387</v>
       </c>
       <c r="B385" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C385" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D385" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4">
       <c r="A386" t="s">
         <v>388</v>
       </c>
       <c r="B386" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C386" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D386" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4">
       <c r="A387" t="s">
         <v>389</v>
       </c>
       <c r="B387" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C387" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D387" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4">
       <c r="A388" t="s">
         <v>390</v>
       </c>
       <c r="B388" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C388" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D388" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4">
       <c r="A389" t="s">
         <v>391</v>
       </c>
       <c r="B389" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C389" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D389" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4">
       <c r="A390" t="s">
         <v>392</v>
       </c>
       <c r="B390" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C390" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D390" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4">
       <c r="A391" t="s">
         <v>393</v>
       </c>
       <c r="B391" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C391" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D391" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
         <v>394</v>
       </c>
       <c r="B392" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C392" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D392" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4">
       <c r="A393" t="s">
         <v>395</v>
       </c>
       <c r="B393" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C393" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D393" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4">
       <c r="A394" t="s">
         <v>396</v>
       </c>
       <c r="B394" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C394" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D394" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
         <v>397</v>
       </c>
       <c r="B395" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C395" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D395" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
         <v>398</v>
       </c>
       <c r="B396" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C396" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D396" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4">
       <c r="A397" t="s">
         <v>399</v>
       </c>
       <c r="B397" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C397" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D397" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4">
       <c r="A398" t="s">
         <v>400</v>
       </c>
       <c r="B398" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C398" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D398" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4">
       <c r="A399" t="s">
         <v>401</v>
       </c>
       <c r="B399" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C399" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D399" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4">
       <c r="A400" t="s">
         <v>402</v>
       </c>
       <c r="B400" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C400" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D400" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4">
       <c r="A401" t="s">
         <v>403</v>
       </c>
       <c r="B401" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C401" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D401" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4">
       <c r="A402" t="s">
         <v>404</v>
       </c>
       <c r="B402" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C402" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D402" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4">
       <c r="A403" t="s">
         <v>405</v>
       </c>
       <c r="B403" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C403" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D403" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4">
       <c r="A404" t="s">
         <v>406</v>
       </c>
       <c r="B404" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C404" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D404" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4">
       <c r="A405" t="s">
         <v>407</v>
       </c>
       <c r="B405" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C405" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D405" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4">
       <c r="A406" t="s">
         <v>408</v>
       </c>
       <c r="B406" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C406" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D406" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4">
       <c r="A407" t="s">
         <v>409</v>
       </c>
       <c r="B407" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C407" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D407" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4">
       <c r="A408" t="s">
         <v>410</v>
       </c>
       <c r="B408" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C408" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D408" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4">
       <c r="A409" t="s">
         <v>411</v>
       </c>
       <c r="B409" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C409" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D409" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4">
       <c r="A410" t="s">
         <v>412</v>
       </c>
       <c r="B410" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C410" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D410" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4">
       <c r="A411" t="s">
         <v>413</v>
       </c>
       <c r="B411" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C411" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D411" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4">
       <c r="A412" t="s">
         <v>414</v>
       </c>
       <c r="B412" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C412" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D412" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4">
       <c r="A413" t="s">
         <v>415</v>
       </c>
       <c r="B413" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C413" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D413" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4">
       <c r="A414" t="s">
         <v>416</v>
       </c>
       <c r="B414" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C414" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D414" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4">
       <c r="A415" t="s">
         <v>417</v>
       </c>
       <c r="B415" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C415" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D415" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4">
       <c r="A416" t="s">
         <v>418</v>
       </c>
       <c r="B416" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C416" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D416" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4">
       <c r="A417" t="s">
         <v>419</v>
       </c>
       <c r="B417" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C417" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D417" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4">
       <c r="A418" t="s">
         <v>420</v>
       </c>
       <c r="B418" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C418" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D418" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4">
       <c r="A419" t="s">
         <v>421</v>
       </c>
       <c r="B419" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C419" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D419" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4">
       <c r="A420" t="s">
         <v>422</v>
       </c>
       <c r="B420" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C420" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D420" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4">
       <c r="A421" t="s">
         <v>423</v>
       </c>
       <c r="B421" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C421" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D421" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
       <c r="A422" t="s">
         <v>424</v>
       </c>
       <c r="B422" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C422" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D422" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
       <c r="A423" t="s">
         <v>425</v>
       </c>
       <c r="B423" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C423" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D423" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
       <c r="A424" t="s">
         <v>426</v>
       </c>
       <c r="B424" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C424" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D424" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" t="s">
+        <v>427</v>
+      </c>
+      <c r="B425" t="s">
         <v>730</v>
+      </c>
+      <c r="C425" t="s">
+        <v>731</v>
+      </c>
+      <c r="D425" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" t="s">
+        <v>428</v>
+      </c>
+      <c r="B426" t="s">
+        <v>673</v>
+      </c>
+      <c r="C426" t="s">
+        <v>731</v>
+      </c>
+      <c r="D426" t="s">
+        <v>734</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_bricks.xlsx
+++ b/mapping/map_ibs_bricks.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CD9A60-914B-445F-BA14-D04726D1F514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bricks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="731">
   <si>
     <t>dist_brickcode</t>
   </si>
@@ -1297,12 +1303,6 @@
     <t xml:space="preserve">BANI SUEF EHNASIA                       </t>
   </si>
   <si>
-    <t xml:space="preserve">MENOFIA III SANTARIS                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">نقاده               </t>
-  </si>
-  <si>
     <t>Nasr City</t>
   </si>
   <si>
@@ -2206,9 +2206,6 @@
     <t>Ehnasia</t>
   </si>
   <si>
-    <t>Sentrees</t>
-  </si>
-  <si>
     <t>Mustafa Muhammed</t>
   </si>
   <si>
@@ -2216,19 +2213,16 @@
   </si>
   <si>
     <t>2025-10-06 12:52:56</t>
-  </si>
-  <si>
-    <t>2025-10-06 12:57:46</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2292,13 +2286,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2336,7 +2338,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2370,6 +2372,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2404,9 +2407,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2579,14 +2583,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D426"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D424"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="I424" sqref="I424"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2600,5954 +2606,5926 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D2" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D3" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C4" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D4" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C5" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D5" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C6" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D6" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D7" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C8" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D8" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C9" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D9" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C10" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D10" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C11" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D11" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C12" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D12" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C13" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D13" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C14" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D14" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C15" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D15" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C16" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D16" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C17" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D17" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C18" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D18" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C19" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D19" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C20" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D20" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C21" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D21" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C22" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D22" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C23" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D23" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C24" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D24" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C25" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D25" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C26" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D26" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C27" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D27" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C28" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D28" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C29" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D29" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C30" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D30" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C31" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D31" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C32" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D32" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C33" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D33" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C34" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D34" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C35" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D35" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C36" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D36" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C37" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D37" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C38" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D38" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C39" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D39" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C40" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D40" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C41" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D41" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C42" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D42" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C43" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D43" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C44" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D44" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C45" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D45" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C46" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D46" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C47" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D47" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C48" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D48" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C49" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D49" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C50" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D50" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C51" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D51" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C52" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D52" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C53" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D53" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C54" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D54" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C55" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D55" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C56" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D56" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C57" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D57" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C58" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D58" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C59" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D59" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C60" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D60" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C61" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D61" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C62" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D62" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C63" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D63" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C64" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D64" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C65" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D65" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C66" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D66" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C67" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D67" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C68" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D68" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C69" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D69" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C70" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D70" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C71" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D71" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C72" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D72" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C73" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D73" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C74" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D74" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C75" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D75" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C76" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D76" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C77" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D77" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C78" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D78" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C79" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D79" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C80" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D80" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C81" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D81" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C82" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D82" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C83" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D83" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C84" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D84" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C85" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D85" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C86" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D86" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C87" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D87" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C88" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D88" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C89" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D89" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C90" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D90" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C91" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D91" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C92" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D92" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C93" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D93" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C94" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D94" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C95" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D95" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C96" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D96" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C97" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D97" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C98" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D98" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C99" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D99" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C100" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D100" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C101" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D101" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C102" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D102" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C103" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D103" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C104" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D104" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C105" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D105" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C106" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D106" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C107" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D107" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C108" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D108" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C109" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D109" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C110" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D110" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C111" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D111" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C112" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D112" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C113" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D113" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C114" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D114" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C115" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D115" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C116" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D116" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C117" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D117" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C118" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D118" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C119" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D119" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C120" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D120" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C121" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D121" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C122" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D122" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C123" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D123" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C124" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D124" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C125" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D125" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C126" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D126" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C127" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D127" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C128" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D128" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C129" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D129" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C130" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D130" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C131" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D131" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C132" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D132" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C133" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D133" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C134" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D134" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C135" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D135" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C136" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D136" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C137" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D137" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C138" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D138" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C139" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D139" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C140" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D140" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C141" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D141" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C142" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D142" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C143" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D143" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C144" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D144" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C145" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D145" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C146" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D146" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C147" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D147" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C148" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D148" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C149" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D149" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C150" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D150" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C151" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D151" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C152" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D152" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C153" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D153" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C154" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D154" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C155" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D155" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C156" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D156" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C157" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D157" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C158" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D158" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C159" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D159" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C160" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D160" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C161" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D161" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C162" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D162" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C163" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D163" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C164" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D164" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C165" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D165" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C166" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D166" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C167" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D167" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C168" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D168" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C169" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D169" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C170" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D170" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C171" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D171" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C172" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D172" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C173" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D173" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C174" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D174" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C175" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D175" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C176" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D176" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C177" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D177" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C178" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D178" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C179" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D179" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C180" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D180" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C181" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D181" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C182" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D182" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C183" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D183" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C184" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D184" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C185" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D185" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C186" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D186" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C187" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D187" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C188" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D188" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C189" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D189" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C190" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D190" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C191" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D191" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C192" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D192" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C193" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D193" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C194" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D194" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C195" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D195" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C196" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D196" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C197" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D197" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C198" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D198" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C199" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D199" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C200" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D200" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C201" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D201" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C202" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D202" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C203" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D203" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C204" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D204" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C205" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D205" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C206" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D206" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C207" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D207" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C208" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D208" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C209" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D209" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C210" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D210" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C211" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D211" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C212" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D212" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C213" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D213" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C214" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D214" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C215" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D215" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C216" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D216" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C217" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D217" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C218" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D218" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C219" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D219" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C220" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D220" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C221" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D221" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C222" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D222" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C223" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D223" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C224" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D224" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C225" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D225" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C226" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D226" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C227" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D227" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C228" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D228" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C229" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D229" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C230" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D230" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C231" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D231" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C232" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D232" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C233" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D233" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C234" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D234" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C235" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D235" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C236" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D236" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C237" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D237" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C238" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D238" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C239" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D239" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C240" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D240" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C241" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D241" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C242" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D242" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C243" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D243" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C244" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D244" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C245" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D245" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C246" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D246" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C247" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D247" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C248" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D248" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C249" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D249" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C250" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D250" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C251" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D251" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C252" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D252" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C253" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D253" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C254" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D254" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C255" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D255" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C256" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D256" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C257" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D257" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C258" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D258" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C259" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D259" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C260" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D260" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C261" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D261" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C262" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D262" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C263" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D263" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C264" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D264" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C265" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D265" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C266" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D266" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C267" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D267" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C268" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D268" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C269" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D269" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C270" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D270" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C271" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D271" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C272" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D272" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C273" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D273" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C274" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D274" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C275" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D275" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C276" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D276" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C277" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D277" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C278" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D278" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C279" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D279" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C280" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D280" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C281" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D281" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C282" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D282" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C283" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D283" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C284" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D284" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C285" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D285" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C286" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D286" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C287" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D287" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C288" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D288" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C289" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D289" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C290" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D290" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C291" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D291" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C292" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D292" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C293" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D293" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C294" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D294" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C295" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D295" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C296" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D296" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C297" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D297" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C298" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D298" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C299" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D299" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C300" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D300" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C301" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D301" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C302" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D302" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C303" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D303" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C304" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D304" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C305" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D305" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C306" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D306" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C307" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D307" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C308" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D308" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C309" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D309" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C310" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D310" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C311" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D311" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C312" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D312" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C313" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D313" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C314" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D314" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C315" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D315" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C316" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D316" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C317" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D317" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C318" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D318" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C319" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D319" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C320" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D320" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C321" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D321" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C322" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D322" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C323" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D323" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C324" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D324" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C325" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D325" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C326" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D326" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C327" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D327" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C328" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D328" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C329" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D329" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C330" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D330" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C331" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D331" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C332" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D332" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C333" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D333" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C334" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D334" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C335" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D335" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C336" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D336" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C337" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D337" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C338" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D338" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C339" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D339" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C340" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D340" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>343</v>
       </c>
       <c r="B341" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C341" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D341" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>344</v>
       </c>
       <c r="B342" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C342" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D342" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>345</v>
       </c>
       <c r="B343" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C343" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D343" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>346</v>
       </c>
       <c r="B344" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C344" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D344" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>347</v>
       </c>
       <c r="B345" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C345" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D345" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>348</v>
       </c>
       <c r="B346" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C346" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D346" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>349</v>
       </c>
       <c r="B347" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C347" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D347" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>350</v>
       </c>
       <c r="B348" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C348" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D348" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>351</v>
       </c>
       <c r="B349" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C349" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D349" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>352</v>
       </c>
       <c r="B350" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C350" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D350" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>353</v>
       </c>
       <c r="B351" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C351" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D351" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>354</v>
       </c>
       <c r="B352" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C352" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D352" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>355</v>
       </c>
       <c r="B353" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C353" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D353" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>356</v>
       </c>
       <c r="B354" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C354" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D354" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>357</v>
       </c>
       <c r="B355" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C355" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D355" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>358</v>
       </c>
       <c r="B356" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C356" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D356" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>359</v>
       </c>
       <c r="B357" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C357" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D357" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>360</v>
       </c>
       <c r="B358" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C358" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D358" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>361</v>
       </c>
       <c r="B359" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C359" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D359" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>362</v>
       </c>
       <c r="B360" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C360" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D360" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>363</v>
       </c>
       <c r="B361" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C361" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D361" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>364</v>
       </c>
       <c r="B362" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C362" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D362" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>365</v>
       </c>
       <c r="B363" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C363" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D363" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>366</v>
       </c>
       <c r="B364" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C364" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D364" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>367</v>
       </c>
       <c r="B365" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C365" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D365" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>368</v>
       </c>
       <c r="B366" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C366" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D366" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>369</v>
       </c>
       <c r="B367" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C367" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D367" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>370</v>
       </c>
       <c r="B368" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C368" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D368" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>371</v>
       </c>
       <c r="B369" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C369" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D369" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>372</v>
       </c>
       <c r="B370" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C370" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D370" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>373</v>
       </c>
       <c r="B371" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C371" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D371" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>374</v>
       </c>
       <c r="B372" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C372" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D372" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>375</v>
       </c>
       <c r="B373" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C373" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D373" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>376</v>
       </c>
       <c r="B374" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C374" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D374" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>377</v>
       </c>
       <c r="B375" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C375" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D375" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>378</v>
       </c>
       <c r="B376" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C376" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D376" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>379</v>
       </c>
       <c r="B377" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C377" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D377" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>380</v>
       </c>
       <c r="B378" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C378" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D378" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>381</v>
       </c>
       <c r="B379" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C379" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D379" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>382</v>
       </c>
       <c r="B380" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C380" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D380" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>383</v>
       </c>
       <c r="B381" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C381" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D381" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>384</v>
       </c>
       <c r="B382" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C382" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D382" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>385</v>
       </c>
       <c r="B383" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C383" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D383" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>386</v>
       </c>
       <c r="B384" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C384" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D384" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>387</v>
       </c>
       <c r="B385" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C385" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D385" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>388</v>
       </c>
       <c r="B386" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C386" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D386" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>389</v>
       </c>
       <c r="B387" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C387" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D387" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>390</v>
       </c>
       <c r="B388" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C388" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D388" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>391</v>
       </c>
       <c r="B389" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C389" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D389" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>392</v>
       </c>
       <c r="B390" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C390" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D390" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>393</v>
       </c>
       <c r="B391" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C391" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D391" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>394</v>
       </c>
       <c r="B392" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C392" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D392" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>395</v>
       </c>
       <c r="B393" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C393" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D393" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>396</v>
       </c>
       <c r="B394" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C394" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D394" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>397</v>
       </c>
       <c r="B395" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C395" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D395" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>398</v>
       </c>
       <c r="B396" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C396" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D396" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>399</v>
       </c>
       <c r="B397" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C397" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D397" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>400</v>
       </c>
       <c r="B398" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C398" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D398" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>401</v>
       </c>
       <c r="B399" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C399" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D399" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>402</v>
       </c>
       <c r="B400" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C400" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D400" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>403</v>
       </c>
       <c r="B401" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C401" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D401" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>404</v>
       </c>
       <c r="B402" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C402" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D402" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>405</v>
       </c>
       <c r="B403" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C403" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D403" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>406</v>
       </c>
       <c r="B404" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C404" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D404" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>407</v>
       </c>
       <c r="B405" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C405" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D405" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>408</v>
       </c>
       <c r="B406" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C406" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D406" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>409</v>
       </c>
       <c r="B407" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C407" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D407" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>410</v>
       </c>
       <c r="B408" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C408" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D408" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>411</v>
       </c>
       <c r="B409" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C409" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D409" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>412</v>
       </c>
       <c r="B410" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C410" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D410" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>413</v>
       </c>
       <c r="B411" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C411" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D411" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>414</v>
       </c>
       <c r="B412" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C412" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D412" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>415</v>
       </c>
       <c r="B413" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C413" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D413" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>416</v>
       </c>
       <c r="B414" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C414" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D414" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>417</v>
       </c>
       <c r="B415" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C415" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D415" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>418</v>
       </c>
       <c r="B416" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C416" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D416" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>419</v>
       </c>
       <c r="B417" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C417" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D417" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>420</v>
       </c>
       <c r="B418" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C418" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D418" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>421</v>
       </c>
       <c r="B419" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C419" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D419" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>422</v>
       </c>
       <c r="B420" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C420" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D420" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>423</v>
       </c>
       <c r="B421" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C421" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D421" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>424</v>
       </c>
       <c r="B422" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C422" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D422" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>425</v>
       </c>
       <c r="B423" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C423" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D423" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>426</v>
       </c>
       <c r="B424" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C424" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D424" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
-      <c r="A425" t="s">
-        <v>427</v>
-      </c>
-      <c r="B425" t="s">
         <v>730</v>
-      </c>
-      <c r="C425" t="s">
-        <v>731</v>
-      </c>
-      <c r="D425" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4">
-      <c r="A426" t="s">
-        <v>428</v>
-      </c>
-      <c r="B426" t="s">
-        <v>673</v>
-      </c>
-      <c r="C426" t="s">
-        <v>731</v>
-      </c>
-      <c r="D426" t="s">
-        <v>734</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_bricks.xlsx
+++ b/mapping/map_ibs_bricks.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CD9A60-914B-445F-BA14-D04726D1F514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="bricks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="735">
   <si>
     <t>dist_brickcode</t>
   </si>
@@ -1303,6 +1297,12 @@
     <t xml:space="preserve">BANI SUEF EHNASIA                       </t>
   </si>
   <si>
+    <t xml:space="preserve">MENOFIA III SANTARIS                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقاده               </t>
+  </si>
+  <si>
     <t>Nasr City</t>
   </si>
   <si>
@@ -2206,6 +2206,9 @@
     <t>Ehnasia</t>
   </si>
   <si>
+    <t>Sentrees</t>
+  </si>
+  <si>
     <t>Mustafa Muhammed</t>
   </si>
   <si>
@@ -2213,16 +2216,19 @@
   </si>
   <si>
     <t>2025-10-06 12:52:56</t>
+  </si>
+  <si>
+    <t>2025-10-06 12:59:55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2286,21 +2292,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2338,7 +2336,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2372,7 +2370,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2407,10 +2404,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2583,16 +2579,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D424"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="I424" sqref="I424"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2606,5926 +2600,5954 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C2" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D2" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D3" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C4" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D4" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C5" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D5" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C6" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D6" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C7" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D7" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C8" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D8" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C9" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D9" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C10" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D10" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C11" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D11" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C12" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D12" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C13" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D13" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C14" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D14" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C15" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D15" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C16" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D16" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C17" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D17" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C18" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D18" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C19" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D19" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C20" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D20" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C21" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D21" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C22" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D22" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C23" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D23" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C24" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D24" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C25" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D25" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C26" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D26" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C27" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D27" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C28" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D28" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C29" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D29" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C30" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D30" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C31" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D31" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C32" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D32" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C33" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D33" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C34" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D34" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C35" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D35" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C36" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D36" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C37" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D37" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C38" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D38" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C39" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D39" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C40" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D40" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C41" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D41" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C42" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D42" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C43" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D43" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C44" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D44" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C45" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D45" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C46" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D46" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C47" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D47" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C48" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D48" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C49" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D49" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C50" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D50" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C51" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D51" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C52" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D52" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C53" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D53" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C54" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D54" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C55" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D55" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C56" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D56" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C57" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D57" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C58" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D58" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C59" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D59" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C60" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D60" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C61" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D61" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C62" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D62" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C63" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D63" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C64" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D64" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C65" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D65" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C66" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D66" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C67" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D67" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C68" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D68" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C69" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D69" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C70" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D70" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C71" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D71" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C72" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D72" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C73" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D73" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C74" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D74" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C75" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D75" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C76" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D76" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C77" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D77" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C78" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D78" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C79" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D79" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C80" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D80" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C81" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D81" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C82" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D82" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C83" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D83" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C84" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D84" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C85" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D85" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C86" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D86" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C87" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D87" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C88" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D88" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C89" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D89" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C90" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D90" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C91" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D91" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C92" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D92" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C93" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D93" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C94" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D94" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C95" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D95" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C96" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D96" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C97" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D97" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C98" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D98" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C99" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D99" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C100" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D100" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C101" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D101" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C102" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D102" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C103" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D103" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C104" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D104" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C105" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D105" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C106" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D106" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C107" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D107" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C108" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D108" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C109" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D109" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C110" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D110" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C111" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D111" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C112" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D112" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C113" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D113" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C114" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D114" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C115" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D115" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C116" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D116" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C117" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D117" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C118" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D118" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C119" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D119" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C120" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D120" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C121" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D121" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C122" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D122" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C123" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D123" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C124" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D124" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C125" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D125" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C126" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D126" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C127" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D127" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C128" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D128" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C129" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D129" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C130" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D130" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C131" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D131" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C132" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D132" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C133" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D133" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C134" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D134" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C135" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D135" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C136" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D136" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C137" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D137" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C138" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D138" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C139" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D139" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C140" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D140" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C141" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D141" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C142" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D142" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C143" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D143" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C144" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D144" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C145" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D145" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C146" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D146" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C147" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D147" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C148" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D148" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C149" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D149" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C150" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D150" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C151" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D151" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C152" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D152" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C153" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D153" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C154" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D154" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C155" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D155" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C156" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D156" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C157" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D157" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C158" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D158" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C159" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D159" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C160" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D160" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C161" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D161" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C162" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D162" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C163" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D163" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C164" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D164" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C165" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D165" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C166" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D166" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C167" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D167" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C168" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D168" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C169" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D169" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C170" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D170" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C171" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D171" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C172" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D172" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C173" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D173" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C174" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D174" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C175" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D175" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C176" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D176" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C177" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D177" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C178" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D178" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C179" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D179" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C180" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D180" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C181" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D181" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C182" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D182" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C183" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D183" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C184" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D184" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C185" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D185" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C186" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D186" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C187" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D187" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C188" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D188" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C189" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D189" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C190" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D190" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C191" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D191" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C192" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D192" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C193" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D193" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C194" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D194" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C195" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D195" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C196" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D196" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C197" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D197" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C198" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D198" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C199" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D199" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C200" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D200" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C201" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D201" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C202" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D202" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C203" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D203" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C204" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D204" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C205" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D205" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C206" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D206" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C207" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D207" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C208" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D208" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C209" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D209" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C210" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D210" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C211" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D211" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C212" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D212" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C213" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D213" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C214" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D214" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C215" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D215" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C216" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D216" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C217" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D217" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C218" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D218" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C219" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D219" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C220" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D220" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C221" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D221" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C222" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D222" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C223" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D223" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C224" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D224" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C225" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D225" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C226" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D226" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C227" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D227" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C228" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D228" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C229" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D229" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C230" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D230" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C231" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D231" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C232" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D232" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C233" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D233" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C234" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D234" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C235" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D235" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C236" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D236" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C237" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D237" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C238" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D238" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C239" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D239" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C240" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D240" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C241" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D241" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C242" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D242" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C243" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D243" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C244" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D244" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C245" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D245" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C246" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D246" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C247" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D247" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C248" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D248" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C249" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D249" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C250" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D250" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C251" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D251" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C252" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D252" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C253" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D253" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C254" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D254" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C255" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D255" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C256" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D256" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C257" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D257" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C258" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D258" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C259" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D259" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C260" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D260" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C261" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D261" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C262" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D262" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C263" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D263" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C264" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D264" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C265" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D265" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C266" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D266" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C267" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D267" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C268" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D268" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C269" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D269" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C270" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D270" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C271" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D271" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C272" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D272" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C273" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D273" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C274" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D274" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C275" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D275" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C276" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D276" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C277" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D277" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C278" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D278" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C279" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D279" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C280" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D280" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C281" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D281" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C282" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D282" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C283" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D283" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C284" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D284" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C285" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D285" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C286" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D286" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C287" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D287" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C288" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D288" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C289" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D289" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C290" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D290" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C291" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D291" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C292" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D292" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C293" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D293" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C294" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D294" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C295" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D295" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C296" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D296" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C297" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D297" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C298" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D298" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C299" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D299" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C300" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D300" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C301" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D301" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C302" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D302" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C303" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D303" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C304" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D304" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C305" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D305" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C306" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D306" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C307" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D307" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C308" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D308" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C309" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D309" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C310" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D310" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C311" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D311" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C312" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D312" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C313" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D313" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C314" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D314" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C315" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D315" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C316" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D316" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C317" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D317" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C318" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D318" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C319" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D319" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C320" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D320" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C321" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D321" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C322" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D322" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C323" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D323" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C324" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D324" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C325" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D325" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C326" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D326" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C327" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D327" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C328" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D328" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C329" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D329" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C330" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D330" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C331" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D331" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C332" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D332" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C333" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D333" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C334" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D334" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C335" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D335" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C336" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D336" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
         <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C337" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D337" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C338" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D338" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C339" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D339" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
         <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C340" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D340" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>343</v>
       </c>
       <c r="B341" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C341" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D341" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>344</v>
       </c>
       <c r="B342" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C342" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D342" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4">
       <c r="A343" t="s">
         <v>345</v>
       </c>
       <c r="B343" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C343" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D343" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>346</v>
       </c>
       <c r="B344" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C344" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D344" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4">
       <c r="A345" t="s">
         <v>347</v>
       </c>
       <c r="B345" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C345" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D345" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4">
       <c r="A346" t="s">
         <v>348</v>
       </c>
       <c r="B346" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C346" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D346" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4">
       <c r="A347" t="s">
         <v>349</v>
       </c>
       <c r="B347" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C347" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D347" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4">
       <c r="A348" t="s">
         <v>350</v>
       </c>
       <c r="B348" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C348" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D348" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4">
       <c r="A349" t="s">
         <v>351</v>
       </c>
       <c r="B349" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C349" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D349" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
         <v>352</v>
       </c>
       <c r="B350" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C350" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D350" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4">
       <c r="A351" t="s">
         <v>353</v>
       </c>
       <c r="B351" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C351" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D351" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
         <v>354</v>
       </c>
       <c r="B352" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C352" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D352" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4">
       <c r="A353" t="s">
         <v>355</v>
       </c>
       <c r="B353" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C353" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D353" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4">
       <c r="A354" t="s">
         <v>356</v>
       </c>
       <c r="B354" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C354" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D354" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4">
       <c r="A355" t="s">
         <v>357</v>
       </c>
       <c r="B355" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C355" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D355" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4">
       <c r="A356" t="s">
         <v>358</v>
       </c>
       <c r="B356" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C356" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D356" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4">
       <c r="A357" t="s">
         <v>359</v>
       </c>
       <c r="B357" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C357" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D357" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4">
       <c r="A358" t="s">
         <v>360</v>
       </c>
       <c r="B358" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C358" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D358" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4">
       <c r="A359" t="s">
         <v>361</v>
       </c>
       <c r="B359" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C359" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D359" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4">
       <c r="A360" t="s">
         <v>362</v>
       </c>
       <c r="B360" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C360" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D360" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4">
       <c r="A361" t="s">
         <v>363</v>
       </c>
       <c r="B361" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C361" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D361" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4">
       <c r="A362" t="s">
         <v>364</v>
       </c>
       <c r="B362" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C362" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D362" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4">
       <c r="A363" t="s">
         <v>365</v>
       </c>
       <c r="B363" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C363" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D363" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4">
       <c r="A364" t="s">
         <v>366</v>
       </c>
       <c r="B364" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C364" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D364" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4">
       <c r="A365" t="s">
         <v>367</v>
       </c>
       <c r="B365" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C365" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D365" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4">
       <c r="A366" t="s">
         <v>368</v>
       </c>
       <c r="B366" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C366" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D366" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4">
       <c r="A367" t="s">
         <v>369</v>
       </c>
       <c r="B367" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C367" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D367" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4">
       <c r="A368" t="s">
         <v>370</v>
       </c>
       <c r="B368" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C368" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D368" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4">
       <c r="A369" t="s">
         <v>371</v>
       </c>
       <c r="B369" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C369" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D369" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4">
       <c r="A370" t="s">
         <v>372</v>
       </c>
       <c r="B370" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C370" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D370" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4">
       <c r="A371" t="s">
         <v>373</v>
       </c>
       <c r="B371" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C371" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D371" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4">
       <c r="A372" t="s">
         <v>374</v>
       </c>
       <c r="B372" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C372" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D372" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4">
       <c r="A373" t="s">
         <v>375</v>
       </c>
       <c r="B373" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C373" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D373" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4">
       <c r="A374" t="s">
         <v>376</v>
       </c>
       <c r="B374" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C374" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D374" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4">
       <c r="A375" t="s">
         <v>377</v>
       </c>
       <c r="B375" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C375" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D375" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4">
       <c r="A376" t="s">
         <v>378</v>
       </c>
       <c r="B376" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C376" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D376" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4">
       <c r="A377" t="s">
         <v>379</v>
       </c>
       <c r="B377" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C377" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D377" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4">
       <c r="A378" t="s">
         <v>380</v>
       </c>
       <c r="B378" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C378" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D378" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4">
       <c r="A379" t="s">
         <v>381</v>
       </c>
       <c r="B379" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C379" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D379" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4">
       <c r="A380" t="s">
         <v>382</v>
       </c>
       <c r="B380" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C380" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D380" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4">
       <c r="A381" t="s">
         <v>383</v>
       </c>
       <c r="B381" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C381" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D381" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4">
       <c r="A382" t="s">
         <v>384</v>
       </c>
       <c r="B382" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C382" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D382" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4">
       <c r="A383" t="s">
         <v>385</v>
       </c>
       <c r="B383" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C383" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D383" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4">
       <c r="A384" t="s">
         <v>386</v>
       </c>
       <c r="B384" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C384" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D384" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4">
       <c r="A385" t="s">
         <v>387</v>
       </c>
       <c r="B385" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C385" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D385" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4">
       <c r="A386" t="s">
         <v>388</v>
       </c>
       <c r="B386" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C386" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D386" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4">
       <c r="A387" t="s">
         <v>389</v>
       </c>
       <c r="B387" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C387" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D387" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4">
       <c r="A388" t="s">
         <v>390</v>
       </c>
       <c r="B388" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C388" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D388" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4">
       <c r="A389" t="s">
         <v>391</v>
       </c>
       <c r="B389" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C389" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D389" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4">
       <c r="A390" t="s">
         <v>392</v>
       </c>
       <c r="B390" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C390" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D390" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4">
       <c r="A391" t="s">
         <v>393</v>
       </c>
       <c r="B391" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C391" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D391" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
         <v>394</v>
       </c>
       <c r="B392" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C392" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D392" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4">
       <c r="A393" t="s">
         <v>395</v>
       </c>
       <c r="B393" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C393" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D393" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4">
       <c r="A394" t="s">
         <v>396</v>
       </c>
       <c r="B394" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C394" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D394" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
         <v>397</v>
       </c>
       <c r="B395" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C395" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D395" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
         <v>398</v>
       </c>
       <c r="B396" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C396" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D396" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4">
       <c r="A397" t="s">
         <v>399</v>
       </c>
       <c r="B397" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C397" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D397" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4">
       <c r="A398" t="s">
         <v>400</v>
       </c>
       <c r="B398" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C398" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D398" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4">
       <c r="A399" t="s">
         <v>401</v>
       </c>
       <c r="B399" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C399" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D399" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4">
       <c r="A400" t="s">
         <v>402</v>
       </c>
       <c r="B400" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C400" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D400" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4">
       <c r="A401" t="s">
         <v>403</v>
       </c>
       <c r="B401" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C401" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D401" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4">
       <c r="A402" t="s">
         <v>404</v>
       </c>
       <c r="B402" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C402" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D402" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4">
       <c r="A403" t="s">
         <v>405</v>
       </c>
       <c r="B403" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C403" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D403" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4">
       <c r="A404" t="s">
         <v>406</v>
       </c>
       <c r="B404" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C404" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D404" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4">
       <c r="A405" t="s">
         <v>407</v>
       </c>
       <c r="B405" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C405" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D405" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4">
       <c r="A406" t="s">
         <v>408</v>
       </c>
       <c r="B406" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C406" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D406" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4">
       <c r="A407" t="s">
         <v>409</v>
       </c>
       <c r="B407" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C407" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D407" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4">
       <c r="A408" t="s">
         <v>410</v>
       </c>
       <c r="B408" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C408" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D408" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4">
       <c r="A409" t="s">
         <v>411</v>
       </c>
       <c r="B409" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C409" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D409" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4">
       <c r="A410" t="s">
         <v>412</v>
       </c>
       <c r="B410" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C410" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D410" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4">
       <c r="A411" t="s">
         <v>413</v>
       </c>
       <c r="B411" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C411" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D411" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4">
       <c r="A412" t="s">
         <v>414</v>
       </c>
       <c r="B412" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C412" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D412" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4">
       <c r="A413" t="s">
         <v>415</v>
       </c>
       <c r="B413" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C413" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D413" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4">
       <c r="A414" t="s">
         <v>416</v>
       </c>
       <c r="B414" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C414" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D414" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4">
       <c r="A415" t="s">
         <v>417</v>
       </c>
       <c r="B415" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C415" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D415" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4">
       <c r="A416" t="s">
         <v>418</v>
       </c>
       <c r="B416" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C416" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D416" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4">
       <c r="A417" t="s">
         <v>419</v>
       </c>
       <c r="B417" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C417" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D417" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4">
       <c r="A418" t="s">
         <v>420</v>
       </c>
       <c r="B418" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C418" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D418" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4">
       <c r="A419" t="s">
         <v>421</v>
       </c>
       <c r="B419" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C419" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D419" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4">
       <c r="A420" t="s">
         <v>422</v>
       </c>
       <c r="B420" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C420" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D420" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4">
       <c r="A421" t="s">
         <v>423</v>
       </c>
       <c r="B421" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C421" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D421" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
       <c r="A422" t="s">
         <v>424</v>
       </c>
       <c r="B422" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C422" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D422" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
       <c r="A423" t="s">
         <v>425</v>
       </c>
       <c r="B423" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C423" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D423" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
       <c r="A424" t="s">
         <v>426</v>
       </c>
       <c r="B424" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C424" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D424" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" t="s">
+        <v>427</v>
+      </c>
+      <c r="B425" t="s">
         <v>730</v>
+      </c>
+      <c r="C425" t="s">
+        <v>731</v>
+      </c>
+      <c r="D425" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" t="s">
+        <v>428</v>
+      </c>
+      <c r="B426" t="s">
+        <v>673</v>
+      </c>
+      <c r="C426" t="s">
+        <v>731</v>
+      </c>
+      <c r="D426" t="s">
+        <v>734</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_bricks.xlsx
+++ b/mapping/map_ibs_bricks.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F08DF2D-F5B3-410D-B438-0CACAB45EE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bricks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="731">
   <si>
     <t>dist_brickcode</t>
   </si>
@@ -1297,12 +1303,6 @@
     <t xml:space="preserve">BANI SUEF EHNASIA                       </t>
   </si>
   <si>
-    <t xml:space="preserve">MENOFIA III SANTARIS                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">نقاده               </t>
-  </si>
-  <si>
     <t>Nasr City</t>
   </si>
   <si>
@@ -2206,9 +2206,6 @@
     <t>Ehnasia</t>
   </si>
   <si>
-    <t>Sentrees</t>
-  </si>
-  <si>
     <t>Mustafa Muhammed</t>
   </si>
   <si>
@@ -2216,19 +2213,16 @@
   </si>
   <si>
     <t>2025-10-06 12:52:56</t>
-  </si>
-  <si>
-    <t>2025-10-06 12:59:55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2292,13 +2286,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2336,7 +2338,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2370,6 +2372,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2404,9 +2407,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2579,14 +2583,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D426"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D424"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="E428" sqref="E428"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2600,5954 +2606,5926 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D2" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D3" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C4" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D4" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C5" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D5" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C6" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D6" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D7" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C8" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D8" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C9" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D9" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C10" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D10" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C11" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D11" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C12" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D12" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C13" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D13" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C14" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D14" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C15" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D15" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C16" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D16" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C17" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D17" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C18" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D18" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C19" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D19" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C20" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D20" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C21" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D21" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C22" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D22" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C23" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D23" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C24" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D24" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C25" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D25" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C26" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D26" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C27" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D27" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C28" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D28" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C29" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D29" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C30" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D30" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C31" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D31" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C32" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D32" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C33" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D33" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C34" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D34" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C35" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D35" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C36" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D36" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C37" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D37" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C38" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D38" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C39" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D39" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C40" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D40" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C41" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D41" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C42" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D42" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C43" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D43" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C44" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D44" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C45" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D45" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C46" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D46" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C47" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D47" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C48" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D48" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C49" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D49" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C50" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D50" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C51" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D51" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C52" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D52" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C53" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D53" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C54" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D54" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C55" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D55" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C56" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D56" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C57" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D57" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C58" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D58" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C59" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D59" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C60" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D60" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C61" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D61" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C62" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D62" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C63" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D63" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C64" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D64" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C65" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D65" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C66" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D66" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C67" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D67" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C68" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D68" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C69" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D69" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C70" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D70" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C71" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D71" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C72" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D72" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C73" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D73" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C74" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D74" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C75" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D75" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C76" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D76" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C77" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D77" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C78" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D78" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C79" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D79" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C80" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D80" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C81" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D81" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C82" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D82" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C83" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D83" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C84" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D84" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C85" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D85" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C86" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D86" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C87" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D87" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C88" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D88" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C89" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D89" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C90" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D90" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C91" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D91" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C92" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D92" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C93" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D93" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C94" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D94" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C95" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D95" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C96" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D96" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C97" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D97" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C98" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D98" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C99" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D99" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C100" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D100" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C101" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D101" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C102" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D102" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C103" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D103" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C104" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D104" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C105" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D105" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C106" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D106" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C107" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D107" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C108" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D108" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C109" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D109" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C110" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D110" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C111" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D111" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C112" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D112" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C113" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D113" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C114" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D114" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C115" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D115" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C116" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D116" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C117" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D117" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C118" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D118" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C119" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D119" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C120" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D120" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C121" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D121" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C122" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D122" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C123" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D123" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C124" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D124" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C125" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D125" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C126" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D126" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C127" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D127" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C128" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D128" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C129" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D129" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C130" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D130" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C131" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D131" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C132" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D132" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C133" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D133" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C134" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D134" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C135" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D135" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C136" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D136" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C137" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D137" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C138" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D138" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C139" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D139" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C140" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D140" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C141" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D141" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C142" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D142" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C143" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D143" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C144" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D144" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C145" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D145" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C146" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D146" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C147" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D147" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C148" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D148" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C149" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D149" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C150" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D150" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C151" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D151" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C152" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D152" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C153" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D153" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C154" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D154" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C155" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D155" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C156" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D156" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C157" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D157" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C158" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D158" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C159" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D159" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C160" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D160" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C161" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D161" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C162" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D162" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C163" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D163" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C164" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D164" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C165" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D165" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C166" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D166" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C167" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D167" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C168" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D168" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C169" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D169" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C170" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D170" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C171" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D171" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C172" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D172" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C173" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D173" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C174" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D174" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C175" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D175" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C176" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D176" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C177" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D177" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C178" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D178" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C179" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D179" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C180" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D180" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C181" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D181" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C182" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D182" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C183" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D183" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C184" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D184" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C185" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D185" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C186" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D186" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C187" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D187" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C188" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D188" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C189" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D189" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C190" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D190" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C191" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D191" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C192" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D192" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C193" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D193" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C194" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D194" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C195" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D195" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C196" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D196" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C197" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D197" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C198" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D198" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C199" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D199" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C200" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D200" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C201" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D201" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C202" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D202" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C203" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D203" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C204" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D204" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C205" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D205" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C206" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D206" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C207" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D207" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C208" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D208" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C209" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D209" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C210" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D210" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C211" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D211" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C212" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D212" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C213" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D213" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C214" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D214" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C215" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D215" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C216" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D216" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C217" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D217" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C218" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D218" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C219" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D219" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C220" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D220" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C221" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D221" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C222" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D222" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C223" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D223" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C224" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D224" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C225" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D225" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C226" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D226" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C227" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D227" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C228" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D228" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C229" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D229" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C230" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D230" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C231" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D231" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C232" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D232" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C233" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D233" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C234" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D234" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C235" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D235" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C236" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D236" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C237" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D237" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C238" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D238" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C239" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D239" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C240" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D240" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C241" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D241" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C242" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D242" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C243" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D243" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C244" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D244" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C245" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D245" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C246" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D246" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C247" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D247" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C248" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D248" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C249" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D249" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C250" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D250" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C251" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D251" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C252" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D252" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C253" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D253" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C254" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D254" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C255" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D255" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C256" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D256" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C257" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D257" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C258" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D258" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C259" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D259" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C260" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D260" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C261" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D261" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C262" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D262" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C263" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D263" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C264" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D264" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C265" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D265" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C266" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D266" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C267" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D267" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C268" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D268" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C269" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D269" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C270" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D270" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C271" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D271" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C272" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D272" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C273" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D273" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C274" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D274" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C275" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D275" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C276" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D276" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C277" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D277" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C278" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D278" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C279" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D279" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C280" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D280" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C281" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D281" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C282" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D282" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C283" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D283" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C284" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D284" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C285" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D285" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C286" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D286" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C287" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D287" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C288" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D288" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C289" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D289" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C290" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D290" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C291" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D291" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C292" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D292" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C293" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D293" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C294" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D294" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C295" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D295" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C296" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D296" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C297" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D297" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C298" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D298" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C299" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D299" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C300" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D300" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C301" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D301" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C302" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D302" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C303" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D303" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C304" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D304" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C305" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D305" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C306" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D306" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C307" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D307" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C308" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D308" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C309" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D309" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C310" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D310" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C311" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D311" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C312" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D312" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C313" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D313" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C314" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D314" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C315" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D315" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C316" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D316" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C317" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D317" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C318" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D318" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C319" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D319" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C320" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D320" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C321" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D321" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C322" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D322" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C323" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D323" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C324" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D324" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C325" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D325" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C326" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D326" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C327" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D327" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C328" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D328" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C329" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D329" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C330" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D330" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C331" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D331" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C332" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D332" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C333" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D333" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C334" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D334" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C335" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D335" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C336" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D336" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C337" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D337" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C338" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D338" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C339" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D339" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C340" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D340" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>343</v>
       </c>
       <c r="B341" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C341" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D341" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>344</v>
       </c>
       <c r="B342" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C342" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D342" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>345</v>
       </c>
       <c r="B343" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C343" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D343" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>346</v>
       </c>
       <c r="B344" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C344" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D344" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>347</v>
       </c>
       <c r="B345" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C345" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D345" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>348</v>
       </c>
       <c r="B346" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C346" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D346" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>349</v>
       </c>
       <c r="B347" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C347" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D347" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>350</v>
       </c>
       <c r="B348" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C348" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D348" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>351</v>
       </c>
       <c r="B349" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C349" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D349" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>352</v>
       </c>
       <c r="B350" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C350" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D350" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>353</v>
       </c>
       <c r="B351" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C351" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D351" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>354</v>
       </c>
       <c r="B352" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C352" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D352" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>355</v>
       </c>
       <c r="B353" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C353" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D353" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>356</v>
       </c>
       <c r="B354" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C354" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D354" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>357</v>
       </c>
       <c r="B355" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C355" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D355" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>358</v>
       </c>
       <c r="B356" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C356" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D356" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>359</v>
       </c>
       <c r="B357" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C357" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D357" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>360</v>
       </c>
       <c r="B358" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C358" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D358" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>361</v>
       </c>
       <c r="B359" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C359" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D359" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>362</v>
       </c>
       <c r="B360" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C360" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D360" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>363</v>
       </c>
       <c r="B361" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C361" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D361" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>364</v>
       </c>
       <c r="B362" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C362" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D362" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>365</v>
       </c>
       <c r="B363" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C363" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D363" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>366</v>
       </c>
       <c r="B364" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C364" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D364" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>367</v>
       </c>
       <c r="B365" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C365" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D365" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>368</v>
       </c>
       <c r="B366" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C366" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D366" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>369</v>
       </c>
       <c r="B367" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C367" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D367" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>370</v>
       </c>
       <c r="B368" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C368" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D368" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>371</v>
       </c>
       <c r="B369" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C369" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D369" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>372</v>
       </c>
       <c r="B370" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C370" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D370" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>373</v>
       </c>
       <c r="B371" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C371" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D371" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>374</v>
       </c>
       <c r="B372" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C372" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D372" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>375</v>
       </c>
       <c r="B373" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C373" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D373" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>376</v>
       </c>
       <c r="B374" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C374" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D374" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>377</v>
       </c>
       <c r="B375" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C375" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D375" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>378</v>
       </c>
       <c r="B376" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C376" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D376" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>379</v>
       </c>
       <c r="B377" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C377" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D377" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>380</v>
       </c>
       <c r="B378" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C378" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D378" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>381</v>
       </c>
       <c r="B379" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C379" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D379" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>382</v>
       </c>
       <c r="B380" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C380" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D380" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>383</v>
       </c>
       <c r="B381" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C381" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D381" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>384</v>
       </c>
       <c r="B382" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C382" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D382" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>385</v>
       </c>
       <c r="B383" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C383" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D383" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>386</v>
       </c>
       <c r="B384" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C384" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D384" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>387</v>
       </c>
       <c r="B385" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C385" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D385" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>388</v>
       </c>
       <c r="B386" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C386" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D386" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>389</v>
       </c>
       <c r="B387" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C387" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D387" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>390</v>
       </c>
       <c r="B388" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C388" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D388" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>391</v>
       </c>
       <c r="B389" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C389" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D389" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>392</v>
       </c>
       <c r="B390" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C390" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D390" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>393</v>
       </c>
       <c r="B391" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C391" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D391" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>394</v>
       </c>
       <c r="B392" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C392" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D392" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>395</v>
       </c>
       <c r="B393" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C393" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D393" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>396</v>
       </c>
       <c r="B394" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C394" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D394" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>397</v>
       </c>
       <c r="B395" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C395" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D395" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>398</v>
       </c>
       <c r="B396" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C396" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D396" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>399</v>
       </c>
       <c r="B397" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C397" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D397" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>400</v>
       </c>
       <c r="B398" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C398" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D398" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>401</v>
       </c>
       <c r="B399" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C399" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D399" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>402</v>
       </c>
       <c r="B400" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C400" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D400" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>403</v>
       </c>
       <c r="B401" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C401" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D401" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>404</v>
       </c>
       <c r="B402" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C402" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D402" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>405</v>
       </c>
       <c r="B403" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C403" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D403" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>406</v>
       </c>
       <c r="B404" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C404" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D404" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>407</v>
       </c>
       <c r="B405" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C405" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D405" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>408</v>
       </c>
       <c r="B406" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C406" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D406" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>409</v>
       </c>
       <c r="B407" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C407" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D407" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>410</v>
       </c>
       <c r="B408" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C408" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D408" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>411</v>
       </c>
       <c r="B409" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C409" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D409" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>412</v>
       </c>
       <c r="B410" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C410" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D410" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>413</v>
       </c>
       <c r="B411" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C411" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D411" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>414</v>
       </c>
       <c r="B412" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C412" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D412" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>415</v>
       </c>
       <c r="B413" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C413" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D413" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>416</v>
       </c>
       <c r="B414" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C414" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D414" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>417</v>
       </c>
       <c r="B415" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C415" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D415" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>418</v>
       </c>
       <c r="B416" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C416" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D416" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>419</v>
       </c>
       <c r="B417" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C417" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D417" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>420</v>
       </c>
       <c r="B418" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C418" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D418" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>421</v>
       </c>
       <c r="B419" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C419" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D419" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>422</v>
       </c>
       <c r="B420" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C420" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D420" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>423</v>
       </c>
       <c r="B421" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C421" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D421" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>424</v>
       </c>
       <c r="B422" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C422" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D422" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>425</v>
       </c>
       <c r="B423" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C423" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D423" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>426</v>
       </c>
       <c r="B424" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C424" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D424" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
-      <c r="A425" t="s">
-        <v>427</v>
-      </c>
-      <c r="B425" t="s">
         <v>730</v>
-      </c>
-      <c r="C425" t="s">
-        <v>731</v>
-      </c>
-      <c r="D425" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4">
-      <c r="A426" t="s">
-        <v>428</v>
-      </c>
-      <c r="B426" t="s">
-        <v>673</v>
-      </c>
-      <c r="C426" t="s">
-        <v>731</v>
-      </c>
-      <c r="D426" t="s">
-        <v>734</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_bricks.xlsx
+++ b/mapping/map_ibs_bricks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F08DF2D-F5B3-410D-B438-0CACAB45EE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F12604-346D-4113-850A-A5CDB6A4BEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="724">
   <si>
     <t>dist_brickcode</t>
   </si>
@@ -1291,18 +1291,6 @@
     <t xml:space="preserve"> قنا                </t>
   </si>
   <si>
-    <t xml:space="preserve">البحرالاحمر         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENIA EL KAMH - BELBES                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">الغردقة             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANI SUEF EHNASIA                       </t>
-  </si>
-  <si>
     <t>Nasr City</t>
   </si>
   <si>
@@ -2203,16 +2191,7 @@
     <t>Sahel Seleem</t>
   </si>
   <si>
-    <t>Ehnasia</t>
-  </si>
-  <si>
     <t>Mustafa Muhammed</t>
-  </si>
-  <si>
-    <t>2025-10-06 12:47:00</t>
-  </si>
-  <si>
-    <t>2025-10-06 12:52:56</t>
   </si>
 </sst>
 </file>
@@ -2584,13 +2563,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D424"/>
+  <dimension ref="A1:D420"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="E428" sqref="E428"/>
+      <selection activeCell="J423" sqref="J423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -2611,10 +2593,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D2" s="2">
         <v>45869</v>
@@ -2625,10 +2607,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C3" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D3" s="2">
         <v>45869</v>
@@ -2639,10 +2621,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C4" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D4" s="2">
         <v>45869</v>
@@ -2653,10 +2635,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C5" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D5" s="2">
         <v>45869</v>
@@ -2667,10 +2649,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C6" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D6" s="2">
         <v>45869</v>
@@ -2681,10 +2663,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C7" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D7" s="2">
         <v>45869</v>
@@ -2695,10 +2677,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C8" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D8" s="2">
         <v>45869</v>
@@ -2709,10 +2691,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C9" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D9" s="2">
         <v>45869</v>
@@ -2723,10 +2705,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C10" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D10" s="2">
         <v>45869</v>
@@ -2737,10 +2719,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C11" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D11" s="2">
         <v>45869</v>
@@ -2751,10 +2733,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C12" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D12" s="2">
         <v>45869</v>
@@ -2765,10 +2747,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C13" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D13" s="2">
         <v>45869</v>
@@ -2779,10 +2761,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C14" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D14" s="2">
         <v>45869</v>
@@ -2793,10 +2775,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C15" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D15" s="2">
         <v>45869</v>
@@ -2807,10 +2789,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C16" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D16" s="2">
         <v>45869</v>
@@ -2821,10 +2803,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C17" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D17" s="2">
         <v>45869</v>
@@ -2835,10 +2817,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C18" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D18" s="2">
         <v>45869</v>
@@ -2849,10 +2831,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C19" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D19" s="2">
         <v>45869</v>
@@ -2863,10 +2845,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C20" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D20" s="2">
         <v>45869</v>
@@ -2877,10 +2859,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C21" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D21" s="2">
         <v>45869</v>
@@ -2891,10 +2873,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C22" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D22" s="2">
         <v>45869</v>
@@ -2905,10 +2887,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C23" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D23" s="2">
         <v>45869</v>
@@ -2919,10 +2901,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C24" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D24" s="2">
         <v>45869</v>
@@ -2933,10 +2915,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C25" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D25" s="2">
         <v>45869</v>
@@ -2947,10 +2929,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C26" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D26" s="2">
         <v>45869</v>
@@ -2961,10 +2943,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C27" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D27" s="2">
         <v>45869</v>
@@ -2975,10 +2957,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C28" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D28" s="2">
         <v>45869</v>
@@ -2989,10 +2971,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C29" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D29" s="2">
         <v>45869</v>
@@ -3003,10 +2985,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C30" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D30" s="2">
         <v>45869</v>
@@ -3017,10 +2999,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C31" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D31" s="2">
         <v>45869</v>
@@ -3031,10 +3013,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C32" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D32" s="2">
         <v>45869</v>
@@ -3045,10 +3027,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C33" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D33" s="2">
         <v>45869</v>
@@ -3059,10 +3041,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C34" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D34" s="2">
         <v>45869</v>
@@ -3073,10 +3055,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C35" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D35" s="2">
         <v>45869</v>
@@ -3087,10 +3069,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C36" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D36" s="2">
         <v>45869</v>
@@ -3101,10 +3083,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C37" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D37" s="2">
         <v>45869</v>
@@ -3115,10 +3097,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C38" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D38" s="2">
         <v>45869</v>
@@ -3129,10 +3111,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C39" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D39" s="2">
         <v>45869</v>
@@ -3143,10 +3125,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C40" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D40" s="2">
         <v>45869</v>
@@ -3157,10 +3139,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C41" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D41" s="2">
         <v>45869</v>
@@ -3171,10 +3153,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C42" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D42" s="2">
         <v>45869</v>
@@ -3185,10 +3167,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C43" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D43" s="2">
         <v>45869</v>
@@ -3199,10 +3181,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C44" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D44" s="2">
         <v>45869</v>
@@ -3213,10 +3195,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C45" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D45" s="2">
         <v>45869</v>
@@ -3227,10 +3209,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C46" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D46" s="2">
         <v>45869</v>
@@ -3241,10 +3223,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C47" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D47" s="2">
         <v>45869</v>
@@ -3255,10 +3237,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C48" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D48" s="2">
         <v>45869</v>
@@ -3269,10 +3251,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C49" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D49" s="2">
         <v>45869</v>
@@ -3283,10 +3265,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C50" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D50" s="2">
         <v>45869</v>
@@ -3297,10 +3279,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C51" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D51" s="2">
         <v>45869</v>
@@ -3311,10 +3293,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C52" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D52" s="2">
         <v>45869</v>
@@ -3325,10 +3307,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C53" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D53" s="2">
         <v>45869</v>
@@ -3339,10 +3321,10 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C54" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D54" s="2">
         <v>45869</v>
@@ -3353,10 +3335,10 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C55" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D55" s="2">
         <v>45869</v>
@@ -3367,10 +3349,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C56" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D56" s="2">
         <v>45869</v>
@@ -3381,10 +3363,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C57" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D57" s="2">
         <v>45869</v>
@@ -3395,10 +3377,10 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C58" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D58" s="2">
         <v>45869</v>
@@ -3409,10 +3391,10 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C59" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D59" s="2">
         <v>45869</v>
@@ -3423,10 +3405,10 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C60" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D60" s="2">
         <v>45869</v>
@@ -3437,10 +3419,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C61" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D61" s="2">
         <v>45869</v>
@@ -3451,10 +3433,10 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C62" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D62" s="2">
         <v>45869</v>
@@ -3465,10 +3447,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C63" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D63" s="2">
         <v>45869</v>
@@ -3479,10 +3461,10 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C64" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D64" s="2">
         <v>45869</v>
@@ -3493,10 +3475,10 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C65" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D65" s="2">
         <v>45869</v>
@@ -3507,10 +3489,10 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C66" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D66" s="2">
         <v>45869</v>
@@ -3521,10 +3503,10 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C67" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D67" s="2">
         <v>45869</v>
@@ -3535,10 +3517,10 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C68" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D68" s="2">
         <v>45869</v>
@@ -3549,10 +3531,10 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C69" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D69" s="2">
         <v>45869</v>
@@ -3563,10 +3545,10 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C70" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D70" s="2">
         <v>45869</v>
@@ -3577,10 +3559,10 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C71" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D71" s="2">
         <v>45869</v>
@@ -3591,10 +3573,10 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C72" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D72" s="2">
         <v>45869</v>
@@ -3605,10 +3587,10 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C73" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D73" s="2">
         <v>45869</v>
@@ -3619,10 +3601,10 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C74" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D74" s="2">
         <v>45869</v>
@@ -3633,10 +3615,10 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C75" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D75" s="2">
         <v>45869</v>
@@ -3647,10 +3629,10 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C76" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D76" s="2">
         <v>45869</v>
@@ -3661,10 +3643,10 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C77" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D77" s="2">
         <v>45869</v>
@@ -3675,10 +3657,10 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C78" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D78" s="2">
         <v>45869</v>
@@ -3689,10 +3671,10 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C79" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D79" s="2">
         <v>45869</v>
@@ -3703,10 +3685,10 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C80" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D80" s="2">
         <v>45869</v>
@@ -3717,10 +3699,10 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C81" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D81" s="2">
         <v>45869</v>
@@ -3731,10 +3713,10 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C82" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D82" s="2">
         <v>45869</v>
@@ -3745,10 +3727,10 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C83" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D83" s="2">
         <v>45869</v>
@@ -3759,10 +3741,10 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C84" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D84" s="2">
         <v>45869</v>
@@ -3773,10 +3755,10 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C85" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D85" s="2">
         <v>45869</v>
@@ -3787,10 +3769,10 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C86" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D86" s="2">
         <v>45869</v>
@@ -3801,10 +3783,10 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C87" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D87" s="2">
         <v>45869</v>
@@ -3815,10 +3797,10 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C88" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D88" s="2">
         <v>45869</v>
@@ -3829,10 +3811,10 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C89" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D89" s="2">
         <v>45869</v>
@@ -3843,10 +3825,10 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C90" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D90" s="2">
         <v>45869</v>
@@ -3857,10 +3839,10 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C91" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D91" s="2">
         <v>45869</v>
@@ -3871,10 +3853,10 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C92" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D92" s="2">
         <v>45869</v>
@@ -3885,10 +3867,10 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C93" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D93" s="2">
         <v>45869</v>
@@ -3899,10 +3881,10 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C94" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D94" s="2">
         <v>45869</v>
@@ -3913,10 +3895,10 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C95" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D95" s="2">
         <v>45869</v>
@@ -3927,10 +3909,10 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C96" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D96" s="2">
         <v>45869</v>
@@ -3941,10 +3923,10 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C97" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D97" s="2">
         <v>45869</v>
@@ -3955,10 +3937,10 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C98" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D98" s="2">
         <v>45869</v>
@@ -3969,10 +3951,10 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C99" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D99" s="2">
         <v>45869</v>
@@ -3983,10 +3965,10 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C100" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D100" s="2">
         <v>45869</v>
@@ -3997,10 +3979,10 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C101" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D101" s="2">
         <v>45869</v>
@@ -4011,10 +3993,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C102" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D102" s="2">
         <v>45869</v>
@@ -4025,10 +4007,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C103" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D103" s="2">
         <v>45869</v>
@@ -4039,10 +4021,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C104" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D104" s="2">
         <v>45869</v>
@@ -4053,10 +4035,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C105" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D105" s="2">
         <v>45869</v>
@@ -4067,10 +4049,10 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C106" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D106" s="2">
         <v>45869</v>
@@ -4081,10 +4063,10 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C107" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D107" s="2">
         <v>45869</v>
@@ -4095,10 +4077,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C108" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D108" s="2">
         <v>45869</v>
@@ -4109,10 +4091,10 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C109" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D109" s="2">
         <v>45869</v>
@@ -4123,10 +4105,10 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C110" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D110" s="2">
         <v>45869</v>
@@ -4137,10 +4119,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C111" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D111" s="2">
         <v>45869</v>
@@ -4151,10 +4133,10 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C112" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D112" s="2">
         <v>45869</v>
@@ -4165,10 +4147,10 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C113" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D113" s="2">
         <v>45869</v>
@@ -4179,10 +4161,10 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C114" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D114" s="2">
         <v>45869</v>
@@ -4193,10 +4175,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C115" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D115" s="2">
         <v>45869</v>
@@ -4207,10 +4189,10 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C116" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D116" s="2">
         <v>45869</v>
@@ -4221,10 +4203,10 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C117" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D117" s="2">
         <v>45869</v>
@@ -4235,10 +4217,10 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C118" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D118" s="2">
         <v>45869</v>
@@ -4249,10 +4231,10 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C119" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D119" s="2">
         <v>45869</v>
@@ -4263,10 +4245,10 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C120" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D120" s="2">
         <v>45869</v>
@@ -4277,10 +4259,10 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C121" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D121" s="2">
         <v>45869</v>
@@ -4291,10 +4273,10 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C122" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D122" s="2">
         <v>45869</v>
@@ -4305,10 +4287,10 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C123" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D123" s="2">
         <v>45869</v>
@@ -4319,10 +4301,10 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C124" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D124" s="2">
         <v>45869</v>
@@ -4333,10 +4315,10 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C125" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D125" s="2">
         <v>45869</v>
@@ -4347,10 +4329,10 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C126" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D126" s="2">
         <v>45869</v>
@@ -4361,10 +4343,10 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C127" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D127" s="2">
         <v>45869</v>
@@ -4375,10 +4357,10 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C128" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D128" s="2">
         <v>45869</v>
@@ -4389,10 +4371,10 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C129" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D129" s="2">
         <v>45869</v>
@@ -4403,10 +4385,10 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C130" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D130" s="2">
         <v>45869</v>
@@ -4417,10 +4399,10 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C131" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D131" s="2">
         <v>45869</v>
@@ -4431,10 +4413,10 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C132" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D132" s="2">
         <v>45869</v>
@@ -4445,10 +4427,10 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C133" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D133" s="2">
         <v>45869</v>
@@ -4459,10 +4441,10 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C134" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D134" s="2">
         <v>45869</v>
@@ -4473,10 +4455,10 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C135" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D135" s="2">
         <v>45869</v>
@@ -4487,10 +4469,10 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C136" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D136" s="2">
         <v>45869</v>
@@ -4501,10 +4483,10 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C137" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D137" s="2">
         <v>45869</v>
@@ -4515,10 +4497,10 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C138" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D138" s="2">
         <v>45869</v>
@@ -4529,10 +4511,10 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C139" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D139" s="2">
         <v>45869</v>
@@ -4543,10 +4525,10 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C140" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D140" s="2">
         <v>45869</v>
@@ -4557,10 +4539,10 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C141" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D141" s="2">
         <v>45869</v>
@@ -4571,10 +4553,10 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C142" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D142" s="2">
         <v>45869</v>
@@ -4585,10 +4567,10 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C143" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D143" s="2">
         <v>45869</v>
@@ -4599,10 +4581,10 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C144" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D144" s="2">
         <v>45869</v>
@@ -4613,10 +4595,10 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C145" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D145" s="2">
         <v>45869</v>
@@ -4627,10 +4609,10 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C146" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D146" s="2">
         <v>45869</v>
@@ -4641,10 +4623,10 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C147" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D147" s="2">
         <v>45869</v>
@@ -4655,10 +4637,10 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C148" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D148" s="2">
         <v>45869</v>
@@ -4669,10 +4651,10 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C149" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D149" s="2">
         <v>45869</v>
@@ -4683,10 +4665,10 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C150" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D150" s="2">
         <v>45869</v>
@@ -4697,10 +4679,10 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C151" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D151" s="2">
         <v>45869</v>
@@ -4711,10 +4693,10 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C152" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D152" s="2">
         <v>45869</v>
@@ -4725,10 +4707,10 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C153" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D153" s="2">
         <v>45869</v>
@@ -4739,10 +4721,10 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C154" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D154" s="2">
         <v>45869</v>
@@ -4753,10 +4735,10 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C155" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D155" s="2">
         <v>45869</v>
@@ -4767,10 +4749,10 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C156" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D156" s="2">
         <v>45869</v>
@@ -4781,10 +4763,10 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C157" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D157" s="2">
         <v>45869</v>
@@ -4795,10 +4777,10 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C158" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D158" s="2">
         <v>45869</v>
@@ -4809,10 +4791,10 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C159" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D159" s="2">
         <v>45869</v>
@@ -4823,10 +4805,10 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C160" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D160" s="2">
         <v>45869</v>
@@ -4837,10 +4819,10 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C161" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D161" s="2">
         <v>45869</v>
@@ -4851,10 +4833,10 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C162" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D162" s="2">
         <v>45869</v>
@@ -4865,10 +4847,10 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C163" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D163" s="2">
         <v>45869</v>
@@ -4879,10 +4861,10 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C164" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D164" s="2">
         <v>45869</v>
@@ -4893,10 +4875,10 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C165" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D165" s="2">
         <v>45869</v>
@@ -4907,10 +4889,10 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C166" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D166" s="2">
         <v>45869</v>
@@ -4921,10 +4903,10 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C167" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D167" s="2">
         <v>45869</v>
@@ -4935,10 +4917,10 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C168" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D168" s="2">
         <v>45869</v>
@@ -4949,10 +4931,10 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C169" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D169" s="2">
         <v>45869</v>
@@ -4963,10 +4945,10 @@
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C170" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D170" s="2">
         <v>45869</v>
@@ -4977,10 +4959,10 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C171" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D171" s="2">
         <v>45869</v>
@@ -4991,10 +4973,10 @@
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C172" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D172" s="2">
         <v>45869</v>
@@ -5005,10 +4987,10 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C173" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D173" s="2">
         <v>45869</v>
@@ -5019,10 +5001,10 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C174" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D174" s="2">
         <v>45869</v>
@@ -5033,10 +5015,10 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C175" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D175" s="2">
         <v>45869</v>
@@ -5047,10 +5029,10 @@
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C176" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D176" s="2">
         <v>45869</v>
@@ -5061,10 +5043,10 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C177" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D177" s="2">
         <v>45869</v>
@@ -5075,10 +5057,10 @@
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C178" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D178" s="2">
         <v>45869</v>
@@ -5089,10 +5071,10 @@
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C179" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D179" s="2">
         <v>45869</v>
@@ -5103,10 +5085,10 @@
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C180" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D180" s="2">
         <v>45869</v>
@@ -5117,10 +5099,10 @@
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C181" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D181" s="2">
         <v>45869</v>
@@ -5131,10 +5113,10 @@
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C182" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D182" s="2">
         <v>45869</v>
@@ -5145,10 +5127,10 @@
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C183" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D183" s="2">
         <v>45869</v>
@@ -5159,10 +5141,10 @@
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C184" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D184" s="2">
         <v>45869</v>
@@ -5173,10 +5155,10 @@
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C185" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D185" s="2">
         <v>45869</v>
@@ -5187,10 +5169,10 @@
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C186" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D186" s="2">
         <v>45869</v>
@@ -5201,10 +5183,10 @@
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C187" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D187" s="2">
         <v>45869</v>
@@ -5215,10 +5197,10 @@
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C188" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D188" s="2">
         <v>45869</v>
@@ -5229,10 +5211,10 @@
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C189" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D189" s="2">
         <v>45869</v>
@@ -5243,10 +5225,10 @@
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C190" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D190" s="2">
         <v>45869</v>
@@ -5257,10 +5239,10 @@
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C191" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D191" s="2">
         <v>45869</v>
@@ -5271,10 +5253,10 @@
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C192" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D192" s="2">
         <v>45869</v>
@@ -5285,10 +5267,10 @@
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C193" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D193" s="2">
         <v>45869</v>
@@ -5299,10 +5281,10 @@
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C194" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D194" s="2">
         <v>45869</v>
@@ -5313,10 +5295,10 @@
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C195" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D195" s="2">
         <v>45869</v>
@@ -5327,10 +5309,10 @@
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C196" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D196" s="2">
         <v>45869</v>
@@ -5341,10 +5323,10 @@
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C197" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D197" s="2">
         <v>45869</v>
@@ -5355,10 +5337,10 @@
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C198" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D198" s="2">
         <v>45869</v>
@@ -5369,10 +5351,10 @@
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C199" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D199" s="2">
         <v>45869</v>
@@ -5383,10 +5365,10 @@
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C200" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D200" s="2">
         <v>45869</v>
@@ -5397,10 +5379,10 @@
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C201" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D201" s="2">
         <v>45869</v>
@@ -5411,10 +5393,10 @@
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C202" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D202" s="2">
         <v>45869</v>
@@ -5425,10 +5407,10 @@
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C203" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D203" s="2">
         <v>45869</v>
@@ -5439,10 +5421,10 @@
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C204" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D204" s="2">
         <v>45869</v>
@@ -5453,10 +5435,10 @@
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C205" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D205" s="2">
         <v>45869</v>
@@ -5467,10 +5449,10 @@
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C206" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D206" s="2">
         <v>45869</v>
@@ -5481,10 +5463,10 @@
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C207" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D207" s="2">
         <v>45869</v>
@@ -5495,10 +5477,10 @@
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C208" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D208" s="2">
         <v>45869</v>
@@ -5509,10 +5491,10 @@
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C209" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D209" s="2">
         <v>45869</v>
@@ -5523,10 +5505,10 @@
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C210" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D210" s="2">
         <v>45869</v>
@@ -5537,10 +5519,10 @@
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C211" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D211" s="2">
         <v>45869</v>
@@ -5551,10 +5533,10 @@
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C212" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D212" s="2">
         <v>45869</v>
@@ -5565,10 +5547,10 @@
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C213" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D213" s="2">
         <v>45869</v>
@@ -5579,10 +5561,10 @@
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C214" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D214" s="2">
         <v>45869</v>
@@ -5593,10 +5575,10 @@
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C215" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D215" s="2">
         <v>45869</v>
@@ -5607,10 +5589,10 @@
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C216" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D216" s="2">
         <v>45869</v>
@@ -5621,10 +5603,10 @@
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C217" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D217" s="2">
         <v>45869</v>
@@ -5635,10 +5617,10 @@
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C218" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D218" s="2">
         <v>45869</v>
@@ -5649,10 +5631,10 @@
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C219" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D219" s="2">
         <v>45869</v>
@@ -5663,10 +5645,10 @@
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C220" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D220" s="2">
         <v>45869</v>
@@ -5677,10 +5659,10 @@
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C221" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D221" s="2">
         <v>45869</v>
@@ -5691,10 +5673,10 @@
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C222" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D222" s="2">
         <v>45869</v>
@@ -5705,10 +5687,10 @@
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C223" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D223" s="2">
         <v>45869</v>
@@ -5719,10 +5701,10 @@
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C224" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D224" s="2">
         <v>45869</v>
@@ -5733,10 +5715,10 @@
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C225" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D225" s="2">
         <v>45869</v>
@@ -5747,10 +5729,10 @@
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C226" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D226" s="2">
         <v>45869</v>
@@ -5761,10 +5743,10 @@
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C227" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D227" s="2">
         <v>45869</v>
@@ -5775,10 +5757,10 @@
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C228" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D228" s="2">
         <v>45869</v>
@@ -5789,10 +5771,10 @@
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C229" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D229" s="2">
         <v>45869</v>
@@ -5803,10 +5785,10 @@
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C230" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D230" s="2">
         <v>45869</v>
@@ -5817,10 +5799,10 @@
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C231" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D231" s="2">
         <v>45869</v>
@@ -5831,10 +5813,10 @@
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C232" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D232" s="2">
         <v>45869</v>
@@ -5845,10 +5827,10 @@
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C233" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D233" s="2">
         <v>45869</v>
@@ -5859,10 +5841,10 @@
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C234" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D234" s="2">
         <v>45869</v>
@@ -5873,10 +5855,10 @@
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C235" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D235" s="2">
         <v>45869</v>
@@ -5887,10 +5869,10 @@
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C236" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D236" s="2">
         <v>45869</v>
@@ -5901,10 +5883,10 @@
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C237" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D237" s="2">
         <v>45869</v>
@@ -5915,10 +5897,10 @@
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C238" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D238" s="2">
         <v>45869</v>
@@ -5929,10 +5911,10 @@
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C239" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D239" s="2">
         <v>45869</v>
@@ -5943,10 +5925,10 @@
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C240" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D240" s="2">
         <v>45869</v>
@@ -5957,10 +5939,10 @@
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C241" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D241" s="2">
         <v>45869</v>
@@ -5971,10 +5953,10 @@
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C242" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D242" s="2">
         <v>45869</v>
@@ -5985,10 +5967,10 @@
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C243" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D243" s="2">
         <v>45869</v>
@@ -5999,10 +5981,10 @@
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C244" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D244" s="2">
         <v>45869</v>
@@ -6013,10 +5995,10 @@
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C245" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D245" s="2">
         <v>45869</v>
@@ -6027,10 +6009,10 @@
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C246" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D246" s="2">
         <v>45869</v>
@@ -6041,10 +6023,10 @@
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C247" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D247" s="2">
         <v>45869</v>
@@ -6055,10 +6037,10 @@
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C248" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D248" s="2">
         <v>45869</v>
@@ -6069,10 +6051,10 @@
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C249" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D249" s="2">
         <v>45869</v>
@@ -6083,10 +6065,10 @@
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C250" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D250" s="2">
         <v>45869</v>
@@ -6097,10 +6079,10 @@
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C251" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D251" s="2">
         <v>45869</v>
@@ -6111,10 +6093,10 @@
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C252" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D252" s="2">
         <v>45869</v>
@@ -6125,10 +6107,10 @@
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C253" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D253" s="2">
         <v>45869</v>
@@ -6139,10 +6121,10 @@
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C254" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D254" s="2">
         <v>45869</v>
@@ -6153,10 +6135,10 @@
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C255" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D255" s="2">
         <v>45869</v>
@@ -6167,10 +6149,10 @@
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C256" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D256" s="2">
         <v>45869</v>
@@ -6181,10 +6163,10 @@
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C257" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D257" s="2">
         <v>45869</v>
@@ -6195,10 +6177,10 @@
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C258" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D258" s="2">
         <v>45869</v>
@@ -6209,10 +6191,10 @@
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C259" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D259" s="2">
         <v>45869</v>
@@ -6223,10 +6205,10 @@
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C260" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D260" s="2">
         <v>45869</v>
@@ -6237,10 +6219,10 @@
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C261" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D261" s="2">
         <v>45869</v>
@@ -6251,10 +6233,10 @@
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C262" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D262" s="2">
         <v>45869</v>
@@ -6265,10 +6247,10 @@
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C263" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D263" s="2">
         <v>45869</v>
@@ -6279,10 +6261,10 @@
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C264" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D264" s="2">
         <v>45869</v>
@@ -6293,10 +6275,10 @@
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C265" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D265" s="2">
         <v>45869</v>
@@ -6307,10 +6289,10 @@
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C266" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D266" s="2">
         <v>45869</v>
@@ -6321,10 +6303,10 @@
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C267" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D267" s="2">
         <v>45869</v>
@@ -6335,10 +6317,10 @@
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C268" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D268" s="2">
         <v>45869</v>
@@ -6349,10 +6331,10 @@
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C269" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D269" s="2">
         <v>45869</v>
@@ -6363,10 +6345,10 @@
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C270" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D270" s="2">
         <v>45869</v>
@@ -6377,10 +6359,10 @@
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C271" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D271" s="2">
         <v>45869</v>
@@ -6391,10 +6373,10 @@
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C272" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D272" s="2">
         <v>45869</v>
@@ -6405,10 +6387,10 @@
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C273" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D273" s="2">
         <v>45869</v>
@@ -6419,10 +6401,10 @@
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C274" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D274" s="2">
         <v>45869</v>
@@ -6433,10 +6415,10 @@
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C275" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D275" s="2">
         <v>45869</v>
@@ -6447,10 +6429,10 @@
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C276" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D276" s="2">
         <v>45869</v>
@@ -6461,10 +6443,10 @@
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C277" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D277" s="2">
         <v>45869</v>
@@ -6475,10 +6457,10 @@
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C278" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D278" s="2">
         <v>45869</v>
@@ -6489,10 +6471,10 @@
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C279" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D279" s="2">
         <v>45869</v>
@@ -6503,10 +6485,10 @@
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C280" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D280" s="2">
         <v>45869</v>
@@ -6517,10 +6499,10 @@
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C281" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D281" s="2">
         <v>45869</v>
@@ -6531,10 +6513,10 @@
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C282" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D282" s="2">
         <v>45869</v>
@@ -6545,10 +6527,10 @@
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C283" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D283" s="2">
         <v>45869</v>
@@ -6559,10 +6541,10 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C284" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D284" s="2">
         <v>45869</v>
@@ -6573,10 +6555,10 @@
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C285" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D285" s="2">
         <v>45869</v>
@@ -6587,10 +6569,10 @@
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C286" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D286" s="2">
         <v>45869</v>
@@ -6601,10 +6583,10 @@
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C287" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D287" s="2">
         <v>45869</v>
@@ -6615,10 +6597,10 @@
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C288" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D288" s="2">
         <v>45869</v>
@@ -6629,10 +6611,10 @@
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C289" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D289" s="2">
         <v>45869</v>
@@ -6643,10 +6625,10 @@
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C290" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D290" s="2">
         <v>45869</v>
@@ -6657,10 +6639,10 @@
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C291" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D291" s="2">
         <v>45869</v>
@@ -6671,10 +6653,10 @@
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C292" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D292" s="2">
         <v>45869</v>
@@ -6685,10 +6667,10 @@
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C293" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D293" s="2">
         <v>45869</v>
@@ -6699,10 +6681,10 @@
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C294" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D294" s="2">
         <v>45869</v>
@@ -6713,10 +6695,10 @@
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C295" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D295" s="2">
         <v>45869</v>
@@ -6727,10 +6709,10 @@
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C296" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D296" s="2">
         <v>45869</v>
@@ -6741,10 +6723,10 @@
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C297" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D297" s="2">
         <v>45869</v>
@@ -6755,10 +6737,10 @@
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C298" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D298" s="2">
         <v>45869</v>
@@ -6769,10 +6751,10 @@
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C299" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D299" s="2">
         <v>45869</v>
@@ -6783,10 +6765,10 @@
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C300" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D300" s="2">
         <v>45869</v>
@@ -6797,10 +6779,10 @@
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C301" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D301" s="2">
         <v>45869</v>
@@ -6811,10 +6793,10 @@
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C302" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D302" s="2">
         <v>45869</v>
@@ -6825,10 +6807,10 @@
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C303" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D303" s="2">
         <v>45869</v>
@@ -6839,10 +6821,10 @@
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C304" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D304" s="2">
         <v>45869</v>
@@ -6853,10 +6835,10 @@
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C305" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D305" s="2">
         <v>45869</v>
@@ -6867,10 +6849,10 @@
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C306" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D306" s="2">
         <v>45869</v>
@@ -6881,10 +6863,10 @@
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C307" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D307" s="2">
         <v>45869</v>
@@ -6895,10 +6877,10 @@
         <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C308" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D308" s="2">
         <v>45869</v>
@@ -6909,10 +6891,10 @@
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C309" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D309" s="2">
         <v>45869</v>
@@ -6923,10 +6905,10 @@
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C310" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D310" s="2">
         <v>45869</v>
@@ -6937,10 +6919,10 @@
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C311" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D311" s="2">
         <v>45869</v>
@@ -6951,10 +6933,10 @@
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C312" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D312" s="2">
         <v>45869</v>
@@ -6965,10 +6947,10 @@
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C313" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D313" s="2">
         <v>45869</v>
@@ -6979,10 +6961,10 @@
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C314" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D314" s="2">
         <v>45869</v>
@@ -6993,10 +6975,10 @@
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C315" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D315" s="2">
         <v>45869</v>
@@ -7007,10 +6989,10 @@
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C316" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D316" s="2">
         <v>45869</v>
@@ -7021,10 +7003,10 @@
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C317" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D317" s="2">
         <v>45869</v>
@@ -7035,10 +7017,10 @@
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C318" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D318" s="2">
         <v>45869</v>
@@ -7049,10 +7031,10 @@
         <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C319" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D319" s="2">
         <v>45869</v>
@@ -7063,10 +7045,10 @@
         <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C320" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D320" s="2">
         <v>45869</v>
@@ -7077,10 +7059,10 @@
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C321" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D321" s="2">
         <v>45869</v>
@@ -7091,10 +7073,10 @@
         <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C322" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D322" s="2">
         <v>45869</v>
@@ -7105,10 +7087,10 @@
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C323" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D323" s="2">
         <v>45869</v>
@@ -7119,10 +7101,10 @@
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C324" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D324" s="2">
         <v>45869</v>
@@ -7133,10 +7115,10 @@
         <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C325" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D325" s="2">
         <v>45869</v>
@@ -7147,10 +7129,10 @@
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C326" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D326" s="2">
         <v>45869</v>
@@ -7161,10 +7143,10 @@
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C327" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D327" s="2">
         <v>45869</v>
@@ -7175,10 +7157,10 @@
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C328" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D328" s="2">
         <v>45869</v>
@@ -7189,10 +7171,10 @@
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C329" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D329" s="2">
         <v>45869</v>
@@ -7203,10 +7185,10 @@
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C330" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D330" s="2">
         <v>45869</v>
@@ -7217,10 +7199,10 @@
         <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C331" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D331" s="2">
         <v>45869</v>
@@ -7231,10 +7213,10 @@
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C332" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D332" s="2">
         <v>45869</v>
@@ -7245,10 +7227,10 @@
         <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C333" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D333" s="2">
         <v>45869</v>
@@ -7259,10 +7241,10 @@
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C334" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D334" s="2">
         <v>45869</v>
@@ -7273,10 +7255,10 @@
         <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C335" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D335" s="2">
         <v>45869</v>
@@ -7287,10 +7269,10 @@
         <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C336" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D336" s="2">
         <v>45869</v>
@@ -7301,10 +7283,10 @@
         <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C337" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D337" s="2">
         <v>45869</v>
@@ -7315,10 +7297,10 @@
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C338" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D338" s="2">
         <v>45869</v>
@@ -7329,10 +7311,10 @@
         <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C339" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D339" s="2">
         <v>45869</v>
@@ -7343,10 +7325,10 @@
         <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C340" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D340" s="2">
         <v>45869</v>
@@ -7357,10 +7339,10 @@
         <v>343</v>
       </c>
       <c r="B341" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C341" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D341" s="2">
         <v>45869</v>
@@ -7371,10 +7353,10 @@
         <v>344</v>
       </c>
       <c r="B342" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C342" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D342" s="2">
         <v>45869</v>
@@ -7385,10 +7367,10 @@
         <v>345</v>
       </c>
       <c r="B343" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C343" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D343" s="2">
         <v>45869</v>
@@ -7399,10 +7381,10 @@
         <v>346</v>
       </c>
       <c r="B344" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C344" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D344" s="2">
         <v>45869</v>
@@ -7413,10 +7395,10 @@
         <v>347</v>
       </c>
       <c r="B345" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C345" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D345" s="2">
         <v>45869</v>
@@ -7427,10 +7409,10 @@
         <v>348</v>
       </c>
       <c r="B346" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C346" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D346" s="2">
         <v>45869</v>
@@ -7441,10 +7423,10 @@
         <v>349</v>
       </c>
       <c r="B347" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C347" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D347" s="2">
         <v>45869</v>
@@ -7455,10 +7437,10 @@
         <v>350</v>
       </c>
       <c r="B348" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C348" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D348" s="2">
         <v>45869</v>
@@ -7469,10 +7451,10 @@
         <v>351</v>
       </c>
       <c r="B349" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C349" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D349" s="2">
         <v>45869</v>
@@ -7483,10 +7465,10 @@
         <v>352</v>
       </c>
       <c r="B350" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C350" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D350" s="2">
         <v>45869</v>
@@ -7497,10 +7479,10 @@
         <v>353</v>
       </c>
       <c r="B351" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C351" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D351" s="2">
         <v>45869</v>
@@ -7511,10 +7493,10 @@
         <v>354</v>
       </c>
       <c r="B352" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C352" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D352" s="2">
         <v>45869</v>
@@ -7525,10 +7507,10 @@
         <v>355</v>
       </c>
       <c r="B353" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C353" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D353" s="2">
         <v>45869</v>
@@ -7539,10 +7521,10 @@
         <v>356</v>
       </c>
       <c r="B354" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C354" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D354" s="2">
         <v>45869</v>
@@ -7553,10 +7535,10 @@
         <v>357</v>
       </c>
       <c r="B355" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C355" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D355" s="2">
         <v>45869</v>
@@ -7567,10 +7549,10 @@
         <v>358</v>
       </c>
       <c r="B356" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C356" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D356" s="2">
         <v>45869</v>
@@ -7581,10 +7563,10 @@
         <v>359</v>
       </c>
       <c r="B357" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C357" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D357" s="2">
         <v>45869</v>
@@ -7595,10 +7577,10 @@
         <v>360</v>
       </c>
       <c r="B358" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C358" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D358" s="2">
         <v>45869</v>
@@ -7609,10 +7591,10 @@
         <v>361</v>
       </c>
       <c r="B359" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C359" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D359" s="2">
         <v>45869</v>
@@ -7623,10 +7605,10 @@
         <v>362</v>
       </c>
       <c r="B360" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C360" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D360" s="2">
         <v>45869</v>
@@ -7637,10 +7619,10 @@
         <v>363</v>
       </c>
       <c r="B361" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C361" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D361" s="2">
         <v>45869</v>
@@ -7651,10 +7633,10 @@
         <v>364</v>
       </c>
       <c r="B362" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C362" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D362" s="2">
         <v>45869</v>
@@ -7665,10 +7647,10 @@
         <v>365</v>
       </c>
       <c r="B363" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C363" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D363" s="2">
         <v>45869</v>
@@ -7679,10 +7661,10 @@
         <v>366</v>
       </c>
       <c r="B364" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C364" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D364" s="2">
         <v>45869</v>
@@ -7693,10 +7675,10 @@
         <v>367</v>
       </c>
       <c r="B365" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C365" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D365" s="2">
         <v>45869</v>
@@ -7707,10 +7689,10 @@
         <v>368</v>
       </c>
       <c r="B366" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C366" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D366" s="2">
         <v>45869</v>
@@ -7721,10 +7703,10 @@
         <v>369</v>
       </c>
       <c r="B367" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C367" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D367" s="2">
         <v>45869</v>
@@ -7735,10 +7717,10 @@
         <v>370</v>
       </c>
       <c r="B368" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C368" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D368" s="2">
         <v>45869</v>
@@ -7749,10 +7731,10 @@
         <v>371</v>
       </c>
       <c r="B369" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C369" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D369" s="2">
         <v>45869</v>
@@ -7763,10 +7745,10 @@
         <v>372</v>
       </c>
       <c r="B370" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C370" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D370" s="2">
         <v>45869</v>
@@ -7777,10 +7759,10 @@
         <v>373</v>
       </c>
       <c r="B371" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C371" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D371" s="2">
         <v>45869</v>
@@ -7791,10 +7773,10 @@
         <v>374</v>
       </c>
       <c r="B372" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C372" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D372" s="2">
         <v>45869</v>
@@ -7805,10 +7787,10 @@
         <v>375</v>
       </c>
       <c r="B373" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C373" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D373" s="2">
         <v>45869</v>
@@ -7819,10 +7801,10 @@
         <v>376</v>
       </c>
       <c r="B374" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C374" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D374" s="2">
         <v>45869</v>
@@ -7833,10 +7815,10 @@
         <v>377</v>
       </c>
       <c r="B375" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C375" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D375" s="2">
         <v>45869</v>
@@ -7847,10 +7829,10 @@
         <v>378</v>
       </c>
       <c r="B376" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C376" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D376" s="2">
         <v>45869</v>
@@ -7861,10 +7843,10 @@
         <v>379</v>
       </c>
       <c r="B377" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C377" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D377" s="2">
         <v>45869</v>
@@ -7875,10 +7857,10 @@
         <v>380</v>
       </c>
       <c r="B378" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C378" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D378" s="2">
         <v>45869</v>
@@ -7889,10 +7871,10 @@
         <v>381</v>
       </c>
       <c r="B379" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C379" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D379" s="2">
         <v>45869</v>
@@ -7903,10 +7885,10 @@
         <v>382</v>
       </c>
       <c r="B380" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C380" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D380" s="2">
         <v>45869</v>
@@ -7917,10 +7899,10 @@
         <v>383</v>
       </c>
       <c r="B381" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C381" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D381" s="2">
         <v>45869</v>
@@ -7931,10 +7913,10 @@
         <v>384</v>
       </c>
       <c r="B382" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C382" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D382" s="2">
         <v>45869</v>
@@ -7945,10 +7927,10 @@
         <v>385</v>
       </c>
       <c r="B383" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C383" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D383" s="2">
         <v>45869</v>
@@ -7959,10 +7941,10 @@
         <v>386</v>
       </c>
       <c r="B384" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C384" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D384" s="2">
         <v>45869</v>
@@ -7973,10 +7955,10 @@
         <v>387</v>
       </c>
       <c r="B385" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C385" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D385" s="2">
         <v>45869</v>
@@ -7987,10 +7969,10 @@
         <v>388</v>
       </c>
       <c r="B386" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C386" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D386" s="2">
         <v>45869</v>
@@ -8001,10 +7983,10 @@
         <v>389</v>
       </c>
       <c r="B387" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C387" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D387" s="2">
         <v>45869</v>
@@ -8015,10 +7997,10 @@
         <v>390</v>
       </c>
       <c r="B388" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C388" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D388" s="2">
         <v>45869</v>
@@ -8029,10 +8011,10 @@
         <v>391</v>
       </c>
       <c r="B389" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C389" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D389" s="2">
         <v>45869</v>
@@ -8043,10 +8025,10 @@
         <v>392</v>
       </c>
       <c r="B390" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C390" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D390" s="2">
         <v>45869</v>
@@ -8057,10 +8039,10 @@
         <v>393</v>
       </c>
       <c r="B391" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C391" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D391" s="2">
         <v>45869</v>
@@ -8071,10 +8053,10 @@
         <v>394</v>
       </c>
       <c r="B392" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C392" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D392" s="2">
         <v>45869</v>
@@ -8085,10 +8067,10 @@
         <v>395</v>
       </c>
       <c r="B393" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C393" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D393" s="2">
         <v>45869</v>
@@ -8099,10 +8081,10 @@
         <v>396</v>
       </c>
       <c r="B394" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C394" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D394" s="2">
         <v>45869</v>
@@ -8113,10 +8095,10 @@
         <v>397</v>
       </c>
       <c r="B395" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C395" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D395" s="2">
         <v>45869</v>
@@ -8127,10 +8109,10 @@
         <v>398</v>
       </c>
       <c r="B396" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C396" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D396" s="2">
         <v>45869</v>
@@ -8141,10 +8123,10 @@
         <v>399</v>
       </c>
       <c r="B397" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C397" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D397" s="2">
         <v>45869</v>
@@ -8155,10 +8137,10 @@
         <v>400</v>
       </c>
       <c r="B398" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C398" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D398" s="2">
         <v>45869</v>
@@ -8169,10 +8151,10 @@
         <v>401</v>
       </c>
       <c r="B399" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C399" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D399" s="2">
         <v>45869</v>
@@ -8183,10 +8165,10 @@
         <v>402</v>
       </c>
       <c r="B400" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C400" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D400" s="2">
         <v>45869</v>
@@ -8197,10 +8179,10 @@
         <v>403</v>
       </c>
       <c r="B401" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C401" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D401" s="2">
         <v>45869</v>
@@ -8211,10 +8193,10 @@
         <v>404</v>
       </c>
       <c r="B402" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C402" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D402" s="2">
         <v>45869</v>
@@ -8225,10 +8207,10 @@
         <v>405</v>
       </c>
       <c r="B403" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C403" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D403" s="2">
         <v>45869</v>
@@ -8239,10 +8221,10 @@
         <v>406</v>
       </c>
       <c r="B404" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C404" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D404" s="2">
         <v>45869</v>
@@ -8253,10 +8235,10 @@
         <v>407</v>
       </c>
       <c r="B405" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C405" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D405" s="2">
         <v>45869</v>
@@ -8267,10 +8249,10 @@
         <v>408</v>
       </c>
       <c r="B406" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C406" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D406" s="2">
         <v>45869</v>
@@ -8281,10 +8263,10 @@
         <v>409</v>
       </c>
       <c r="B407" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C407" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D407" s="2">
         <v>45869</v>
@@ -8295,10 +8277,10 @@
         <v>410</v>
       </c>
       <c r="B408" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C408" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D408" s="2">
         <v>45869</v>
@@ -8309,10 +8291,10 @@
         <v>411</v>
       </c>
       <c r="B409" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C409" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D409" s="2">
         <v>45869</v>
@@ -8323,10 +8305,10 @@
         <v>412</v>
       </c>
       <c r="B410" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C410" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D410" s="2">
         <v>45869</v>
@@ -8337,10 +8319,10 @@
         <v>413</v>
       </c>
       <c r="B411" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C411" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D411" s="2">
         <v>45869</v>
@@ -8351,10 +8333,10 @@
         <v>414</v>
       </c>
       <c r="B412" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C412" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D412" s="2">
         <v>45869</v>
@@ -8365,10 +8347,10 @@
         <v>415</v>
       </c>
       <c r="B413" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C413" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D413" s="2">
         <v>45869</v>
@@ -8379,10 +8361,10 @@
         <v>416</v>
       </c>
       <c r="B414" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C414" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D414" s="2">
         <v>45869</v>
@@ -8393,10 +8375,10 @@
         <v>417</v>
       </c>
       <c r="B415" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C415" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D415" s="2">
         <v>45869</v>
@@ -8407,10 +8389,10 @@
         <v>418</v>
       </c>
       <c r="B416" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C416" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D416" s="2">
         <v>45869</v>
@@ -8421,10 +8403,10 @@
         <v>419</v>
       </c>
       <c r="B417" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C417" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D417" s="2">
         <v>45869</v>
@@ -8435,10 +8417,10 @@
         <v>420</v>
       </c>
       <c r="B418" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C418" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D418" s="2">
         <v>45869</v>
@@ -8449,10 +8431,10 @@
         <v>421</v>
       </c>
       <c r="B419" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C419" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D419" s="2">
         <v>45869</v>
@@ -8463,69 +8445,13 @@
         <v>422</v>
       </c>
       <c r="B420" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C420" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D420" s="2">
         <v>45869</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A421" t="s">
-        <v>423</v>
-      </c>
-      <c r="B421" t="s">
-        <v>718</v>
-      </c>
-      <c r="C421" t="s">
-        <v>728</v>
-      </c>
-      <c r="D421" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A422" t="s">
-        <v>424</v>
-      </c>
-      <c r="B422" t="s">
-        <v>553</v>
-      </c>
-      <c r="C422" t="s">
-        <v>728</v>
-      </c>
-      <c r="D422" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A423" t="s">
-        <v>425</v>
-      </c>
-      <c r="B423" t="s">
-        <v>718</v>
-      </c>
-      <c r="C423" t="s">
-        <v>728</v>
-      </c>
-      <c r="D423" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A424" t="s">
-        <v>426</v>
-      </c>
-      <c r="B424" t="s">
-        <v>727</v>
-      </c>
-      <c r="C424" t="s">
-        <v>728</v>
-      </c>
-      <c r="D424" t="s">
-        <v>730</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_bricks.xlsx
+++ b/mapping/map_ibs_bricks.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F12604-346D-4113-850A-A5CDB6A4BEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="bricks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="733">
   <si>
     <t>dist_brickcode</t>
   </si>
@@ -1291,6 +1285,24 @@
     <t xml:space="preserve"> قنا                </t>
   </si>
   <si>
+    <t xml:space="preserve">البحرالاحمر         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENIA EL KAMH - BELBES                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الغردقة             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANI SUEF EHNASIA                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENOFIA III SANTARIS                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقاده               </t>
+  </si>
+  <si>
     <t>Nasr City</t>
   </si>
   <si>
@@ -2191,17 +2203,26 @@
     <t>Sahel Seleem</t>
   </si>
   <si>
+    <t>Ehnasia</t>
+  </si>
+  <si>
+    <t>Sentrees</t>
+  </si>
+  <si>
     <t>Mustafa Muhammed</t>
+  </si>
+  <si>
+    <t>2025-10-07 12:43:53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2265,21 +2286,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2317,7 +2330,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2351,7 +2364,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2386,10 +2398,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2562,19 +2573,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D420"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="J423" sqref="J423"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2588,5870 +2594,5954 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C2" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D2" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C3" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D3" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C4" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D4" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C5" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D5" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C6" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D6" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C7" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D7" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C8" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D8" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C9" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D9" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C10" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D10" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C11" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D11" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C12" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D12" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C13" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D13" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C14" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D14" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C15" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D15" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C16" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D16" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C17" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D17" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C18" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D18" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C19" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D19" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C20" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D20" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C21" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D21" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C22" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D22" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C23" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D23" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C24" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D24" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C25" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D25" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C26" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D26" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C27" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D27" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C28" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D28" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C29" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D29" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C30" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D30" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C31" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D31" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C32" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D32" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C33" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D33" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C34" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D34" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C35" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D35" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C36" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D36" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C37" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D37" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C38" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D38" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C39" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D39" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C40" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D40" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C41" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D41" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C42" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D42" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C43" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D43" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C44" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D44" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C45" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D45" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C46" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D46" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C47" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D47" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C48" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D48" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C49" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D49" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C50" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D50" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C51" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D51" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C52" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D52" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C53" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D53" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C54" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D54" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C55" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D55" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C56" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D56" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C57" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D57" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C58" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D58" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C59" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D59" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C60" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D60" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C61" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D61" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C62" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D62" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C63" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D63" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C64" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D64" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C65" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D65" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C66" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D66" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C67" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D67" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C68" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D68" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C69" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D69" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C70" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D70" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C71" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D71" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C72" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D72" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C73" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D73" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C74" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D74" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C75" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D75" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C76" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D76" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C77" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D77" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C78" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D78" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C79" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D79" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C80" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D80" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C81" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D81" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C82" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D82" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C83" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D83" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C84" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D84" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C85" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D85" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C86" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D86" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C87" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D87" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C88" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D88" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C89" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D89" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C90" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D90" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C91" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D91" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C92" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D92" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C93" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D93" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C94" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D94" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C95" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D95" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C96" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D96" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C97" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D97" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C98" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D98" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C99" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D99" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C100" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D100" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C101" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D101" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C102" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D102" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C103" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D103" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C104" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D104" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C105" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D105" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C106" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D106" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C107" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D107" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C108" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D108" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C109" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D109" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C110" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D110" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C111" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D111" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C112" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D112" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C113" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D113" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C114" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D114" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C115" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D115" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C116" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D116" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C117" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D117" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C118" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D118" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C119" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D119" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C120" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D120" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C121" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D121" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C122" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D122" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="C123" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D123" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="C124" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D124" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C125" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D125" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C126" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D126" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C127" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D127" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C128" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D128" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C129" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D129" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C130" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D130" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C131" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D131" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C132" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D132" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C133" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D133" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C134" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D134" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C135" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D135" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C136" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D136" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C137" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D137" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C138" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D138" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C139" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D139" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C140" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D140" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C141" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D141" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C142" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D142" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C143" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D143" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="C144" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D144" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C145" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D145" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="C146" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D146" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C147" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D147" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C148" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D148" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C149" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D149" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C150" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D150" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C151" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D151" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C152" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D152" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C153" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D153" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C154" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D154" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C155" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D155" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C156" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D156" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C157" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D157" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C158" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D158" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C159" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D159" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="C160" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D160" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C161" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D161" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C162" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D162" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C163" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D163" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C164" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D164" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C165" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D165" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C166" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D166" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C167" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D167" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C168" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D168" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C169" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D169" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C170" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D170" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C171" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D171" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C172" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D172" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C173" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D173" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C174" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D174" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C175" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D175" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C176" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D176" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C177" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D177" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C178" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D178" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C179" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D179" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C180" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D180" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C181" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D181" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C182" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D182" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C183" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D183" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C184" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D184" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C185" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D185" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C186" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D186" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="C187" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D187" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C188" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D188" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C189" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D189" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C190" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D190" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C191" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D191" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="C192" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D192" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="C193" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D193" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="C194" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D194" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C195" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D195" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="C196" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D196" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="C197" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D197" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="C198" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D198" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="C199" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D199" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C200" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D200" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C201" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D201" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="C202" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D202" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C203" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D203" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C204" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D204" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="C205" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D205" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C206" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D206" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="C207" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D207" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C208" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D208" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="C209" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D209" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="C210" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D210" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C211" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D211" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="C212" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D212" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C213" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D213" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C214" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D214" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C215" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D215" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="C216" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D216" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C217" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D217" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C218" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D218" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C219" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D219" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C220" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D220" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C221" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D221" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C222" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D222" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C223" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D223" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C224" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D224" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C225" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D225" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="C226" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D226" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="C227" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D227" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C228" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D228" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="C229" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D229" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="C230" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D230" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="C231" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D231" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="C232" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D232" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="C233" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D233" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="C234" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D234" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="C235" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D235" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C236" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D236" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="C237" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D237" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="C238" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D238" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C239" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D239" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="C240" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D240" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="C241" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D241" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C242" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D242" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C243" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D243" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C244" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D244" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="C245" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D245" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="C246" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D246" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="C247" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D247" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C248" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D248" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C249" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D249" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="C250" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D250" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C251" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D251" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C252" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D252" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="C253" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D253" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C254" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D254" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C255" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D255" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C256" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D256" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="C257" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D257" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="C258" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D258" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="C259" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D259" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="C260" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D260" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C261" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D261" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="C262" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D262" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="C263" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D263" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="C264" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D264" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C265" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D265" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="C266" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D266" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="C267" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D267" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="C268" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D268" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C269" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D269" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C270" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D270" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C271" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D271" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="C272" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D272" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="C273" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D273" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="C274" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D274" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="C275" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D275" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="C276" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D276" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C277" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D277" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="C278" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D278" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="C279" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D279" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C280" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D280" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C281" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D281" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C282" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D282" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="C283" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D283" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="C284" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D284" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C285" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D285" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="C286" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D286" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="C287" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D287" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="C288" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D288" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="C289" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D289" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C290" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D290" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="C291" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D291" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="C292" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D292" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="C293" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D293" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="C294" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D294" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C295" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D295" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="C296" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D296" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="C297" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D297" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="C298" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D298" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C299" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D299" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C300" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D300" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="C301" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D301" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C302" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D302" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C303" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D303" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C304" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D304" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="C305" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D305" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C306" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D306" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="C307" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D307" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="C308" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D308" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="C309" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D309" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="C310" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D310" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="C311" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D311" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C312" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D312" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="C313" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D313" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="C314" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D314" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C315" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D315" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C316" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D316" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="C317" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D317" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="C318" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D318" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="C319" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D319" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="C320" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D320" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="C321" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D321" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="C322" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D322" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="C323" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D323" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="C324" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D324" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="C325" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D325" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C326" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D326" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="C327" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D327" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C328" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D328" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C329" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D329" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C330" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D330" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C331" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D331" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C332" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D332" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C333" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D333" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="C334" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D334" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C335" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D335" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C336" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D336" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
         <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C337" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D337" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C338" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D338" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C339" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D339" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
         <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C340" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D340" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>343</v>
       </c>
       <c r="B341" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C341" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D341" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>344</v>
       </c>
       <c r="B342" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C342" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D342" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4">
       <c r="A343" t="s">
         <v>345</v>
       </c>
       <c r="B343" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="C343" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D343" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>346</v>
       </c>
       <c r="B344" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C344" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D344" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4">
       <c r="A345" t="s">
         <v>347</v>
       </c>
       <c r="B345" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C345" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D345" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4">
       <c r="A346" t="s">
         <v>348</v>
       </c>
       <c r="B346" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C346" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D346" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4">
       <c r="A347" t="s">
         <v>349</v>
       </c>
       <c r="B347" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C347" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D347" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4">
       <c r="A348" t="s">
         <v>350</v>
       </c>
       <c r="B348" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="C348" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D348" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4">
       <c r="A349" t="s">
         <v>351</v>
       </c>
       <c r="B349" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="C349" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D349" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
         <v>352</v>
       </c>
       <c r="B350" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="C350" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D350" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4">
       <c r="A351" t="s">
         <v>353</v>
       </c>
       <c r="B351" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C351" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D351" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
         <v>354</v>
       </c>
       <c r="B352" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="C352" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D352" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4">
       <c r="A353" t="s">
         <v>355</v>
       </c>
       <c r="B353" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="C353" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D353" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4">
       <c r="A354" t="s">
         <v>356</v>
       </c>
       <c r="B354" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C354" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D354" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4">
       <c r="A355" t="s">
         <v>357</v>
       </c>
       <c r="B355" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C355" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D355" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4">
       <c r="A356" t="s">
         <v>358</v>
       </c>
       <c r="B356" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C356" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D356" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4">
       <c r="A357" t="s">
         <v>359</v>
       </c>
       <c r="B357" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="C357" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D357" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4">
       <c r="A358" t="s">
         <v>360</v>
       </c>
       <c r="B358" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="C358" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D358" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4">
       <c r="A359" t="s">
         <v>361</v>
       </c>
       <c r="B359" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C359" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D359" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4">
       <c r="A360" t="s">
         <v>362</v>
       </c>
       <c r="B360" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="C360" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D360" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4">
       <c r="A361" t="s">
         <v>363</v>
       </c>
       <c r="B361" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C361" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D361" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4">
       <c r="A362" t="s">
         <v>364</v>
       </c>
       <c r="B362" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C362" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D362" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4">
       <c r="A363" t="s">
         <v>365</v>
       </c>
       <c r="B363" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="C363" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D363" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4">
       <c r="A364" t="s">
         <v>366</v>
       </c>
       <c r="B364" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="C364" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D364" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4">
       <c r="A365" t="s">
         <v>367</v>
       </c>
       <c r="B365" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C365" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D365" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4">
       <c r="A366" t="s">
         <v>368</v>
       </c>
       <c r="B366" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C366" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D366" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4">
       <c r="A367" t="s">
         <v>369</v>
       </c>
       <c r="B367" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C367" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D367" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4">
       <c r="A368" t="s">
         <v>370</v>
       </c>
       <c r="B368" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C368" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D368" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4">
       <c r="A369" t="s">
         <v>371</v>
       </c>
       <c r="B369" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C369" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D369" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4">
       <c r="A370" t="s">
         <v>372</v>
       </c>
       <c r="B370" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C370" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D370" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4">
       <c r="A371" t="s">
         <v>373</v>
       </c>
       <c r="B371" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="C371" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D371" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4">
       <c r="A372" t="s">
         <v>374</v>
       </c>
       <c r="B372" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C372" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D372" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4">
       <c r="A373" t="s">
         <v>375</v>
       </c>
       <c r="B373" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="C373" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D373" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4">
       <c r="A374" t="s">
         <v>376</v>
       </c>
       <c r="B374" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C374" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D374" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4">
       <c r="A375" t="s">
         <v>377</v>
       </c>
       <c r="B375" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C375" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D375" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4">
       <c r="A376" t="s">
         <v>378</v>
       </c>
       <c r="B376" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="C376" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D376" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4">
       <c r="A377" t="s">
         <v>379</v>
       </c>
       <c r="B377" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C377" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D377" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4">
       <c r="A378" t="s">
         <v>380</v>
       </c>
       <c r="B378" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="C378" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D378" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4">
       <c r="A379" t="s">
         <v>381</v>
       </c>
       <c r="B379" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C379" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D379" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4">
       <c r="A380" t="s">
         <v>382</v>
       </c>
       <c r="B380" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="C380" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D380" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4">
       <c r="A381" t="s">
         <v>383</v>
       </c>
       <c r="B381" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C381" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D381" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4">
       <c r="A382" t="s">
         <v>384</v>
       </c>
       <c r="B382" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="C382" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D382" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4">
       <c r="A383" t="s">
         <v>385</v>
       </c>
       <c r="B383" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C383" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D383" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4">
       <c r="A384" t="s">
         <v>386</v>
       </c>
       <c r="B384" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C384" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D384" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4">
       <c r="A385" t="s">
         <v>387</v>
       </c>
       <c r="B385" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C385" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D385" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4">
       <c r="A386" t="s">
         <v>388</v>
       </c>
       <c r="B386" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C386" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D386" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4">
       <c r="A387" t="s">
         <v>389</v>
       </c>
       <c r="B387" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C387" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D387" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4">
       <c r="A388" t="s">
         <v>390</v>
       </c>
       <c r="B388" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="C388" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D388" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4">
       <c r="A389" t="s">
         <v>391</v>
       </c>
       <c r="B389" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C389" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D389" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4">
       <c r="A390" t="s">
         <v>392</v>
       </c>
       <c r="B390" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="C390" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D390" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4">
       <c r="A391" t="s">
         <v>393</v>
       </c>
       <c r="B391" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C391" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D391" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
         <v>394</v>
       </c>
       <c r="B392" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C392" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D392" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4">
       <c r="A393" t="s">
         <v>395</v>
       </c>
       <c r="B393" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C393" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D393" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4">
       <c r="A394" t="s">
         <v>396</v>
       </c>
       <c r="B394" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C394" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D394" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
         <v>397</v>
       </c>
       <c r="B395" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C395" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D395" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
         <v>398</v>
       </c>
       <c r="B396" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C396" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D396" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4">
       <c r="A397" t="s">
         <v>399</v>
       </c>
       <c r="B397" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="C397" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D397" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4">
       <c r="A398" t="s">
         <v>400</v>
       </c>
       <c r="B398" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C398" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D398" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4">
       <c r="A399" t="s">
         <v>401</v>
       </c>
       <c r="B399" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C399" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D399" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4">
       <c r="A400" t="s">
         <v>402</v>
       </c>
       <c r="B400" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C400" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D400" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4">
       <c r="A401" t="s">
         <v>403</v>
       </c>
       <c r="B401" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="C401" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D401" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4">
       <c r="A402" t="s">
         <v>404</v>
       </c>
       <c r="B402" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="C402" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D402" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4">
       <c r="A403" t="s">
         <v>405</v>
       </c>
       <c r="B403" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="C403" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D403" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4">
       <c r="A404" t="s">
         <v>406</v>
       </c>
       <c r="B404" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C404" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D404" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4">
       <c r="A405" t="s">
         <v>407</v>
       </c>
       <c r="B405" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="C405" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D405" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4">
       <c r="A406" t="s">
         <v>408</v>
       </c>
       <c r="B406" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C406" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D406" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4">
       <c r="A407" t="s">
         <v>409</v>
       </c>
       <c r="B407" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C407" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D407" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4">
       <c r="A408" t="s">
         <v>410</v>
       </c>
       <c r="B408" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="C408" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D408" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4">
       <c r="A409" t="s">
         <v>411</v>
       </c>
       <c r="B409" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C409" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D409" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4">
       <c r="A410" t="s">
         <v>412</v>
       </c>
       <c r="B410" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C410" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D410" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4">
       <c r="A411" t="s">
         <v>413</v>
       </c>
       <c r="B411" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="C411" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D411" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4">
       <c r="A412" t="s">
         <v>414</v>
       </c>
       <c r="B412" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C412" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D412" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4">
       <c r="A413" t="s">
         <v>415</v>
       </c>
       <c r="B413" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C413" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D413" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4">
       <c r="A414" t="s">
         <v>416</v>
       </c>
       <c r="B414" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C414" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D414" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4">
       <c r="A415" t="s">
         <v>417</v>
       </c>
       <c r="B415" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C415" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D415" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4">
       <c r="A416" t="s">
         <v>418</v>
       </c>
       <c r="B416" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C416" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D416" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4">
       <c r="A417" t="s">
         <v>419</v>
       </c>
       <c r="B417" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C417" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D417" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4">
       <c r="A418" t="s">
         <v>420</v>
       </c>
       <c r="B418" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="C418" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D418" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4">
       <c r="A419" t="s">
         <v>421</v>
       </c>
       <c r="B419" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C419" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D419" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4">
       <c r="A420" t="s">
         <v>422</v>
       </c>
       <c r="B420" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C420" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D420" s="2">
         <v>45869</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" t="s">
+        <v>423</v>
+      </c>
+      <c r="B421" t="s">
+        <v>720</v>
+      </c>
+      <c r="C421" t="s">
+        <v>731</v>
+      </c>
+      <c r="D421" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" t="s">
+        <v>424</v>
+      </c>
+      <c r="B422" t="s">
+        <v>555</v>
+      </c>
+      <c r="C422" t="s">
+        <v>731</v>
+      </c>
+      <c r="D422" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" t="s">
+        <v>425</v>
+      </c>
+      <c r="B423" t="s">
+        <v>720</v>
+      </c>
+      <c r="C423" t="s">
+        <v>731</v>
+      </c>
+      <c r="D423" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" t="s">
+        <v>426</v>
+      </c>
+      <c r="B424" t="s">
+        <v>729</v>
+      </c>
+      <c r="C424" t="s">
+        <v>731</v>
+      </c>
+      <c r="D424" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" t="s">
+        <v>427</v>
+      </c>
+      <c r="B425" t="s">
+        <v>730</v>
+      </c>
+      <c r="C425" t="s">
+        <v>731</v>
+      </c>
+      <c r="D425" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" t="s">
+        <v>428</v>
+      </c>
+      <c r="B426" t="s">
+        <v>673</v>
+      </c>
+      <c r="C426" t="s">
+        <v>731</v>
+      </c>
+      <c r="D426" t="s">
+        <v>732</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_bricks.xlsx
+++ b/mapping/map_ibs_bricks.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34ABBED-5BC6-4A2D-80B0-84A96742C911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bricks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="730">
   <si>
     <t>dist_brickcode</t>
   </si>
@@ -1297,12 +1303,6 @@
     <t xml:space="preserve">BANI SUEF EHNASIA                       </t>
   </si>
   <si>
-    <t xml:space="preserve">MENOFIA III SANTARIS                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">نقاده               </t>
-  </si>
-  <si>
     <t>Nasr City</t>
   </si>
   <si>
@@ -2204,9 +2204,6 @@
   </si>
   <si>
     <t>Ehnasia</t>
-  </si>
-  <si>
-    <t>Sentrees</t>
   </si>
   <si>
     <t>Mustafa Muhammed</t>
@@ -2218,11 +2215,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2286,13 +2283,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2330,7 +2335,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2364,6 +2369,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2398,9 +2404,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2573,14 +2580,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D426"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D424"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
+      <selection activeCell="H437" sqref="H437"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2594,5954 +2603,5926 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D2" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D3" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C4" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D4" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C5" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D5" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C6" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D6" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D7" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C8" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D8" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C9" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D9" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C10" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D10" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C11" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D11" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C12" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D12" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C13" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D13" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C14" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D14" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C15" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D15" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C16" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D16" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C17" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D17" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C18" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D18" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C19" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D19" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C20" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D20" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C21" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D21" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C22" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D22" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C23" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D23" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C24" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D24" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C25" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D25" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C26" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D26" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C27" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D27" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C28" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D28" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C29" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D29" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C30" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D30" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C31" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D31" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C32" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D32" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C33" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D33" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C34" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D34" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C35" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D35" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C36" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D36" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C37" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D37" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C38" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D38" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C39" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D39" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C40" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D40" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C41" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D41" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C42" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D42" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C43" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D43" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C44" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D44" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C45" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D45" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C46" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D46" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C47" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D47" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C48" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D48" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C49" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D49" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C50" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D50" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C51" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D51" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C52" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D52" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C53" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D53" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C54" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D54" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C55" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D55" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C56" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D56" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C57" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D57" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C58" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D58" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C59" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D59" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C60" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D60" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C61" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D61" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C62" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D62" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C63" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D63" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C64" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D64" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C65" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D65" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C66" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D66" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C67" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D67" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C68" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D68" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C69" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D69" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C70" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D70" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C71" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D71" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C72" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D72" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C73" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D73" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C74" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D74" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C75" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D75" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C76" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D76" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C77" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D77" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C78" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D78" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C79" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D79" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C80" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D80" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C81" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D81" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C82" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D82" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C83" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D83" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C84" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D84" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C85" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D85" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C86" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D86" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C87" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D87" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C88" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D88" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C89" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D89" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C90" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D90" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C91" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D91" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C92" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D92" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C93" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D93" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C94" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D94" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C95" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D95" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C96" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D96" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C97" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D97" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C98" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D98" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C99" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D99" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C100" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D100" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C101" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D101" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C102" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D102" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C103" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D103" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C104" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D104" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C105" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D105" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C106" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D106" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C107" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D107" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C108" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D108" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C109" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D109" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C110" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D110" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C111" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D111" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C112" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D112" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C113" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D113" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C114" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D114" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C115" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D115" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C116" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D116" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C117" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D117" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C118" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D118" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C119" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D119" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C120" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D120" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C121" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D121" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C122" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D122" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C123" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D123" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C124" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D124" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C125" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D125" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C126" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D126" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C127" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D127" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C128" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D128" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C129" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D129" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C130" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D130" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C131" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D131" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C132" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D132" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C133" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D133" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C134" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D134" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C135" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D135" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C136" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D136" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C137" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D137" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C138" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D138" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C139" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D139" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C140" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D140" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C141" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D141" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C142" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D142" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C143" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D143" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C144" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D144" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C145" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D145" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C146" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D146" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C147" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D147" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C148" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D148" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C149" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D149" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C150" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D150" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C151" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D151" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C152" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D152" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C153" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D153" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C154" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D154" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C155" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D155" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C156" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D156" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C157" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D157" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C158" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D158" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C159" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D159" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C160" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D160" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C161" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D161" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C162" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D162" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C163" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D163" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C164" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D164" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C165" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D165" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C166" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D166" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C167" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D167" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C168" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D168" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C169" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D169" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C170" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D170" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C171" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D171" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C172" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D172" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C173" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D173" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C174" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D174" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C175" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D175" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C176" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D176" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C177" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D177" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C178" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D178" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C179" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D179" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C180" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D180" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C181" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D181" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C182" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D182" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C183" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D183" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C184" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D184" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C185" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D185" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C186" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D186" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C187" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D187" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C188" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D188" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C189" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D189" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C190" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D190" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C191" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D191" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C192" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D192" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C193" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D193" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C194" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D194" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C195" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D195" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C196" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D196" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C197" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D197" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C198" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D198" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C199" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D199" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C200" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D200" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C201" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D201" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C202" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D202" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C203" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D203" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C204" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D204" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C205" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D205" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C206" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D206" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C207" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D207" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C208" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D208" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C209" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D209" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C210" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D210" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C211" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D211" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C212" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D212" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C213" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D213" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C214" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D214" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C215" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D215" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C216" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D216" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C217" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D217" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C218" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D218" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C219" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D219" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C220" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D220" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C221" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D221" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C222" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D222" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C223" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D223" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C224" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D224" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C225" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D225" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C226" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D226" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C227" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D227" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C228" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D228" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C229" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D229" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C230" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D230" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C231" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D231" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C232" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D232" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C233" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D233" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C234" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D234" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C235" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D235" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C236" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D236" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C237" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D237" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C238" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D238" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C239" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D239" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C240" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D240" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C241" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D241" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C242" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D242" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C243" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D243" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C244" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D244" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C245" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D245" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C246" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D246" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C247" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D247" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C248" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D248" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C249" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D249" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C250" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D250" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C251" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D251" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C252" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D252" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C253" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D253" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C254" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D254" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C255" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D255" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C256" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D256" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C257" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D257" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C258" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D258" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C259" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D259" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C260" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D260" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C261" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D261" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C262" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D262" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C263" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D263" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C264" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D264" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C265" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D265" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C266" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D266" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C267" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D267" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C268" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D268" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C269" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D269" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C270" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D270" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C271" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D271" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C272" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D272" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C273" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D273" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C274" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D274" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C275" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D275" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C276" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D276" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C277" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D277" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C278" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D278" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C279" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D279" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C280" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D280" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C281" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D281" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C282" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D282" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C283" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D283" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C284" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D284" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C285" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D285" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C286" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D286" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C287" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D287" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C288" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D288" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C289" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D289" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C290" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D290" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C291" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D291" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C292" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D292" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C293" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D293" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C294" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D294" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C295" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D295" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C296" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D296" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C297" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D297" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C298" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D298" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C299" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D299" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C300" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D300" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C301" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D301" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C302" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D302" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C303" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D303" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C304" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D304" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C305" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D305" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C306" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D306" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C307" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D307" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C308" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D308" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C309" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D309" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C310" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D310" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C311" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D311" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C312" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D312" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C313" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D313" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C314" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D314" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C315" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D315" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C316" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D316" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C317" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D317" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C318" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D318" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C319" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D319" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C320" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D320" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C321" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D321" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C322" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D322" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C323" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D323" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C324" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D324" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C325" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D325" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C326" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D326" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C327" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D327" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C328" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D328" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C329" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D329" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C330" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D330" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C331" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D331" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C332" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D332" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C333" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D333" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C334" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D334" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C335" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D335" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C336" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D336" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C337" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D337" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C338" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D338" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C339" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D339" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C340" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D340" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>343</v>
       </c>
       <c r="B341" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C341" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D341" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>344</v>
       </c>
       <c r="B342" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C342" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D342" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>345</v>
       </c>
       <c r="B343" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C343" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D343" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>346</v>
       </c>
       <c r="B344" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C344" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D344" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>347</v>
       </c>
       <c r="B345" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C345" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D345" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>348</v>
       </c>
       <c r="B346" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C346" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D346" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>349</v>
       </c>
       <c r="B347" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C347" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D347" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>350</v>
       </c>
       <c r="B348" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C348" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D348" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>351</v>
       </c>
       <c r="B349" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C349" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D349" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>352</v>
       </c>
       <c r="B350" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C350" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D350" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>353</v>
       </c>
       <c r="B351" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C351" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D351" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>354</v>
       </c>
       <c r="B352" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C352" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D352" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>355</v>
       </c>
       <c r="B353" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C353" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D353" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>356</v>
       </c>
       <c r="B354" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C354" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D354" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>357</v>
       </c>
       <c r="B355" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C355" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D355" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>358</v>
       </c>
       <c r="B356" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C356" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D356" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>359</v>
       </c>
       <c r="B357" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C357" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D357" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>360</v>
       </c>
       <c r="B358" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C358" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D358" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>361</v>
       </c>
       <c r="B359" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C359" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D359" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>362</v>
       </c>
       <c r="B360" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C360" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D360" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>363</v>
       </c>
       <c r="B361" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C361" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D361" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>364</v>
       </c>
       <c r="B362" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C362" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D362" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>365</v>
       </c>
       <c r="B363" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C363" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D363" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>366</v>
       </c>
       <c r="B364" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C364" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D364" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>367</v>
       </c>
       <c r="B365" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C365" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D365" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>368</v>
       </c>
       <c r="B366" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C366" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D366" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>369</v>
       </c>
       <c r="B367" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C367" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D367" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>370</v>
       </c>
       <c r="B368" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C368" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D368" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>371</v>
       </c>
       <c r="B369" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C369" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D369" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>372</v>
       </c>
       <c r="B370" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C370" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D370" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>373</v>
       </c>
       <c r="B371" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C371" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D371" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>374</v>
       </c>
       <c r="B372" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C372" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D372" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>375</v>
       </c>
       <c r="B373" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C373" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D373" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>376</v>
       </c>
       <c r="B374" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C374" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D374" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>377</v>
       </c>
       <c r="B375" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C375" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D375" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>378</v>
       </c>
       <c r="B376" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C376" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D376" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>379</v>
       </c>
       <c r="B377" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C377" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D377" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>380</v>
       </c>
       <c r="B378" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C378" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D378" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>381</v>
       </c>
       <c r="B379" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C379" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D379" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>382</v>
       </c>
       <c r="B380" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C380" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D380" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>383</v>
       </c>
       <c r="B381" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C381" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D381" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>384</v>
       </c>
       <c r="B382" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C382" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D382" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>385</v>
       </c>
       <c r="B383" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C383" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D383" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>386</v>
       </c>
       <c r="B384" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C384" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D384" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>387</v>
       </c>
       <c r="B385" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C385" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D385" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>388</v>
       </c>
       <c r="B386" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C386" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D386" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>389</v>
       </c>
       <c r="B387" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C387" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D387" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>390</v>
       </c>
       <c r="B388" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C388" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D388" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>391</v>
       </c>
       <c r="B389" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C389" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D389" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>392</v>
       </c>
       <c r="B390" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C390" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D390" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>393</v>
       </c>
       <c r="B391" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C391" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D391" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>394</v>
       </c>
       <c r="B392" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C392" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D392" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>395</v>
       </c>
       <c r="B393" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C393" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D393" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>396</v>
       </c>
       <c r="B394" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C394" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D394" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>397</v>
       </c>
       <c r="B395" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C395" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D395" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>398</v>
       </c>
       <c r="B396" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C396" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D396" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>399</v>
       </c>
       <c r="B397" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C397" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D397" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>400</v>
       </c>
       <c r="B398" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C398" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D398" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>401</v>
       </c>
       <c r="B399" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C399" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D399" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>402</v>
       </c>
       <c r="B400" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C400" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D400" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>403</v>
       </c>
       <c r="B401" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C401" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D401" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>404</v>
       </c>
       <c r="B402" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C402" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D402" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>405</v>
       </c>
       <c r="B403" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C403" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D403" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>406</v>
       </c>
       <c r="B404" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C404" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D404" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>407</v>
       </c>
       <c r="B405" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C405" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D405" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>408</v>
       </c>
       <c r="B406" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C406" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D406" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>409</v>
       </c>
       <c r="B407" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C407" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D407" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>410</v>
       </c>
       <c r="B408" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C408" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D408" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>411</v>
       </c>
       <c r="B409" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C409" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D409" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>412</v>
       </c>
       <c r="B410" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C410" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D410" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>413</v>
       </c>
       <c r="B411" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C411" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D411" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>414</v>
       </c>
       <c r="B412" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C412" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D412" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>415</v>
       </c>
       <c r="B413" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C413" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D413" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>416</v>
       </c>
       <c r="B414" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C414" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D414" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>417</v>
       </c>
       <c r="B415" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C415" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D415" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>418</v>
       </c>
       <c r="B416" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C416" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D416" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>419</v>
       </c>
       <c r="B417" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C417" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D417" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>420</v>
       </c>
       <c r="B418" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C418" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D418" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>421</v>
       </c>
       <c r="B419" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C419" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D419" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>422</v>
       </c>
       <c r="B420" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C420" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D420" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>423</v>
       </c>
       <c r="B421" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C421" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D421" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>424</v>
       </c>
       <c r="B422" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C422" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D422" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>425</v>
       </c>
       <c r="B423" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C423" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D423" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>426</v>
       </c>
       <c r="B424" t="s">
+        <v>727</v>
+      </c>
+      <c r="C424" t="s">
+        <v>728</v>
+      </c>
+      <c r="D424" t="s">
         <v>729</v>
-      </c>
-      <c r="C424" t="s">
-        <v>731</v>
-      </c>
-      <c r="D424" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
-      <c r="A425" t="s">
-        <v>427</v>
-      </c>
-      <c r="B425" t="s">
-        <v>730</v>
-      </c>
-      <c r="C425" t="s">
-        <v>731</v>
-      </c>
-      <c r="D425" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4">
-      <c r="A426" t="s">
-        <v>428</v>
-      </c>
-      <c r="B426" t="s">
-        <v>673</v>
-      </c>
-      <c r="C426" t="s">
-        <v>731</v>
-      </c>
-      <c r="D426" t="s">
-        <v>732</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_bricks.xlsx
+++ b/mapping/map_ibs_bricks.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34ABBED-5BC6-4A2D-80B0-84A96742C911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="bricks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="734">
   <si>
     <t>dist_brickcode</t>
   </si>
@@ -1303,6 +1297,12 @@
     <t xml:space="preserve">BANI SUEF EHNASIA                       </t>
   </si>
   <si>
+    <t xml:space="preserve">MENOFIA III SANTARIS                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقاده               </t>
+  </si>
+  <si>
     <t>Nasr City</t>
   </si>
   <si>
@@ -2206,20 +2206,26 @@
     <t>Ehnasia</t>
   </si>
   <si>
+    <t>Sentrees</t>
+  </si>
+  <si>
     <t>Mustafa Muhammed</t>
   </si>
   <si>
     <t>2025-10-07 12:43:53</t>
+  </si>
+  <si>
+    <t>2025-10-07 13:35:36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2283,21 +2289,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2335,7 +2333,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2369,7 +2367,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2404,10 +2401,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2580,16 +2576,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D424"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
-      <selection activeCell="H437" sqref="H437"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2603,5926 +2597,5954 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C2" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D2" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D3" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C4" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D4" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C5" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D5" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C6" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D6" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C7" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D7" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C8" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D8" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C9" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D9" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C10" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D10" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C11" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D11" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C12" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D12" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C13" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D13" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C14" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D14" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C15" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D15" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C16" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D16" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C17" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D17" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C18" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D18" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C19" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D19" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C20" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D20" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C21" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D21" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C22" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D22" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C23" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D23" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C24" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D24" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C25" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D25" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C26" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D26" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C27" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D27" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C28" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D28" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C29" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D29" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C30" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D30" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C31" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D31" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C32" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D32" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C33" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D33" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C34" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D34" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C35" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D35" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C36" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D36" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C37" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D37" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C38" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D38" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C39" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D39" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C40" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D40" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C41" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D41" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C42" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D42" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C43" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D43" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C44" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D44" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C45" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D45" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C46" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D46" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C47" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D47" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C48" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D48" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C49" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D49" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C50" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D50" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C51" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D51" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C52" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D52" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C53" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D53" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C54" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D54" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C55" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D55" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C56" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D56" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C57" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D57" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C58" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D58" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C59" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D59" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C60" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D60" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C61" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D61" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C62" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D62" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C63" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D63" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C64" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D64" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C65" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D65" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C66" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D66" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C67" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D67" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C68" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D68" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C69" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D69" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C70" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D70" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C71" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D71" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C72" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D72" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C73" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D73" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C74" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D74" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C75" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D75" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C76" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D76" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C77" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D77" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C78" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D78" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C79" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D79" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C80" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D80" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C81" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D81" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C82" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D82" s="2">
         <v>45869</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>85</v>
  